--- a/name/vnindex/20221222/VNINDEX_HOSE_5p_20221222.xlsx
+++ b/name/vnindex/20221222/VNINDEX_HOSE_5p_20221222.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2457 +454,5957 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1671700500000</v>
+        <v>1671700440000</v>
       </c>
       <c r="B2">
-        <v>7392000</v>
+        <v>3124200</v>
       </c>
       <c r="C2">
-        <v>13771900</v>
+        <v>4582400</v>
       </c>
       <c r="D2">
-        <v>3110700</v>
+        <v>2926200</v>
       </c>
       <c r="E2">
-        <v>118869593000</v>
+        <v>48191853000</v>
       </c>
       <c r="F2">
-        <v>221476111000</v>
+        <v>75843781000</v>
       </c>
       <c r="G2">
-        <v>50301911000</v>
+        <v>47323008000</v>
       </c>
       <c r="H2">
-        <v>24274600</v>
+        <v>10632800</v>
       </c>
       <c r="I2">
-        <v>390647615000</v>
+        <v>171358642000</v>
       </c>
       <c r="J2" t="str">
-        <v>2022-12-22T09:15:00.000Z</v>
+        <v>2022-12-22T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>390647615000</v>
+        <v>171358642000</v>
       </c>
       <c r="L2">
-        <v>24274600</v>
+        <v>10632800</v>
       </c>
       <c r="M2">
-        <v>6379900</v>
+        <v>1458200</v>
       </c>
       <c r="N2">
-        <v>102606518000</v>
+        <v>27651928000</v>
       </c>
       <c r="O2">
-        <v>6379900</v>
+        <v>1458200</v>
       </c>
       <c r="P2">
-        <v>102606518000</v>
+        <v>27651928000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1671700800000</v>
+        <v>1671700560000</v>
       </c>
       <c r="B3">
-        <v>8542400</v>
+        <v>1900000</v>
       </c>
       <c r="C3">
-        <v>5867400</v>
+        <v>4554300</v>
       </c>
       <c r="D3">
-        <v>87900</v>
+        <v>113200</v>
       </c>
       <c r="E3">
-        <v>151196250000</v>
+        <v>29528321000</v>
       </c>
       <c r="F3">
-        <v>98277685000</v>
+        <v>75293713000</v>
       </c>
       <c r="G3">
-        <v>1252295000</v>
+        <v>1609972000</v>
       </c>
       <c r="H3">
-        <v>14497700</v>
+        <v>6567500</v>
       </c>
       <c r="I3">
-        <v>250726230000</v>
+        <v>106432006000</v>
       </c>
       <c r="J3" t="str">
-        <v>2022-12-22T09:20:00.000Z</v>
+        <v>2022-12-22T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>641373845000</v>
+        <v>277790648000</v>
       </c>
       <c r="L3">
-        <v>38772300</v>
+        <v>17200300</v>
       </c>
       <c r="M3">
-        <v>-2675000</v>
+        <v>2654300</v>
       </c>
       <c r="N3">
-        <v>-52918565000</v>
+        <v>45765392000</v>
       </c>
       <c r="O3">
-        <v>3704900</v>
+        <v>4112500</v>
       </c>
       <c r="P3">
-        <v>49687953000</v>
+        <v>73417320000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1671701100000</v>
+        <v>1671700680000</v>
       </c>
       <c r="B4">
-        <v>6881700</v>
+        <v>2367800</v>
       </c>
       <c r="C4">
-        <v>3190300</v>
+        <v>4635200</v>
       </c>
       <c r="D4">
-        <v>85500</v>
+        <v>71300</v>
       </c>
       <c r="E4">
-        <v>109330621000</v>
+        <v>41149419000</v>
       </c>
       <c r="F4">
-        <v>53407575000</v>
+        <v>70338617000</v>
       </c>
       <c r="G4">
-        <v>2196406000</v>
+        <v>1368931000</v>
       </c>
       <c r="H4">
-        <v>10157500</v>
+        <v>7074300</v>
       </c>
       <c r="I4">
-        <v>164934602000</v>
+        <v>112856967000</v>
       </c>
       <c r="J4" t="str">
-        <v>2022-12-22T09:25:00.000Z</v>
+        <v>2022-12-22T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>806308447000</v>
+        <v>390647615000</v>
       </c>
       <c r="L4">
-        <v>48929800</v>
+        <v>24274600</v>
       </c>
       <c r="M4">
-        <v>-3691400</v>
+        <v>2267400</v>
       </c>
       <c r="N4">
-        <v>-55923046000</v>
+        <v>29189198000</v>
       </c>
       <c r="O4">
-        <v>13500</v>
+        <v>6379900</v>
       </c>
       <c r="P4">
-        <v>-6235093000</v>
+        <v>102606518000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1671701400000</v>
+        <v>1671700800000</v>
       </c>
       <c r="B5">
-        <v>4325100</v>
+        <v>2836100</v>
       </c>
       <c r="C5">
-        <v>3545200</v>
+        <v>3019600</v>
       </c>
       <c r="D5">
-        <v>32200</v>
+        <v>55900</v>
       </c>
       <c r="E5">
-        <v>76331808000</v>
+        <v>54758254000</v>
       </c>
       <c r="F5">
-        <v>56631531000</v>
+        <v>52315510000</v>
       </c>
       <c r="G5">
-        <v>274791000</v>
+        <v>683159000</v>
       </c>
       <c r="H5">
-        <v>7902500</v>
+        <v>5911600</v>
       </c>
       <c r="I5">
-        <v>133238130000</v>
+        <v>107756923000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-22T09:30:00.000Z</v>
+        <v>2022-12-22T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>939546577000</v>
+        <v>498404538000</v>
       </c>
       <c r="L5">
-        <v>56832300</v>
+        <v>30186200</v>
       </c>
       <c r="M5">
-        <v>-779900</v>
+        <v>183500</v>
       </c>
       <c r="N5">
-        <v>-19700277000</v>
+        <v>-2442744000</v>
       </c>
       <c r="O5">
-        <v>-766400</v>
+        <v>6563400</v>
       </c>
       <c r="P5">
-        <v>-25935370000</v>
+        <v>100163774000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1671701700000</v>
+        <v>1671700920000</v>
       </c>
       <c r="B6">
-        <v>4046900</v>
+        <v>3555400</v>
       </c>
       <c r="C6">
-        <v>3556300</v>
+        <v>2112800</v>
       </c>
       <c r="D6">
-        <v>44600</v>
+        <v>26500</v>
       </c>
       <c r="E6">
-        <v>61089523000</v>
+        <v>66356793000</v>
       </c>
       <c r="F6">
-        <v>56848514000</v>
+        <v>34140584000</v>
       </c>
       <c r="G6">
-        <v>815914000</v>
+        <v>480017000</v>
       </c>
       <c r="H6">
-        <v>7647800</v>
+        <v>5694700</v>
       </c>
       <c r="I6">
-        <v>118753951000</v>
+        <v>100977394000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-22T09:35:00.000Z</v>
+        <v>2022-12-22T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>1058300528000</v>
+        <v>599381932000</v>
       </c>
       <c r="L6">
-        <v>64480100</v>
+        <v>35880900</v>
       </c>
       <c r="M6">
-        <v>-490600</v>
+        <v>-1442600</v>
       </c>
       <c r="N6">
-        <v>-4241009000</v>
+        <v>-32216209000</v>
       </c>
       <c r="O6">
-        <v>-1257000</v>
+        <v>5120800</v>
       </c>
       <c r="P6">
-        <v>-30176379000</v>
+        <v>67947565000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1671702000000</v>
+        <v>1671701040000</v>
       </c>
       <c r="B7">
-        <v>3811000</v>
+        <v>3866200</v>
       </c>
       <c r="C7">
-        <v>3314000</v>
+        <v>1319800</v>
       </c>
       <c r="D7">
-        <v>19800</v>
+        <v>6500</v>
       </c>
       <c r="E7">
-        <v>61425685000</v>
+        <v>55007772000</v>
       </c>
       <c r="F7">
-        <v>53766919000</v>
+        <v>21800667000</v>
       </c>
       <c r="G7">
-        <v>255908000</v>
+        <v>108149000</v>
       </c>
       <c r="H7">
-        <v>7144800</v>
+        <v>5192500</v>
       </c>
       <c r="I7">
-        <v>115448512000</v>
+        <v>76916588000</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-22T09:40:00.000Z</v>
+        <v>2022-12-22T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1173749040000</v>
+        <v>676298520000</v>
       </c>
       <c r="L7">
-        <v>71624900</v>
+        <v>41073400</v>
       </c>
       <c r="M7">
-        <v>-497000</v>
+        <v>-2546400</v>
       </c>
       <c r="N7">
-        <v>-7658766000</v>
+        <v>-33207105000</v>
       </c>
       <c r="O7">
-        <v>-1754000</v>
+        <v>2574400</v>
       </c>
       <c r="P7">
-        <v>-37835145000</v>
+        <v>34740460000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1671702300000</v>
+        <v>1671701160000</v>
       </c>
       <c r="B8">
-        <v>3286300</v>
+        <v>2804800</v>
       </c>
       <c r="C8">
-        <v>8666500</v>
+        <v>1075500</v>
       </c>
       <c r="D8">
-        <v>161100</v>
+        <v>65000</v>
       </c>
       <c r="E8">
-        <v>50517056000</v>
+        <v>45234777000</v>
       </c>
       <c r="F8">
-        <v>144234259000</v>
+        <v>17634733000</v>
       </c>
       <c r="G8">
-        <v>2803455000</v>
+        <v>1869006000</v>
       </c>
       <c r="H8">
-        <v>12113900</v>
+        <v>3945300</v>
       </c>
       <c r="I8">
-        <v>197554770000</v>
+        <v>64738516000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-22T09:45:00.000Z</v>
+        <v>2022-12-22T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1371303810000</v>
+        <v>741037036000</v>
       </c>
       <c r="L8">
-        <v>83738800</v>
+        <v>45018700</v>
       </c>
       <c r="M8">
-        <v>5380200</v>
+        <v>-1729300</v>
       </c>
       <c r="N8">
-        <v>93717203000</v>
+        <v>-27600044000</v>
       </c>
       <c r="O8">
-        <v>3626200</v>
+        <v>845100</v>
       </c>
       <c r="P8">
-        <v>55882058000</v>
+        <v>7140416000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1671702600000</v>
+        <v>1671701280000</v>
       </c>
       <c r="B9">
-        <v>3446100</v>
+        <v>2361600</v>
       </c>
       <c r="C9">
-        <v>7311100</v>
+        <v>1530000</v>
       </c>
       <c r="D9">
-        <v>10600</v>
+        <v>19500</v>
       </c>
       <c r="E9">
-        <v>58580294000</v>
+        <v>39169275000</v>
       </c>
       <c r="F9">
-        <v>120503023000</v>
+        <v>25793766000</v>
       </c>
       <c r="G9">
-        <v>188556000</v>
+        <v>308370000</v>
       </c>
       <c r="H9">
-        <v>10767800</v>
+        <v>3911100</v>
       </c>
       <c r="I9">
-        <v>179271873000</v>
+        <v>65271411000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-22T09:50:00.000Z</v>
+        <v>2022-12-22T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1550575683000</v>
+        <v>806308447000</v>
       </c>
       <c r="L9">
-        <v>94506600</v>
+        <v>48929800</v>
       </c>
       <c r="M9">
-        <v>3865000</v>
+        <v>-831600</v>
       </c>
       <c r="N9">
-        <v>61922729000</v>
+        <v>-13375509000</v>
       </c>
       <c r="O9">
-        <v>7491200</v>
+        <v>13500</v>
       </c>
       <c r="P9">
-        <v>117804787000</v>
+        <v>-6235093000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1671702900000</v>
+        <v>1671701400000</v>
       </c>
       <c r="B10">
-        <v>2118300</v>
+        <v>1915000</v>
       </c>
       <c r="C10">
-        <v>6282300</v>
+        <v>1466500</v>
       </c>
       <c r="D10">
-        <v>22700</v>
+        <v>7400</v>
       </c>
       <c r="E10">
-        <v>36920895000</v>
+        <v>34999176000</v>
       </c>
       <c r="F10">
-        <v>106960322000</v>
+        <v>24641255000</v>
       </c>
       <c r="G10">
-        <v>397691000</v>
+        <v>91101000</v>
       </c>
       <c r="H10">
-        <v>8423300</v>
+        <v>3388900</v>
       </c>
       <c r="I10">
-        <v>144278908000</v>
+        <v>59731532000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-22T09:55:00.000Z</v>
+        <v>2022-12-22T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1694854591000</v>
+        <v>866039979000</v>
       </c>
       <c r="L10">
-        <v>102929900</v>
+        <v>52318700</v>
       </c>
       <c r="M10">
-        <v>4164000</v>
+        <v>-448500</v>
       </c>
       <c r="N10">
-        <v>70039427000</v>
+        <v>-10357921000</v>
       </c>
       <c r="O10">
-        <v>11655200</v>
+        <v>-435000</v>
       </c>
       <c r="P10">
-        <v>187844214000</v>
+        <v>-16593014000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1671703200000</v>
+        <v>1671701520000</v>
       </c>
       <c r="B11">
-        <v>3258000</v>
+        <v>1652600</v>
       </c>
       <c r="C11">
-        <v>8405000</v>
+        <v>1289600</v>
       </c>
       <c r="D11">
-        <v>32800</v>
+        <v>23200</v>
       </c>
       <c r="E11">
-        <v>54548167000</v>
+        <v>29801535000</v>
       </c>
       <c r="F11">
-        <v>155653551000</v>
+        <v>19655264000</v>
       </c>
       <c r="G11">
-        <v>656729000</v>
+        <v>171201000</v>
       </c>
       <c r="H11">
-        <v>11695800</v>
+        <v>2965400</v>
       </c>
       <c r="I11">
-        <v>210858447000</v>
+        <v>49628000000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-22T10:00:00.000Z</v>
+        <v>2022-12-22T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1905713038000</v>
+        <v>915667979000</v>
       </c>
       <c r="L11">
-        <v>114625700</v>
+        <v>55284100</v>
       </c>
       <c r="M11">
-        <v>5147000</v>
+        <v>-363000</v>
       </c>
       <c r="N11">
-        <v>101105384000</v>
+        <v>-10146271000</v>
       </c>
       <c r="O11">
-        <v>16802200</v>
+        <v>-798000</v>
       </c>
       <c r="P11">
-        <v>288949598000</v>
+        <v>-26739285000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1671703500000</v>
+        <v>1671701640000</v>
       </c>
       <c r="B12">
-        <v>4258200</v>
+        <v>1578300</v>
       </c>
       <c r="C12">
-        <v>9692100</v>
+        <v>1399800</v>
       </c>
       <c r="D12">
-        <v>94900</v>
+        <v>14600</v>
       </c>
       <c r="E12">
-        <v>73119372000</v>
+        <v>24276369000</v>
       </c>
       <c r="F12">
-        <v>169451799000</v>
+        <v>21166687000</v>
       </c>
       <c r="G12">
-        <v>1523960000</v>
+        <v>451402000</v>
       </c>
       <c r="H12">
-        <v>14045200</v>
+        <v>2992700</v>
       </c>
       <c r="I12">
-        <v>244095131000</v>
+        <v>45894458000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-22T10:05:00.000Z</v>
+        <v>2022-12-22T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>2149808169000</v>
+        <v>961562437000</v>
       </c>
       <c r="L12">
-        <v>128670900</v>
+        <v>58276800</v>
       </c>
       <c r="M12">
-        <v>5433900</v>
+        <v>-178500</v>
       </c>
       <c r="N12">
-        <v>96332427000</v>
+        <v>-3109682000</v>
       </c>
       <c r="O12">
-        <v>22236100</v>
+        <v>-976500</v>
       </c>
       <c r="P12">
-        <v>385282025000</v>
+        <v>-29848967000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1671703800000</v>
+        <v>1671701760000</v>
       </c>
       <c r="B13">
-        <v>5568200</v>
+        <v>1728700</v>
       </c>
       <c r="C13">
-        <v>14313900</v>
+        <v>1300400</v>
       </c>
       <c r="D13">
-        <v>24000</v>
+        <v>19100</v>
       </c>
       <c r="E13">
-        <v>109196144000</v>
+        <v>25035694000</v>
       </c>
       <c r="F13">
-        <v>258565994000</v>
+        <v>21901621000</v>
       </c>
       <c r="G13">
-        <v>810710000</v>
+        <v>292162000</v>
       </c>
       <c r="H13">
-        <v>19906100</v>
+        <v>3048200</v>
       </c>
       <c r="I13">
-        <v>368572848000</v>
+        <v>47229477000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-22T10:10:00.000Z</v>
+        <v>2022-12-22T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>2518381017000</v>
+        <v>1008791914000</v>
       </c>
       <c r="L13">
-        <v>148577000</v>
+        <v>61325000</v>
       </c>
       <c r="M13">
-        <v>8745700</v>
+        <v>-428300</v>
       </c>
       <c r="N13">
-        <v>149369850000</v>
+        <v>-3134073000</v>
       </c>
       <c r="O13">
-        <v>30981800</v>
+        <v>-1404800</v>
       </c>
       <c r="P13">
-        <v>534651875000</v>
+        <v>-32983040000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1671704100000</v>
+        <v>1671701880000</v>
       </c>
       <c r="B14">
-        <v>6365900</v>
+        <v>1497400</v>
       </c>
       <c r="C14">
-        <v>3090300</v>
+        <v>1645200</v>
       </c>
       <c r="D14">
-        <v>72500</v>
+        <v>12500</v>
       </c>
       <c r="E14">
-        <v>111396390000</v>
+        <v>23308557000</v>
       </c>
       <c r="F14">
-        <v>54601289000</v>
+        <v>26115218000</v>
       </c>
       <c r="G14">
-        <v>1121919000</v>
+        <v>84839000</v>
       </c>
       <c r="H14">
-        <v>9528700</v>
+        <v>3155100</v>
       </c>
       <c r="I14">
-        <v>167119598000</v>
+        <v>49508614000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-22T10:15:00.000Z</v>
+        <v>2022-12-22T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>2685500615000</v>
+        <v>1058300528000</v>
       </c>
       <c r="L14">
-        <v>158105700</v>
+        <v>64480100</v>
       </c>
       <c r="M14">
-        <v>-3275600</v>
+        <v>147800</v>
       </c>
       <c r="N14">
-        <v>-56795101000</v>
+        <v>2806661000</v>
       </c>
       <c r="O14">
-        <v>27706200</v>
+        <v>-1257000</v>
       </c>
       <c r="P14">
-        <v>477856774000</v>
+        <v>-30176379000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1671704400000</v>
+        <v>1671702000000</v>
       </c>
       <c r="B15">
-        <v>6191700</v>
+        <v>1701500</v>
       </c>
       <c r="C15">
-        <v>3029400</v>
+        <v>1030800</v>
       </c>
       <c r="D15">
-        <v>21300</v>
+        <v>14800</v>
       </c>
       <c r="E15">
-        <v>127781250000</v>
+        <v>26051914000</v>
       </c>
       <c r="F15">
-        <v>57854074000</v>
+        <v>14338646000</v>
       </c>
       <c r="G15">
-        <v>787719000</v>
+        <v>96324000</v>
       </c>
       <c r="H15">
-        <v>9242400</v>
+        <v>2747100</v>
       </c>
       <c r="I15">
-        <v>186423043000</v>
+        <v>40486884000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-22T10:20:00.000Z</v>
+        <v>2022-12-22T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>2871923658000</v>
+        <v>1098787412000</v>
       </c>
       <c r="L15">
-        <v>167348100</v>
+        <v>67227200</v>
       </c>
       <c r="M15">
-        <v>-3162300</v>
+        <v>-670700</v>
       </c>
       <c r="N15">
-        <v>-69927176000</v>
+        <v>-11713268000</v>
       </c>
       <c r="O15">
-        <v>24543900</v>
+        <v>-1927700</v>
       </c>
       <c r="P15">
-        <v>407929598000</v>
+        <v>-41889647000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1671704700000</v>
+        <v>1671702120000</v>
       </c>
       <c r="B16">
-        <v>4411800</v>
+        <v>1431000</v>
       </c>
       <c r="C16">
-        <v>1944900</v>
+        <v>1583500</v>
       </c>
       <c r="D16">
-        <v>108800</v>
+        <v>3200</v>
       </c>
       <c r="E16">
-        <v>69274151000</v>
+        <v>23853656000</v>
       </c>
       <c r="F16">
-        <v>36498890000</v>
+        <v>26899332000</v>
       </c>
       <c r="G16">
-        <v>1209352000</v>
+        <v>129143000</v>
       </c>
       <c r="H16">
-        <v>6465500</v>
+        <v>3017700</v>
       </c>
       <c r="I16">
-        <v>106982393000</v>
+        <v>50882131000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-22T10:25:00.000Z</v>
+        <v>2022-12-22T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>2978906051000</v>
+        <v>1149669543000</v>
       </c>
       <c r="L16">
-        <v>173813600</v>
+        <v>70244900</v>
       </c>
       <c r="M16">
-        <v>-2466900</v>
+        <v>152500</v>
       </c>
       <c r="N16">
-        <v>-32775261000</v>
+        <v>3045676000</v>
       </c>
       <c r="O16">
-        <v>22077000</v>
+        <v>-1775200</v>
       </c>
       <c r="P16">
-        <v>375154337000</v>
+        <v>-38843971000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1671705000000</v>
+        <v>1671702240000</v>
       </c>
       <c r="B17">
-        <v>3382900</v>
+        <v>1360200</v>
       </c>
       <c r="C17">
-        <v>2023100</v>
+        <v>1621900</v>
       </c>
       <c r="D17">
-        <v>8400</v>
+        <v>5700</v>
       </c>
       <c r="E17">
-        <v>57994605000</v>
+        <v>22758475000</v>
       </c>
       <c r="F17">
-        <v>35316136000</v>
+        <v>27391422000</v>
       </c>
       <c r="G17">
-        <v>205109000</v>
+        <v>127416000</v>
       </c>
       <c r="H17">
-        <v>5414400</v>
+        <v>2987800</v>
       </c>
       <c r="I17">
-        <v>93515850000</v>
+        <v>50277313000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-22T10:30:00.000Z</v>
+        <v>2022-12-22T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>3072421901000</v>
+        <v>1199946856000</v>
       </c>
       <c r="L17">
-        <v>179228000</v>
+        <v>73232700</v>
       </c>
       <c r="M17">
-        <v>-1359800</v>
+        <v>261700</v>
       </c>
       <c r="N17">
-        <v>-22678469000</v>
+        <v>4632947000</v>
       </c>
       <c r="O17">
-        <v>20717200</v>
+        <v>-1513500</v>
       </c>
       <c r="P17">
-        <v>352475868000</v>
+        <v>-34211024000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1671705300000</v>
+        <v>1671702360000</v>
       </c>
       <c r="B18">
-        <v>3970300</v>
+        <v>1195800</v>
       </c>
       <c r="C18">
-        <v>3072200</v>
+        <v>2577500</v>
       </c>
       <c r="D18">
-        <v>24200</v>
+        <v>2800</v>
       </c>
       <c r="E18">
-        <v>69773427000</v>
+        <v>20032659000</v>
       </c>
       <c r="F18">
-        <v>47017925000</v>
+        <v>40525907000</v>
       </c>
       <c r="G18">
-        <v>608096000</v>
+        <v>80271000</v>
       </c>
       <c r="H18">
-        <v>7066700</v>
+        <v>3776100</v>
       </c>
       <c r="I18">
-        <v>117399448000</v>
+        <v>60638837000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-22T10:35:00.000Z</v>
+        <v>2022-12-22T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>3189821349000</v>
+        <v>1260585693000</v>
       </c>
       <c r="L18">
-        <v>186294700</v>
+        <v>77008800</v>
       </c>
       <c r="M18">
-        <v>-898100</v>
+        <v>1381700</v>
       </c>
       <c r="N18">
-        <v>-22755502000</v>
+        <v>20493248000</v>
       </c>
       <c r="O18">
-        <v>19819100</v>
+        <v>-131800</v>
       </c>
       <c r="P18">
-        <v>329720366000</v>
+        <v>-13717776000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1671705600000</v>
+        <v>1671702480000</v>
       </c>
       <c r="B19">
-        <v>4131600</v>
+        <v>1408800</v>
       </c>
       <c r="C19">
-        <v>2004700</v>
+        <v>5166800</v>
       </c>
       <c r="D19">
-        <v>15400</v>
+        <v>154400</v>
       </c>
       <c r="E19">
-        <v>66374471000</v>
+        <v>19246037000</v>
       </c>
       <c r="F19">
-        <v>34518819000</v>
+        <v>88845871000</v>
       </c>
       <c r="G19">
-        <v>136920000</v>
+        <v>2626209000</v>
       </c>
       <c r="H19">
-        <v>6151700</v>
+        <v>6730000</v>
       </c>
       <c r="I19">
-        <v>101030210000</v>
+        <v>110718117000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-22T10:40:00.000Z</v>
+        <v>2022-12-22T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>3290851559000</v>
+        <v>1371303810000</v>
       </c>
       <c r="L19">
-        <v>192446400</v>
+        <v>83738800</v>
       </c>
       <c r="M19">
-        <v>-2126900</v>
+        <v>3758000</v>
       </c>
       <c r="N19">
-        <v>-31855652000</v>
+        <v>69599834000</v>
       </c>
       <c r="O19">
-        <v>17692200</v>
+        <v>3626200</v>
       </c>
       <c r="P19">
-        <v>297864714000</v>
+        <v>55882058000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1671705900000</v>
+        <v>1671702600000</v>
       </c>
       <c r="B20">
-        <v>2950400</v>
+        <v>1024200</v>
       </c>
       <c r="C20">
-        <v>1714900</v>
+        <v>3379600</v>
       </c>
       <c r="D20">
-        <v>23900</v>
+        <v>2300</v>
       </c>
       <c r="E20">
-        <v>44777374000</v>
+        <v>17692186000</v>
       </c>
       <c r="F20">
-        <v>30432148000</v>
+        <v>59758265000</v>
       </c>
       <c r="G20">
-        <v>266801000</v>
+        <v>65155000</v>
       </c>
       <c r="H20">
-        <v>4689200</v>
+        <v>4406100</v>
       </c>
       <c r="I20">
-        <v>75476323000</v>
+        <v>77515606000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-22T10:45:00.000Z</v>
+        <v>2022-12-22T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>3366327882000</v>
+        <v>1448819416000</v>
       </c>
       <c r="L20">
-        <v>197135600</v>
+        <v>88144900</v>
       </c>
       <c r="M20">
-        <v>-1235500</v>
+        <v>2355400</v>
       </c>
       <c r="N20">
-        <v>-14345226000</v>
+        <v>42066079000</v>
       </c>
       <c r="O20">
-        <v>16456700</v>
+        <v>5981600</v>
       </c>
       <c r="P20">
-        <v>283519488000</v>
+        <v>97948137000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1671706200000</v>
+        <v>1671702720000</v>
       </c>
       <c r="B21">
-        <v>3049600</v>
+        <v>1676500</v>
       </c>
       <c r="C21">
-        <v>2058800</v>
+        <v>2958400</v>
       </c>
       <c r="D21">
-        <v>22500</v>
+        <v>4900</v>
       </c>
       <c r="E21">
-        <v>50603569000</v>
+        <v>28883825000</v>
       </c>
       <c r="F21">
-        <v>33297094000</v>
+        <v>43007658000</v>
       </c>
       <c r="G21">
-        <v>433716000</v>
+        <v>104754000</v>
       </c>
       <c r="H21">
-        <v>5130900</v>
+        <v>4639800</v>
       </c>
       <c r="I21">
-        <v>84334379000</v>
+        <v>71996237000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-22T10:50:00.000Z</v>
+        <v>2022-12-22T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>3450662261000</v>
+        <v>1520815653000</v>
       </c>
       <c r="L21">
-        <v>202266500</v>
+        <v>92784700</v>
       </c>
       <c r="M21">
-        <v>-990800</v>
+        <v>1281900</v>
       </c>
       <c r="N21">
-        <v>-17306475000</v>
+        <v>14123833000</v>
       </c>
       <c r="O21">
-        <v>15465900</v>
+        <v>7263500</v>
       </c>
       <c r="P21">
-        <v>266213013000</v>
+        <v>112071970000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1671706500000</v>
+        <v>1671702840000</v>
       </c>
       <c r="B22">
-        <v>2270700</v>
+        <v>1212500</v>
       </c>
       <c r="C22">
-        <v>1142200</v>
+        <v>2400900</v>
       </c>
       <c r="D22">
-        <v>3900</v>
+        <v>11000</v>
       </c>
       <c r="E22">
-        <v>35899564000</v>
+        <v>19614388000</v>
       </c>
       <c r="F22">
-        <v>22210760000</v>
+        <v>42995538000</v>
       </c>
       <c r="G22">
-        <v>107645000</v>
+        <v>188622000</v>
       </c>
       <c r="H22">
-        <v>3416800</v>
+        <v>3624400</v>
       </c>
       <c r="I22">
-        <v>58217969000</v>
+        <v>62798548000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-22T10:55:00.000Z</v>
+        <v>2022-12-22T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>3508880230000</v>
+        <v>1583614201000</v>
       </c>
       <c r="L22">
-        <v>205683300</v>
+        <v>96409100</v>
       </c>
       <c r="M22">
-        <v>-1128500</v>
+        <v>1188400</v>
       </c>
       <c r="N22">
-        <v>-13688804000</v>
+        <v>23381150000</v>
       </c>
       <c r="O22">
-        <v>14337400</v>
+        <v>8451900</v>
       </c>
       <c r="P22">
-        <v>252524209000</v>
+        <v>135453120000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1671706800000</v>
+        <v>1671702960000</v>
       </c>
       <c r="B23">
-        <v>3003100</v>
+        <v>674100</v>
       </c>
       <c r="C23">
-        <v>1735300</v>
+        <v>2774900</v>
       </c>
       <c r="D23">
-        <v>31000</v>
+        <v>2900</v>
       </c>
       <c r="E23">
-        <v>42796348000</v>
+        <v>13056865000</v>
       </c>
       <c r="F23">
-        <v>28937619000</v>
+        <v>45991383000</v>
       </c>
       <c r="G23">
-        <v>317391000</v>
+        <v>49160000</v>
       </c>
       <c r="H23">
-        <v>4769400</v>
+        <v>3451900</v>
       </c>
       <c r="I23">
-        <v>72051358000</v>
+        <v>59097408000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-22T11:00:00.000Z</v>
+        <v>2022-12-22T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>3580931588000</v>
+        <v>1642711609000</v>
       </c>
       <c r="L23">
-        <v>210452700</v>
+        <v>99861000</v>
       </c>
       <c r="M23">
-        <v>-1267800</v>
+        <v>2100800</v>
       </c>
       <c r="N23">
-        <v>-13858729000</v>
+        <v>32934518000</v>
       </c>
       <c r="O23">
-        <v>13069600</v>
+        <v>10552700</v>
       </c>
       <c r="P23">
-        <v>238665480000</v>
+        <v>168387638000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1671707100000</v>
+        <v>1671703080000</v>
       </c>
       <c r="B24">
-        <v>7301400</v>
+        <v>977100</v>
       </c>
       <c r="C24">
-        <v>1122200</v>
+        <v>2079600</v>
       </c>
       <c r="D24">
-        <v>39600</v>
+        <v>12200</v>
       </c>
       <c r="E24">
-        <v>115406277000</v>
+        <v>16253925000</v>
       </c>
       <c r="F24">
-        <v>18817995000</v>
+        <v>35710501000</v>
       </c>
       <c r="G24">
-        <v>503501000</v>
+        <v>178556000</v>
       </c>
       <c r="H24">
-        <v>8463200</v>
+        <v>3068900</v>
       </c>
       <c r="I24">
-        <v>134727773000</v>
+        <v>52142982000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-22T11:05:00.000Z</v>
+        <v>2022-12-22T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>3715659361000</v>
+        <v>1694854591000</v>
       </c>
       <c r="L24">
-        <v>218915900</v>
+        <v>102929900</v>
       </c>
       <c r="M24">
-        <v>-6179200</v>
+        <v>1102500</v>
       </c>
       <c r="N24">
-        <v>-96588282000</v>
+        <v>19456576000</v>
       </c>
       <c r="O24">
-        <v>6890400</v>
+        <v>11655200</v>
       </c>
       <c r="P24">
-        <v>142077198000</v>
+        <v>187844214000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1671707400000</v>
+        <v>1671703200000</v>
       </c>
       <c r="B25">
-        <v>6632100</v>
+        <v>1364100</v>
       </c>
       <c r="C25">
-        <v>1190500</v>
+        <v>3441700</v>
       </c>
       <c r="D25">
-        <v>16700</v>
+        <v>3100</v>
       </c>
       <c r="E25">
-        <v>105406427000</v>
+        <v>23292179000</v>
       </c>
       <c r="F25">
-        <v>18695638000</v>
+        <v>64587117000</v>
       </c>
       <c r="G25">
-        <v>232032000</v>
+        <v>81340000</v>
       </c>
       <c r="H25">
-        <v>7839300</v>
+        <v>4808900</v>
       </c>
       <c r="I25">
-        <v>124334097000</v>
+        <v>87960636000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-22T11:10:00.000Z</v>
+        <v>2022-12-22T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>3839993458000</v>
+        <v>1782815227000</v>
       </c>
       <c r="L25">
-        <v>226755200</v>
+        <v>107738800</v>
       </c>
       <c r="M25">
-        <v>-5441600</v>
+        <v>2077600</v>
       </c>
       <c r="N25">
-        <v>-86710789000</v>
+        <v>41294938000</v>
       </c>
       <c r="O25">
-        <v>1448800</v>
+        <v>13732800</v>
       </c>
       <c r="P25">
-        <v>55366409000</v>
+        <v>229139152000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1671707700000</v>
+        <v>1671703320000</v>
       </c>
       <c r="B26">
-        <v>5296200</v>
+        <v>1173100</v>
       </c>
       <c r="C26">
-        <v>2051000</v>
+        <v>3067000</v>
       </c>
       <c r="D26">
-        <v>21600</v>
+        <v>28100</v>
       </c>
       <c r="E26">
-        <v>86360739000</v>
+        <v>19912754000</v>
       </c>
       <c r="F26">
-        <v>32783418000</v>
+        <v>54125927000</v>
       </c>
       <c r="G26">
-        <v>259380000</v>
+        <v>563725000</v>
       </c>
       <c r="H26">
-        <v>7368800</v>
+        <v>4268200</v>
       </c>
       <c r="I26">
-        <v>119403537000</v>
+        <v>74602406000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-22T11:15:00.000Z</v>
+        <v>2022-12-22T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>3959396995000</v>
+        <v>1857417633000</v>
       </c>
       <c r="L26">
-        <v>234124000</v>
+        <v>112007000</v>
       </c>
       <c r="M26">
-        <v>-3245200</v>
+        <v>1893900</v>
       </c>
       <c r="N26">
-        <v>-53577321000</v>
+        <v>34213173000</v>
       </c>
       <c r="O26">
-        <v>-1796400</v>
+        <v>15626700</v>
       </c>
       <c r="P26">
-        <v>1789088000</v>
+        <v>263352325000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1671708000000</v>
+        <v>1671703440000</v>
       </c>
       <c r="B27">
-        <v>3656100</v>
+        <v>1387900</v>
       </c>
       <c r="C27">
-        <v>2322100</v>
+        <v>2823100</v>
       </c>
       <c r="D27">
-        <v>45000</v>
+        <v>19900</v>
       </c>
       <c r="E27">
-        <v>56713697000</v>
+        <v>21584252000</v>
       </c>
       <c r="F27">
-        <v>41231103000</v>
+        <v>55272232000</v>
       </c>
       <c r="G27">
-        <v>616520000</v>
+        <v>491099000</v>
       </c>
       <c r="H27">
-        <v>6023200</v>
+        <v>4230900</v>
       </c>
       <c r="I27">
-        <v>98561320000</v>
+        <v>77347583000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-22T11:20:00.000Z</v>
+        <v>2022-12-22T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>4057958315000</v>
+        <v>1934765216000</v>
       </c>
       <c r="L27">
-        <v>240147200</v>
+        <v>116237900</v>
       </c>
       <c r="M27">
-        <v>-1334000</v>
+        <v>1435200</v>
       </c>
       <c r="N27">
-        <v>-15482594000</v>
+        <v>33687980000</v>
       </c>
       <c r="O27">
-        <v>-3130400</v>
+        <v>17061900</v>
       </c>
       <c r="P27">
-        <v>-13693506000</v>
+        <v>297040305000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1671708300000</v>
+        <v>1671703560000</v>
       </c>
       <c r="B28">
-        <v>4317700</v>
+        <v>1373800</v>
       </c>
       <c r="C28">
-        <v>1626600</v>
+        <v>3078100</v>
       </c>
       <c r="D28">
-        <v>13800</v>
+        <v>41000</v>
       </c>
       <c r="E28">
-        <v>67799110000</v>
+        <v>27345983000</v>
       </c>
       <c r="F28">
-        <v>26639215000</v>
+        <v>52261215000</v>
       </c>
       <c r="G28">
-        <v>174576000</v>
+        <v>630390000</v>
       </c>
       <c r="H28">
-        <v>5958100</v>
+        <v>4492900</v>
       </c>
       <c r="I28">
-        <v>94612901000</v>
+        <v>80237588000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-22T11:25:00.000Z</v>
+        <v>2022-12-22T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>4152571216000</v>
+        <v>2015002804000</v>
       </c>
       <c r="L28">
-        <v>246105300</v>
+        <v>120730800</v>
       </c>
       <c r="M28">
-        <v>-2691100</v>
+        <v>1704300</v>
       </c>
       <c r="N28">
-        <v>-41159895000</v>
+        <v>24915232000</v>
       </c>
       <c r="O28">
-        <v>-5821500</v>
+        <v>18766200</v>
       </c>
       <c r="P28">
-        <v>-54853401000</v>
+        <v>321955537000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1671708600000</v>
+        <v>1671703680000</v>
       </c>
       <c r="B29">
-        <v>7700</v>
+        <v>2217300</v>
       </c>
       <c r="C29">
-        <v>11100</v>
+        <v>5687200</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>35600</v>
       </c>
       <c r="E29">
-        <v>25640000</v>
+        <v>35532371000</v>
       </c>
       <c r="F29">
-        <v>148240000</v>
+        <v>98858859000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>414135000</v>
       </c>
       <c r="H29">
-        <v>18800</v>
+        <v>7940100</v>
       </c>
       <c r="I29">
-        <v>173880000</v>
+        <v>134805365000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-22T11:30:00.000Z</v>
+        <v>2022-12-22T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>4152745096000</v>
+        <v>2149808169000</v>
       </c>
       <c r="L29">
-        <v>246124100</v>
+        <v>128670900</v>
       </c>
       <c r="M29">
-        <v>3400</v>
+        <v>3469900</v>
       </c>
       <c r="N29">
-        <v>122600000</v>
+        <v>63326488000</v>
       </c>
       <c r="O29">
-        <v>-5818100</v>
+        <v>22236100</v>
       </c>
       <c r="P29">
-        <v>-54730801000</v>
+        <v>385282025000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1671714000000</v>
+        <v>1671703800000</v>
       </c>
       <c r="B30">
-        <v>16826600</v>
+        <v>961200</v>
       </c>
       <c r="C30">
-        <v>6269600</v>
+        <v>6350600</v>
       </c>
       <c r="D30">
-        <v>961600</v>
+        <v>13600</v>
       </c>
       <c r="E30">
-        <v>251262585000</v>
+        <v>16552005000</v>
       </c>
       <c r="F30">
-        <v>97190584000</v>
+        <v>111774277000</v>
       </c>
       <c r="G30">
-        <v>12096350000</v>
+        <v>427348000</v>
       </c>
       <c r="H30">
-        <v>24057800</v>
+        <v>7325400</v>
       </c>
       <c r="I30">
-        <v>360549519000</v>
+        <v>128753630000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-22T13:00:00.000Z</v>
+        <v>2022-12-22T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>4513294615000</v>
+        <v>2278561799000</v>
       </c>
       <c r="L30">
-        <v>270181900</v>
+        <v>135996300</v>
       </c>
       <c r="M30">
-        <v>-10557000</v>
+        <v>5389400</v>
       </c>
       <c r="N30">
-        <v>-154072001000</v>
+        <v>95222272000</v>
       </c>
       <c r="O30">
-        <v>-16375100</v>
+        <v>27625500</v>
       </c>
       <c r="P30">
-        <v>-208802802000</v>
+        <v>480504297000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1671714300000</v>
+        <v>1671703920000</v>
       </c>
       <c r="B31">
-        <v>5235000</v>
+        <v>2923500</v>
       </c>
       <c r="C31">
-        <v>6760700</v>
+        <v>6278900</v>
       </c>
       <c r="D31">
-        <v>190400</v>
+        <v>5500</v>
       </c>
       <c r="E31">
-        <v>73970747000</v>
+        <v>56005640000</v>
       </c>
       <c r="F31">
-        <v>112102912000</v>
+        <v>115418698000</v>
       </c>
       <c r="G31">
-        <v>2329835000</v>
+        <v>259515000</v>
       </c>
       <c r="H31">
-        <v>12186100</v>
+        <v>9207900</v>
       </c>
       <c r="I31">
-        <v>188403494000</v>
+        <v>171683853000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-22T13:05:00.000Z</v>
+        <v>2022-12-22T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>4701698109000</v>
+        <v>2450245652000</v>
       </c>
       <c r="L31">
-        <v>282368000</v>
+        <v>145204200</v>
       </c>
       <c r="M31">
-        <v>1525700</v>
+        <v>3355400</v>
       </c>
       <c r="N31">
-        <v>38132165000</v>
+        <v>59413058000</v>
       </c>
       <c r="O31">
-        <v>-14849400</v>
+        <v>30980900</v>
       </c>
       <c r="P31">
-        <v>-170670637000</v>
+        <v>539917355000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1671714600000</v>
+        <v>1671704040000</v>
       </c>
       <c r="B32">
-        <v>4064800</v>
+        <v>3465400</v>
       </c>
       <c r="C32">
-        <v>6100800</v>
+        <v>2275100</v>
       </c>
       <c r="D32">
-        <v>69500</v>
+        <v>27400</v>
       </c>
       <c r="E32">
-        <v>64560822000</v>
+        <v>67984442000</v>
       </c>
       <c r="F32">
-        <v>90415943000</v>
+        <v>41223899000</v>
       </c>
       <c r="G32">
-        <v>805727000</v>
+        <v>435451000</v>
       </c>
       <c r="H32">
-        <v>10235100</v>
+        <v>5767900</v>
       </c>
       <c r="I32">
-        <v>155782492000</v>
+        <v>109643792000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-22T13:10:00.000Z</v>
+        <v>2022-12-22T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>4857480601000</v>
+        <v>2559889444000</v>
       </c>
       <c r="L32">
-        <v>292603100</v>
+        <v>150972100</v>
       </c>
       <c r="M32">
-        <v>2036000</v>
+        <v>-1190300</v>
       </c>
       <c r="N32">
-        <v>25855121000</v>
+        <v>-26760543000</v>
       </c>
       <c r="O32">
-        <v>-12813400</v>
+        <v>29790600</v>
       </c>
       <c r="P32">
-        <v>-144815516000</v>
+        <v>513156812000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1671714900000</v>
+        <v>1671704160000</v>
       </c>
       <c r="B33">
-        <v>5995300</v>
+        <v>3058600</v>
       </c>
       <c r="C33">
-        <v>3358200</v>
+        <v>1245200</v>
       </c>
       <c r="D33">
-        <v>125800</v>
+        <v>18500</v>
       </c>
       <c r="E33">
-        <v>93666582000</v>
+        <v>53461326000</v>
       </c>
       <c r="F33">
-        <v>51736171000</v>
+        <v>21436480000</v>
       </c>
       <c r="G33">
-        <v>1809540000</v>
+        <v>300443000</v>
       </c>
       <c r="H33">
-        <v>9479300</v>
+        <v>4322300</v>
       </c>
       <c r="I33">
-        <v>147212293000</v>
+        <v>75198249000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-22T13:15:00.000Z</v>
+        <v>2022-12-22T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>5004692894000</v>
+        <v>2635087693000</v>
       </c>
       <c r="L33">
-        <v>302082400</v>
+        <v>155294400</v>
       </c>
       <c r="M33">
-        <v>-2637100</v>
+        <v>-1813400</v>
       </c>
       <c r="N33">
-        <v>-41930411000</v>
+        <v>-32024846000</v>
       </c>
       <c r="O33">
-        <v>-15450500</v>
+        <v>27977200</v>
       </c>
       <c r="P33">
-        <v>-186745927000</v>
+        <v>481131966000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1671715200000</v>
+        <v>1671704280000</v>
       </c>
       <c r="B34">
-        <v>4290600</v>
+        <v>1525400</v>
       </c>
       <c r="C34">
-        <v>6454100</v>
+        <v>1254400</v>
       </c>
       <c r="D34">
-        <v>40900</v>
+        <v>31500</v>
       </c>
       <c r="E34">
-        <v>63478287000</v>
+        <v>26589121000</v>
       </c>
       <c r="F34">
-        <v>106002548000</v>
+        <v>23313929000</v>
       </c>
       <c r="G34">
-        <v>560109000</v>
+        <v>509872000</v>
       </c>
       <c r="H34">
-        <v>10785600</v>
+        <v>2811300</v>
       </c>
       <c r="I34">
-        <v>170040944000</v>
+        <v>50412922000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-22T13:20:00.000Z</v>
+        <v>2022-12-22T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>5174733838000</v>
+        <v>2685500615000</v>
       </c>
       <c r="L34">
-        <v>312868000</v>
+        <v>158105700</v>
       </c>
       <c r="M34">
-        <v>2163500</v>
+        <v>-271000</v>
       </c>
       <c r="N34">
-        <v>42524261000</v>
+        <v>-3275192000</v>
       </c>
       <c r="O34">
-        <v>-13287000</v>
+        <v>27706200</v>
       </c>
       <c r="P34">
-        <v>-144221666000</v>
+        <v>477856774000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1671715500000</v>
+        <v>1671704400000</v>
       </c>
       <c r="B35">
-        <v>3944000</v>
+        <v>1732600</v>
       </c>
       <c r="C35">
-        <v>7117900</v>
+        <v>1585100</v>
       </c>
       <c r="D35">
-        <v>31400</v>
+        <v>14600</v>
       </c>
       <c r="E35">
-        <v>72308757000</v>
+        <v>42667048000</v>
       </c>
       <c r="F35">
-        <v>108794203000</v>
+        <v>30600364000</v>
       </c>
       <c r="G35">
-        <v>604113000</v>
+        <v>543143000</v>
       </c>
       <c r="H35">
-        <v>11093300</v>
+        <v>3332300</v>
       </c>
       <c r="I35">
-        <v>181707073000</v>
+        <v>73810555000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-22T13:25:00.000Z</v>
+        <v>2022-12-22T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>5356440911000</v>
+        <v>2759311170000</v>
       </c>
       <c r="L35">
-        <v>323961300</v>
+        <v>161438000</v>
       </c>
       <c r="M35">
-        <v>3173900</v>
+        <v>-147500</v>
       </c>
       <c r="N35">
-        <v>36485446000</v>
+        <v>-12066684000</v>
       </c>
       <c r="O35">
-        <v>-10113100</v>
+        <v>27558700</v>
       </c>
       <c r="P35">
-        <v>-107736220000</v>
+        <v>465790090000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1671715800000</v>
+        <v>1671704520000</v>
       </c>
       <c r="B36">
-        <v>5611300</v>
+        <v>3467000</v>
       </c>
       <c r="C36">
-        <v>3011600</v>
+        <v>1066500</v>
       </c>
       <c r="D36">
-        <v>65400</v>
+        <v>6500</v>
       </c>
       <c r="E36">
-        <v>80797009000</v>
+        <v>67231790000</v>
       </c>
       <c r="F36">
-        <v>52311661000</v>
+        <v>20092705000</v>
       </c>
       <c r="G36">
-        <v>1041458000</v>
+        <v>238816000</v>
       </c>
       <c r="H36">
-        <v>8688300</v>
+        <v>4540000</v>
       </c>
       <c r="I36">
-        <v>134150128000</v>
+        <v>87563311000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-22T13:30:00.000Z</v>
+        <v>2022-12-22T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>5490591039000</v>
+        <v>2846874481000</v>
       </c>
       <c r="L36">
-        <v>332649600</v>
+        <v>165978000</v>
       </c>
       <c r="M36">
-        <v>-2599700</v>
+        <v>-2400500</v>
       </c>
       <c r="N36">
-        <v>-28485348000</v>
+        <v>-47139085000</v>
       </c>
       <c r="O36">
-        <v>-12712800</v>
+        <v>25158200</v>
       </c>
       <c r="P36">
-        <v>-136221568000</v>
+        <v>418651005000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1671716100000</v>
+        <v>1671704640000</v>
       </c>
       <c r="B37">
-        <v>9440000</v>
+        <v>1942700</v>
       </c>
       <c r="C37">
-        <v>3662100</v>
+        <v>768700</v>
       </c>
       <c r="D37">
-        <v>41200</v>
+        <v>36700</v>
       </c>
       <c r="E37">
-        <v>153421654000</v>
+        <v>33297847000</v>
       </c>
       <c r="F37">
-        <v>59132960000</v>
+        <v>14621690000</v>
       </c>
       <c r="G37">
-        <v>616128000</v>
+        <v>539788000</v>
       </c>
       <c r="H37">
-        <v>13143300</v>
+        <v>2748100</v>
       </c>
       <c r="I37">
-        <v>213170742000</v>
+        <v>48459325000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-22T13:35:00.000Z</v>
+        <v>2022-12-22T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>5703761781000</v>
+        <v>2895333806000</v>
       </c>
       <c r="L37">
-        <v>345792900</v>
+        <v>168726100</v>
       </c>
       <c r="M37">
-        <v>-5777900</v>
+        <v>-1174000</v>
       </c>
       <c r="N37">
-        <v>-94288694000</v>
+        <v>-18676157000</v>
       </c>
       <c r="O37">
-        <v>-18490700</v>
+        <v>23984200</v>
       </c>
       <c r="P37">
-        <v>-230510262000</v>
+        <v>399974848000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1671716400000</v>
+        <v>1671704760000</v>
       </c>
       <c r="B38">
-        <v>7006100</v>
+        <v>1822800</v>
       </c>
       <c r="C38">
-        <v>3902200</v>
+        <v>847300</v>
       </c>
       <c r="D38">
-        <v>52300</v>
+        <v>9600</v>
       </c>
       <c r="E38">
-        <v>104644727000</v>
+        <v>29157972000</v>
       </c>
       <c r="F38">
-        <v>69112838000</v>
+        <v>15838154000</v>
       </c>
       <c r="G38">
-        <v>820025000</v>
+        <v>371370000</v>
       </c>
       <c r="H38">
-        <v>10960600</v>
+        <v>2679700</v>
       </c>
       <c r="I38">
-        <v>174577590000</v>
+        <v>45367496000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-22T13:40:00.000Z</v>
+        <v>2022-12-22T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>5878339371000</v>
+        <v>2940701302000</v>
       </c>
       <c r="L38">
-        <v>356753500</v>
+        <v>171405800</v>
       </c>
       <c r="M38">
-        <v>-3103900</v>
+        <v>-975500</v>
       </c>
       <c r="N38">
-        <v>-35531889000</v>
+        <v>-13319818000</v>
       </c>
       <c r="O38">
-        <v>-21594600</v>
+        <v>23008700</v>
       </c>
       <c r="P38">
-        <v>-266042151000</v>
+        <v>386655030000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1671716700000</v>
+        <v>1671704880000</v>
       </c>
       <c r="B39">
-        <v>3655700</v>
+        <v>1638400</v>
       </c>
       <c r="C39">
-        <v>4314600</v>
+        <v>706700</v>
       </c>
       <c r="D39">
-        <v>60500</v>
+        <v>62700</v>
       </c>
       <c r="E39">
-        <v>62637222000</v>
+        <v>24700744000</v>
       </c>
       <c r="F39">
-        <v>71812587000</v>
+        <v>13200051000</v>
       </c>
       <c r="G39">
-        <v>1016059000</v>
+        <v>303954000</v>
       </c>
       <c r="H39">
-        <v>8030800</v>
+        <v>2407800</v>
       </c>
       <c r="I39">
-        <v>135465868000</v>
+        <v>38204749000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-22T13:45:00.000Z</v>
+        <v>2022-12-22T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>6013805239000</v>
+        <v>2978906051000</v>
       </c>
       <c r="L39">
-        <v>364784300</v>
+        <v>173813600</v>
       </c>
       <c r="M39">
-        <v>658900</v>
+        <v>-931700</v>
       </c>
       <c r="N39">
-        <v>9175365000</v>
+        <v>-11500693000</v>
       </c>
       <c r="O39">
-        <v>-20935700</v>
+        <v>22077000</v>
       </c>
       <c r="P39">
-        <v>-256866786000</v>
+        <v>375154337000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1671717000000</v>
+        <v>1671705000000</v>
       </c>
       <c r="B40">
-        <v>6893400</v>
+        <v>1120500</v>
       </c>
       <c r="C40">
-        <v>4079700</v>
+        <v>584600</v>
       </c>
       <c r="D40">
-        <v>131700</v>
+        <v>4700</v>
       </c>
       <c r="E40">
-        <v>110995083000</v>
+        <v>17928533000</v>
       </c>
       <c r="F40">
-        <v>56233480000</v>
+        <v>9364099000</v>
       </c>
       <c r="G40">
-        <v>2819245000</v>
+        <v>126994000</v>
       </c>
       <c r="H40">
-        <v>11104800</v>
+        <v>1709800</v>
       </c>
       <c r="I40">
-        <v>170047808000</v>
+        <v>27419626000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-22T13:50:00.000Z</v>
+        <v>2022-12-22T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>6183853047000</v>
+        <v>3006325677000</v>
       </c>
       <c r="L40">
-        <v>375889100</v>
+        <v>175523400</v>
       </c>
       <c r="M40">
-        <v>-2813700</v>
+        <v>-535900</v>
       </c>
       <c r="N40">
-        <v>-54761603000</v>
+        <v>-8564434000</v>
       </c>
       <c r="O40">
-        <v>-23749400</v>
+        <v>21541100</v>
       </c>
       <c r="P40">
-        <v>-311628389000</v>
+        <v>366589903000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1671717300000</v>
+        <v>1671705120000</v>
       </c>
       <c r="B41">
-        <v>4357800</v>
+        <v>1563300</v>
       </c>
       <c r="C41">
-        <v>3605900</v>
+        <v>1023200</v>
       </c>
       <c r="D41">
-        <v>64100</v>
+        <v>3700</v>
       </c>
       <c r="E41">
-        <v>69032300000</v>
+        <v>25154081000</v>
       </c>
       <c r="F41">
-        <v>59182915000</v>
+        <v>18724338000</v>
       </c>
       <c r="G41">
-        <v>948930000</v>
+        <v>78115000</v>
       </c>
       <c r="H41">
-        <v>8027800</v>
+        <v>2590200</v>
       </c>
       <c r="I41">
-        <v>129164145000</v>
+        <v>43956534000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-22T13:55:00.000Z</v>
+        <v>2022-12-22T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>6313017192000</v>
+        <v>3050282211000</v>
       </c>
       <c r="L41">
-        <v>383916900</v>
+        <v>178113600</v>
       </c>
       <c r="M41">
-        <v>-751900</v>
+        <v>-540100</v>
       </c>
       <c r="N41">
-        <v>-9849385000</v>
+        <v>-6429743000</v>
       </c>
       <c r="O41">
-        <v>-24501300</v>
+        <v>21001000</v>
       </c>
       <c r="P41">
-        <v>-321477774000</v>
+        <v>360160160000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1671717600000</v>
+        <v>1671705240000</v>
       </c>
       <c r="B42">
-        <v>3056700</v>
+        <v>1294200</v>
       </c>
       <c r="C42">
-        <v>13251300</v>
+        <v>1215300</v>
       </c>
       <c r="D42">
-        <v>59500</v>
+        <v>7400</v>
       </c>
       <c r="E42">
-        <v>50709567000</v>
+        <v>24024231000</v>
       </c>
       <c r="F42">
-        <v>212797504000</v>
+        <v>18547284000</v>
       </c>
       <c r="G42">
-        <v>974440000</v>
+        <v>244425000</v>
       </c>
       <c r="H42">
-        <v>16367500</v>
+        <v>2516900</v>
       </c>
       <c r="I42">
-        <v>264481511000</v>
+        <v>42815940000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-22T14:00:00.000Z</v>
+        <v>2022-12-22T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>6577498703000</v>
+        <v>3093098151000</v>
       </c>
       <c r="L42">
-        <v>400284400</v>
+        <v>180630500</v>
       </c>
       <c r="M42">
-        <v>10194600</v>
+        <v>-78900</v>
       </c>
       <c r="N42">
-        <v>162087937000</v>
+        <v>-5476947000</v>
       </c>
       <c r="O42">
-        <v>-14306700</v>
+        <v>20922100</v>
       </c>
       <c r="P42">
-        <v>-159389837000</v>
+        <v>354683213000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1671717900000</v>
+        <v>1671705360000</v>
       </c>
       <c r="B43">
-        <v>5253800</v>
+        <v>1329500</v>
       </c>
       <c r="C43">
-        <v>11774500</v>
+        <v>1263500</v>
       </c>
       <c r="D43">
-        <v>103600</v>
+        <v>5500</v>
       </c>
       <c r="E43">
-        <v>83954894000</v>
+        <v>21898966000</v>
       </c>
       <c r="F43">
-        <v>184365407000</v>
+        <v>20381926000</v>
       </c>
       <c r="G43">
-        <v>1123379000</v>
+        <v>57598000</v>
       </c>
       <c r="H43">
-        <v>17131900</v>
+        <v>2598500</v>
       </c>
       <c r="I43">
-        <v>269443680000</v>
+        <v>42338490000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-22T14:05:00.000Z</v>
+        <v>2022-12-22T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>6846942383000</v>
+        <v>3135436641000</v>
       </c>
       <c r="L43">
-        <v>417416300</v>
+        <v>183229000</v>
       </c>
       <c r="M43">
-        <v>6520700</v>
+        <v>-66000</v>
       </c>
       <c r="N43">
-        <v>100410513000</v>
+        <v>-1517040000</v>
       </c>
       <c r="O43">
-        <v>-7786000</v>
+        <v>20856100</v>
       </c>
       <c r="P43">
-        <v>-58979324000</v>
+        <v>353166173000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1671718200000</v>
+        <v>1671705480000</v>
       </c>
       <c r="B44">
-        <v>7436500</v>
+        <v>2045700</v>
       </c>
       <c r="C44">
-        <v>15374300</v>
+        <v>1008700</v>
       </c>
       <c r="D44">
-        <v>509000</v>
+        <v>11300</v>
       </c>
       <c r="E44">
-        <v>109346962000</v>
+        <v>38762221000</v>
       </c>
       <c r="F44">
-        <v>222705745000</v>
+        <v>15316414000</v>
       </c>
       <c r="G44">
-        <v>7295255000</v>
+        <v>306073000</v>
       </c>
       <c r="H44">
-        <v>23319800</v>
+        <v>3065700</v>
       </c>
       <c r="I44">
-        <v>339347962000</v>
+        <v>54384708000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-22T14:10:00.000Z</v>
+        <v>2022-12-22T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>7186290345000</v>
+        <v>3189821349000</v>
       </c>
       <c r="L44">
-        <v>440736100</v>
+        <v>186294700</v>
       </c>
       <c r="M44">
-        <v>7937800</v>
+        <v>-1037000</v>
       </c>
       <c r="N44">
-        <v>113358783000</v>
+        <v>-23445807000</v>
       </c>
       <c r="O44">
-        <v>151800</v>
+        <v>19819100</v>
       </c>
       <c r="P44">
-        <v>54379459000</v>
+        <v>329720366000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1671718500000</v>
+        <v>1671705600000</v>
       </c>
       <c r="B45">
-        <v>7226200</v>
+        <v>1875800</v>
       </c>
       <c r="C45">
-        <v>3602600</v>
+        <v>713900</v>
       </c>
       <c r="D45">
-        <v>39000</v>
+        <v>2300</v>
       </c>
       <c r="E45">
-        <v>116207985000</v>
+        <v>30356255000</v>
       </c>
       <c r="F45">
-        <v>56033280000</v>
+        <v>12126340000</v>
       </c>
       <c r="G45">
-        <v>661056000</v>
+        <v>33000000</v>
       </c>
       <c r="H45">
-        <v>10867800</v>
+        <v>2592000</v>
       </c>
       <c r="I45">
-        <v>172902321000</v>
+        <v>42515595000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-22T14:15:00.000Z</v>
+        <v>2022-12-22T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>7359192666000</v>
+        <v>3232336944000</v>
       </c>
       <c r="L45">
-        <v>451603900</v>
+        <v>188886700</v>
       </c>
       <c r="M45">
-        <v>-3623600</v>
+        <v>-1161900</v>
       </c>
       <c r="N45">
-        <v>-60174705000</v>
+        <v>-18229915000</v>
       </c>
       <c r="O45">
-        <v>-3471800</v>
+        <v>18657200</v>
       </c>
       <c r="P45">
-        <v>-5795246000</v>
+        <v>311490451000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1671718800000</v>
+        <v>1671705720000</v>
       </c>
       <c r="B46">
-        <v>3944900</v>
+        <v>1408300</v>
       </c>
       <c r="C46">
-        <v>6465100</v>
+        <v>761300</v>
       </c>
       <c r="D46">
-        <v>130400</v>
+        <v>13000</v>
       </c>
       <c r="E46">
-        <v>63027020000</v>
+        <v>21230759000</v>
       </c>
       <c r="F46">
-        <v>105606402000</v>
+        <v>13172750000</v>
       </c>
       <c r="G46">
-        <v>2179495000</v>
+        <v>102060000</v>
       </c>
       <c r="H46">
-        <v>10540400</v>
+        <v>2182600</v>
       </c>
       <c r="I46">
-        <v>170812917000</v>
+        <v>34505569000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-22T14:20:00.000Z</v>
+        <v>2022-12-22T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>7530005583000</v>
+        <v>3266842513000</v>
       </c>
       <c r="L46">
-        <v>462144300</v>
+        <v>191069300</v>
       </c>
       <c r="M46">
-        <v>2520200</v>
+        <v>-647000</v>
       </c>
       <c r="N46">
-        <v>42579382000</v>
+        <v>-8058009000</v>
       </c>
       <c r="O46">
-        <v>-951600</v>
+        <v>18010200</v>
       </c>
       <c r="P46">
-        <v>36784136000</v>
+        <v>303432442000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1671719100000</v>
+        <v>1671705840000</v>
       </c>
       <c r="B47">
-        <v>6021300</v>
+        <v>1553000</v>
       </c>
       <c r="C47">
-        <v>10370800</v>
+        <v>961700</v>
       </c>
       <c r="D47">
-        <v>101800</v>
+        <v>13000</v>
       </c>
       <c r="E47">
-        <v>88739835000</v>
+        <v>24137421000</v>
       </c>
       <c r="F47">
-        <v>192666110000</v>
+        <v>17988429000</v>
       </c>
       <c r="G47">
-        <v>1910292000</v>
+        <v>190845000</v>
       </c>
       <c r="H47">
-        <v>16493900</v>
+        <v>2527700</v>
       </c>
       <c r="I47">
-        <v>283316237000</v>
+        <v>42316695000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-22T14:25:00.000Z</v>
+        <v>2022-12-22T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>7813321820000</v>
+        <v>3309159208000</v>
       </c>
       <c r="L47">
-        <v>478638200</v>
+        <v>193597000</v>
       </c>
       <c r="M47">
-        <v>4349500</v>
+        <v>-591300</v>
       </c>
       <c r="N47">
-        <v>103926275000</v>
+        <v>-6148992000</v>
       </c>
       <c r="O47">
-        <v>3397900</v>
+        <v>17418900</v>
       </c>
       <c r="P47">
-        <v>140710411000</v>
+        <v>297283450000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1671719400000</v>
+        <v>1671705960000</v>
       </c>
       <c r="B48">
-        <v>67600</v>
+        <v>1251900</v>
       </c>
       <c r="C48">
-        <v>19400</v>
+        <v>601000</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="E48">
-        <v>455535000</v>
+        <v>20023756000</v>
       </c>
       <c r="F48">
-        <v>137973000</v>
+        <v>11167787000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>66196000</v>
       </c>
       <c r="H48">
-        <v>87000</v>
+        <v>1861900</v>
       </c>
       <c r="I48">
-        <v>593508000</v>
+        <v>31257739000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-22T14:30:00.000Z</v>
+        <v>2022-12-22T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>7813915328000</v>
+        <v>3340416947000</v>
       </c>
       <c r="L48">
-        <v>478725200</v>
+        <v>195458900</v>
       </c>
       <c r="M48">
-        <v>-48200</v>
+        <v>-650900</v>
       </c>
       <c r="N48">
-        <v>-317562000</v>
+        <v>-8855969000</v>
       </c>
       <c r="O48">
-        <v>3349700</v>
+        <v>16768000</v>
       </c>
       <c r="P48">
-        <v>140392849000</v>
+        <v>288427481000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1671720000000</v>
+        <v>1671706080000</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>993000</v>
       </c>
       <c r="C49">
+        <v>681700</v>
+      </c>
+      <c r="D49">
         <v>2000</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
       <c r="E49">
-        <v>0</v>
+        <v>15403654000</v>
       </c>
       <c r="F49">
-        <v>20200000</v>
+        <v>10495661000</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>11620000</v>
       </c>
       <c r="H49">
-        <v>2000</v>
+        <v>1676700</v>
       </c>
       <c r="I49">
-        <v>20200000</v>
+        <v>25910935000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-22T14:40:00.000Z</v>
+        <v>2022-12-22T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>7813935528000</v>
+        <v>3366327882000</v>
       </c>
       <c r="L49">
-        <v>478727200</v>
+        <v>197135600</v>
       </c>
       <c r="M49">
-        <v>2000</v>
+        <v>-311300</v>
       </c>
       <c r="N49">
-        <v>20200000</v>
+        <v>-4907993000</v>
       </c>
       <c r="O49">
-        <v>3351700</v>
+        <v>16456700</v>
       </c>
       <c r="P49">
-        <v>140413049000</v>
+        <v>283519488000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1671720300000</v>
+        <v>1671706200000</v>
       </c>
       <c r="B50">
-        <v>1506600</v>
+        <v>1409500</v>
       </c>
       <c r="C50">
-        <v>2077800</v>
+        <v>908900</v>
       </c>
       <c r="D50">
+        <v>5800</v>
+      </c>
+      <c r="E50">
+        <v>24502275000</v>
+      </c>
+      <c r="F50">
+        <v>14263650000</v>
+      </c>
+      <c r="G50">
+        <v>65794000</v>
+      </c>
+      <c r="H50">
+        <v>2324200</v>
+      </c>
+      <c r="I50">
+        <v>38831719000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2022-12-22T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>3405159601000</v>
+      </c>
+      <c r="L50">
+        <v>199459800</v>
+      </c>
+      <c r="M50">
+        <v>-500600</v>
+      </c>
+      <c r="N50">
+        <v>-10238625000</v>
+      </c>
+      <c r="O50">
+        <v>15956100</v>
+      </c>
+      <c r="P50">
+        <v>273280863000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1671706320000</v>
+      </c>
+      <c r="B51">
+        <v>945100</v>
+      </c>
+      <c r="C51">
+        <v>731000</v>
+      </c>
+      <c r="D51">
+        <v>16000</v>
+      </c>
+      <c r="E51">
+        <v>15815380000</v>
+      </c>
+      <c r="F51">
+        <v>11783033000</v>
+      </c>
+      <c r="G51">
+        <v>341145000</v>
+      </c>
+      <c r="H51">
+        <v>1692100</v>
+      </c>
+      <c r="I51">
+        <v>27939558000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2022-12-22T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>3433099159000</v>
+      </c>
+      <c r="L51">
+        <v>201151900</v>
+      </c>
+      <c r="M51">
+        <v>-214100</v>
+      </c>
+      <c r="N51">
+        <v>-4032347000</v>
+      </c>
+      <c r="O51">
+        <v>15742000</v>
+      </c>
+      <c r="P51">
+        <v>269248516000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1671706440000</v>
+      </c>
+      <c r="B52">
+        <v>1084200</v>
+      </c>
+      <c r="C52">
+        <v>707700</v>
+      </c>
+      <c r="D52">
+        <v>700</v>
+      </c>
+      <c r="E52">
+        <v>17218341000</v>
+      </c>
+      <c r="F52">
+        <v>13304199000</v>
+      </c>
+      <c r="G52">
+        <v>26777000</v>
+      </c>
+      <c r="H52">
+        <v>1792600</v>
+      </c>
+      <c r="I52">
+        <v>30549317000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2022-12-22T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>3463648476000</v>
+      </c>
+      <c r="L52">
+        <v>202944500</v>
+      </c>
+      <c r="M52">
+        <v>-376500</v>
+      </c>
+      <c r="N52">
+        <v>-3914142000</v>
+      </c>
+      <c r="O52">
+        <v>15365500</v>
+      </c>
+      <c r="P52">
+        <v>265334374000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1671706560000</v>
+      </c>
+      <c r="B53">
+        <v>743100</v>
+      </c>
+      <c r="C53">
+        <v>534300</v>
+      </c>
+      <c r="D53">
+        <v>2500</v>
+      </c>
+      <c r="E53">
+        <v>11340005000</v>
+      </c>
+      <c r="F53">
+        <v>9562859000</v>
+      </c>
+      <c r="G53">
+        <v>52775000</v>
+      </c>
+      <c r="H53">
+        <v>1279900</v>
+      </c>
+      <c r="I53">
+        <v>20955639000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2022-12-22T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>3484604115000</v>
+      </c>
+      <c r="L53">
+        <v>204224400</v>
+      </c>
+      <c r="M53">
+        <v>-208800</v>
+      </c>
+      <c r="N53">
+        <v>-1777146000</v>
+      </c>
+      <c r="O53">
+        <v>15156700</v>
+      </c>
+      <c r="P53">
+        <v>263557228000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1671706680000</v>
+      </c>
+      <c r="B54">
+        <v>1138400</v>
+      </c>
+      <c r="C54">
+        <v>319100</v>
+      </c>
+      <c r="D54">
+        <v>1400</v>
+      </c>
+      <c r="E54">
+        <v>17627132000</v>
+      </c>
+      <c r="F54">
+        <v>6594113000</v>
+      </c>
+      <c r="G54">
+        <v>54870000</v>
+      </c>
+      <c r="H54">
+        <v>1458900</v>
+      </c>
+      <c r="I54">
+        <v>24276115000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2022-12-22T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>3508880230000</v>
+      </c>
+      <c r="L54">
+        <v>205683300</v>
+      </c>
+      <c r="M54">
+        <v>-819300</v>
+      </c>
+      <c r="N54">
+        <v>-11033019000</v>
+      </c>
+      <c r="O54">
+        <v>14337400</v>
+      </c>
+      <c r="P54">
+        <v>252524209000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1671706800000</v>
+      </c>
+      <c r="B55">
+        <v>918800</v>
+      </c>
+      <c r="C55">
+        <v>472400</v>
+      </c>
+      <c r="D55">
+        <v>29400</v>
+      </c>
+      <c r="E55">
+        <v>14267061000</v>
+      </c>
+      <c r="F55">
+        <v>7661589000</v>
+      </c>
+      <c r="G55">
+        <v>286581000</v>
+      </c>
+      <c r="H55">
+        <v>1420600</v>
+      </c>
+      <c r="I55">
+        <v>22215231000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2022-12-22T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>3531095461000</v>
+      </c>
+      <c r="L55">
+        <v>207103900</v>
+      </c>
+      <c r="M55">
+        <v>-446400</v>
+      </c>
+      <c r="N55">
+        <v>-6605472000</v>
+      </c>
+      <c r="O55">
+        <v>13891000</v>
+      </c>
+      <c r="P55">
+        <v>245918737000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1671706920000</v>
+      </c>
+      <c r="B56">
+        <v>1121700</v>
+      </c>
+      <c r="C56">
+        <v>827200</v>
+      </c>
+      <c r="D56">
+        <v>1600</v>
+      </c>
+      <c r="E56">
+        <v>16138039000</v>
+      </c>
+      <c r="F56">
+        <v>14175576000</v>
+      </c>
+      <c r="G56">
+        <v>30810000</v>
+      </c>
+      <c r="H56">
+        <v>1950500</v>
+      </c>
+      <c r="I56">
+        <v>30344425000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12-22T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>3561439886000</v>
+      </c>
+      <c r="L56">
+        <v>209054400</v>
+      </c>
+      <c r="M56">
+        <v>-294500</v>
+      </c>
+      <c r="N56">
+        <v>-1962463000</v>
+      </c>
+      <c r="O56">
+        <v>13596500</v>
+      </c>
+      <c r="P56">
+        <v>243956274000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1671707040000</v>
+      </c>
+      <c r="B57">
+        <v>1994700</v>
+      </c>
+      <c r="C57">
+        <v>703000</v>
+      </c>
+      <c r="D57">
+        <v>8900</v>
+      </c>
+      <c r="E57">
+        <v>27522719000</v>
+      </c>
+      <c r="F57">
+        <v>11821314000</v>
+      </c>
+      <c r="G57">
+        <v>60970000</v>
+      </c>
+      <c r="H57">
+        <v>2706600</v>
+      </c>
+      <c r="I57">
+        <v>39405003000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-22T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>3600844889000</v>
+      </c>
+      <c r="L57">
+        <v>211761000</v>
+      </c>
+      <c r="M57">
+        <v>-1291700</v>
+      </c>
+      <c r="N57">
+        <v>-15701405000</v>
+      </c>
+      <c r="O57">
+        <v>12304800</v>
+      </c>
+      <c r="P57">
+        <v>228254869000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1671707160000</v>
+      </c>
+      <c r="B58">
+        <v>3115800</v>
+      </c>
+      <c r="C58">
+        <v>313800</v>
+      </c>
+      <c r="D58">
+        <v>19600</v>
+      </c>
+      <c r="E58">
+        <v>53468619000</v>
+      </c>
+      <c r="F58">
+        <v>6310948000</v>
+      </c>
+      <c r="G58">
+        <v>324496000</v>
+      </c>
+      <c r="H58">
+        <v>3449200</v>
+      </c>
+      <c r="I58">
+        <v>60104063000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-22T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>3660948952000</v>
+      </c>
+      <c r="L58">
+        <v>215210200</v>
+      </c>
+      <c r="M58">
+        <v>-2802000</v>
+      </c>
+      <c r="N58">
+        <v>-47157671000</v>
+      </c>
+      <c r="O58">
+        <v>9502800</v>
+      </c>
+      <c r="P58">
+        <v>181097198000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1671707280000</v>
+      </c>
+      <c r="B59">
+        <v>3153500</v>
+      </c>
+      <c r="C59">
+        <v>541100</v>
+      </c>
+      <c r="D59">
+        <v>11100</v>
+      </c>
+      <c r="E59">
+        <v>46806187000</v>
+      </c>
+      <c r="F59">
+        <v>7786187000</v>
+      </c>
+      <c r="G59">
+        <v>118035000</v>
+      </c>
+      <c r="H59">
+        <v>3705700</v>
+      </c>
+      <c r="I59">
+        <v>54710409000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-22T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>3715659361000</v>
+      </c>
+      <c r="L59">
+        <v>218915900</v>
+      </c>
+      <c r="M59">
+        <v>-2612400</v>
+      </c>
+      <c r="N59">
+        <v>-39020000000</v>
+      </c>
+      <c r="O59">
+        <v>6890400</v>
+      </c>
+      <c r="P59">
+        <v>142077198000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1671707400000</v>
+      </c>
+      <c r="B60">
+        <v>2506400</v>
+      </c>
+      <c r="C60">
+        <v>378100</v>
+      </c>
+      <c r="D60">
+        <v>2400</v>
+      </c>
+      <c r="E60">
+        <v>41130205000</v>
+      </c>
+      <c r="F60">
+        <v>6059572000</v>
+      </c>
+      <c r="G60">
+        <v>46105000</v>
+      </c>
+      <c r="H60">
+        <v>2886900</v>
+      </c>
+      <c r="I60">
+        <v>47235882000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-22T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>3762895243000</v>
+      </c>
+      <c r="L60">
+        <v>221802800</v>
+      </c>
+      <c r="M60">
+        <v>-2128300</v>
+      </c>
+      <c r="N60">
+        <v>-35070633000</v>
+      </c>
+      <c r="O60">
+        <v>4762100</v>
+      </c>
+      <c r="P60">
+        <v>107006565000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1671707520000</v>
+      </c>
+      <c r="B61">
+        <v>2367600</v>
+      </c>
+      <c r="C61">
+        <v>604600</v>
+      </c>
+      <c r="D61">
+        <v>400</v>
+      </c>
+      <c r="E61">
+        <v>36409524000</v>
+      </c>
+      <c r="F61">
+        <v>9089381000</v>
+      </c>
+      <c r="G61">
+        <v>5292000</v>
+      </c>
+      <c r="H61">
+        <v>2972600</v>
+      </c>
+      <c r="I61">
+        <v>45504197000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-22T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>3808399440000</v>
+      </c>
+      <c r="L61">
+        <v>224775400</v>
+      </c>
+      <c r="M61">
+        <v>-1763000</v>
+      </c>
+      <c r="N61">
+        <v>-27320143000</v>
+      </c>
+      <c r="O61">
+        <v>2999100</v>
+      </c>
+      <c r="P61">
+        <v>79686422000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1671707640000</v>
+      </c>
+      <c r="B62">
+        <v>2860600</v>
+      </c>
+      <c r="C62">
+        <v>474100</v>
+      </c>
+      <c r="D62">
+        <v>13900</v>
+      </c>
+      <c r="E62">
+        <v>45390123000</v>
+      </c>
+      <c r="F62">
+        <v>8000784000</v>
+      </c>
+      <c r="G62">
+        <v>180635000</v>
+      </c>
+      <c r="H62">
+        <v>3348600</v>
+      </c>
+      <c r="I62">
+        <v>53571542000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-22T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>3861970982000</v>
+      </c>
+      <c r="L62">
+        <v>228124000</v>
+      </c>
+      <c r="M62">
+        <v>-2386500</v>
+      </c>
+      <c r="N62">
+        <v>-37389339000</v>
+      </c>
+      <c r="O62">
+        <v>612600</v>
+      </c>
+      <c r="P62">
+        <v>42297083000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1671707760000</v>
+      </c>
+      <c r="B63">
+        <v>2512000</v>
+      </c>
+      <c r="C63">
+        <v>641800</v>
+      </c>
+      <c r="D63">
+        <v>9800</v>
+      </c>
+      <c r="E63">
+        <v>40521200000</v>
+      </c>
+      <c r="F63">
+        <v>10248605000</v>
+      </c>
+      <c r="G63">
+        <v>195590000</v>
+      </c>
+      <c r="H63">
+        <v>3163600</v>
+      </c>
+      <c r="I63">
+        <v>50965395000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-22T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>3912936377000</v>
+      </c>
+      <c r="L63">
+        <v>231287600</v>
+      </c>
+      <c r="M63">
+        <v>-1870200</v>
+      </c>
+      <c r="N63">
+        <v>-30272595000</v>
+      </c>
+      <c r="O63">
+        <v>-1257600</v>
+      </c>
+      <c r="P63">
+        <v>12024488000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1671707880000</v>
+      </c>
+      <c r="B64">
+        <v>1681700</v>
+      </c>
+      <c r="C64">
+        <v>1142900</v>
+      </c>
+      <c r="D64">
+        <v>11800</v>
+      </c>
+      <c r="E64">
+        <v>28316114000</v>
+      </c>
+      <c r="F64">
+        <v>18080714000</v>
+      </c>
+      <c r="G64">
+        <v>63790000</v>
+      </c>
+      <c r="H64">
+        <v>2836400</v>
+      </c>
+      <c r="I64">
+        <v>46460618000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-22T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>3959396995000</v>
+      </c>
+      <c r="L64">
+        <v>234124000</v>
+      </c>
+      <c r="M64">
+        <v>-538800</v>
+      </c>
+      <c r="N64">
+        <v>-10235400000</v>
+      </c>
+      <c r="O64">
+        <v>-1796400</v>
+      </c>
+      <c r="P64">
+        <v>1789088000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1671708000000</v>
+      </c>
+      <c r="B65">
+        <v>1754500</v>
+      </c>
+      <c r="C65">
+        <v>1056500</v>
+      </c>
+      <c r="D65">
+        <v>12400</v>
+      </c>
+      <c r="E65">
+        <v>27642190000</v>
+      </c>
+      <c r="F65">
+        <v>17980524000</v>
+      </c>
+      <c r="G65">
+        <v>212972000</v>
+      </c>
+      <c r="H65">
+        <v>2823400</v>
+      </c>
+      <c r="I65">
+        <v>45835686000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-22T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>4005232681000</v>
+      </c>
+      <c r="L65">
+        <v>236947400</v>
+      </c>
+      <c r="M65">
+        <v>-698000</v>
+      </c>
+      <c r="N65">
+        <v>-9661666000</v>
+      </c>
+      <c r="O65">
+        <v>-2494400</v>
+      </c>
+      <c r="P65">
+        <v>-7872578000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1671708120000</v>
+      </c>
+      <c r="B66">
+        <v>1399400</v>
+      </c>
+      <c r="C66">
+        <v>906300</v>
+      </c>
+      <c r="D66">
+        <v>14900</v>
+      </c>
+      <c r="E66">
+        <v>21233949000</v>
+      </c>
+      <c r="F66">
+        <v>17236071000</v>
+      </c>
+      <c r="G66">
+        <v>207345000</v>
+      </c>
+      <c r="H66">
+        <v>2320600</v>
+      </c>
+      <c r="I66">
+        <v>38677365000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-22T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>4043910046000</v>
+      </c>
+      <c r="L66">
+        <v>239268000</v>
+      </c>
+      <c r="M66">
+        <v>-493100</v>
+      </c>
+      <c r="N66">
+        <v>-3997878000</v>
+      </c>
+      <c r="O66">
+        <v>-2987500</v>
+      </c>
+      <c r="P66">
+        <v>-11870456000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1671708240000</v>
+      </c>
+      <c r="B67">
+        <v>971800</v>
+      </c>
+      <c r="C67">
+        <v>678900</v>
+      </c>
+      <c r="D67">
+        <v>17700</v>
+      </c>
+      <c r="E67">
+        <v>16071283000</v>
+      </c>
+      <c r="F67">
+        <v>11499330000</v>
+      </c>
+      <c r="G67">
+        <v>196203000</v>
+      </c>
+      <c r="H67">
+        <v>1668400</v>
+      </c>
+      <c r="I67">
+        <v>27766816000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-22T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>4071676862000</v>
+      </c>
+      <c r="L67">
+        <v>240936400</v>
+      </c>
+      <c r="M67">
+        <v>-292900</v>
+      </c>
+      <c r="N67">
+        <v>-4571953000</v>
+      </c>
+      <c r="O67">
+        <v>-3280400</v>
+      </c>
+      <c r="P67">
+        <v>-16442409000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1671708360000</v>
+      </c>
+      <c r="B68">
+        <v>1714500</v>
+      </c>
+      <c r="C68">
+        <v>388100</v>
+      </c>
+      <c r="D68">
+        <v>4000</v>
+      </c>
+      <c r="E68">
+        <v>26813609000</v>
+      </c>
+      <c r="F68">
+        <v>7685722000</v>
+      </c>
+      <c r="G68">
+        <v>40331000</v>
+      </c>
+      <c r="H68">
+        <v>2106600</v>
+      </c>
+      <c r="I68">
+        <v>34539662000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-22T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>4106216524000</v>
+      </c>
+      <c r="L68">
+        <v>243043000</v>
+      </c>
+      <c r="M68">
+        <v>-1326400</v>
+      </c>
+      <c r="N68">
+        <v>-19127887000</v>
+      </c>
+      <c r="O68">
+        <v>-4606800</v>
+      </c>
+      <c r="P68">
+        <v>-35570296000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1671708480000</v>
+      </c>
+      <c r="B69">
+        <v>2133600</v>
+      </c>
+      <c r="C69">
+        <v>918900</v>
+      </c>
+      <c r="D69">
+        <v>9800</v>
+      </c>
+      <c r="E69">
+        <v>32751776000</v>
+      </c>
+      <c r="F69">
+        <v>13468671000</v>
+      </c>
+      <c r="G69">
+        <v>134245000</v>
+      </c>
+      <c r="H69">
+        <v>3062300</v>
+      </c>
+      <c r="I69">
+        <v>46354692000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-22T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>4152571216000</v>
+      </c>
+      <c r="L69">
+        <v>246105300</v>
+      </c>
+      <c r="M69">
+        <v>-1214700</v>
+      </c>
+      <c r="N69">
+        <v>-19283105000</v>
+      </c>
+      <c r="O69">
+        <v>-5821500</v>
+      </c>
+      <c r="P69">
+        <v>-54853401000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1671708600000</v>
+      </c>
+      <c r="B70">
+        <v>7700</v>
+      </c>
+      <c r="C70">
+        <v>11100</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>25640000</v>
+      </c>
+      <c r="F70">
+        <v>148240000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>18800</v>
+      </c>
+      <c r="I70">
+        <v>173880000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-22T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>4152745096000</v>
+      </c>
+      <c r="L70">
+        <v>246124100</v>
+      </c>
+      <c r="M70">
+        <v>3400</v>
+      </c>
+      <c r="N70">
+        <v>122600000</v>
+      </c>
+      <c r="O70">
+        <v>-5818100</v>
+      </c>
+      <c r="P70">
+        <v>-54730801000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1671714000000</v>
+      </c>
+      <c r="B71">
+        <v>8869900</v>
+      </c>
+      <c r="C71">
+        <v>3734300</v>
+      </c>
+      <c r="D71">
+        <v>905900</v>
+      </c>
+      <c r="E71">
+        <v>134253375000</v>
+      </c>
+      <c r="F71">
+        <v>53962081000</v>
+      </c>
+      <c r="G71">
+        <v>11449174000</v>
+      </c>
+      <c r="H71">
+        <v>13510100</v>
+      </c>
+      <c r="I71">
+        <v>199664630000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-22T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>4352409726000</v>
+      </c>
+      <c r="L71">
+        <v>259634200</v>
+      </c>
+      <c r="M71">
+        <v>-5135600</v>
+      </c>
+      <c r="N71">
+        <v>-80291294000</v>
+      </c>
+      <c r="O71">
+        <v>-10953700</v>
+      </c>
+      <c r="P71">
+        <v>-135022095000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1671714120000</v>
+      </c>
+      <c r="B72">
+        <v>5760100</v>
+      </c>
+      <c r="C72">
+        <v>1774200</v>
+      </c>
+      <c r="D72">
+        <v>44600</v>
+      </c>
+      <c r="E72">
+        <v>86113266000</v>
+      </c>
+      <c r="F72">
+        <v>29279577000</v>
+      </c>
+      <c r="G72">
+        <v>434502000</v>
+      </c>
+      <c r="H72">
+        <v>7578900</v>
+      </c>
+      <c r="I72">
+        <v>115827345000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-22T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>4468237071000</v>
+      </c>
+      <c r="L72">
+        <v>267213100</v>
+      </c>
+      <c r="M72">
+        <v>-3985900</v>
+      </c>
+      <c r="N72">
+        <v>-56833689000</v>
+      </c>
+      <c r="O72">
+        <v>-14939600</v>
+      </c>
+      <c r="P72">
+        <v>-191855784000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1671714240000</v>
+      </c>
+      <c r="B73">
+        <v>4193700</v>
+      </c>
+      <c r="C73">
+        <v>2037900</v>
+      </c>
+      <c r="D73">
+        <v>17400</v>
+      </c>
+      <c r="E73">
+        <v>59030623000</v>
+      </c>
+      <c r="F73">
+        <v>34938228000</v>
+      </c>
+      <c r="G73">
+        <v>265902000</v>
+      </c>
+      <c r="H73">
+        <v>6249000</v>
+      </c>
+      <c r="I73">
+        <v>94234753000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-22T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>4562471824000</v>
+      </c>
+      <c r="L73">
+        <v>273462100</v>
+      </c>
+      <c r="M73">
+        <v>-2155800</v>
+      </c>
+      <c r="N73">
+        <v>-24092395000</v>
+      </c>
+      <c r="O73">
+        <v>-17095400</v>
+      </c>
+      <c r="P73">
+        <v>-215948179000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1671714360000</v>
+      </c>
+      <c r="B74">
+        <v>1663200</v>
+      </c>
+      <c r="C74">
+        <v>2677800</v>
+      </c>
+      <c r="D74">
+        <v>148100</v>
+      </c>
+      <c r="E74">
+        <v>23507213000</v>
+      </c>
+      <c r="F74">
+        <v>43989286000</v>
+      </c>
+      <c r="G74">
+        <v>1766719000</v>
+      </c>
+      <c r="H74">
+        <v>4489100</v>
+      </c>
+      <c r="I74">
+        <v>69263218000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-22T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>4631735042000</v>
+      </c>
+      <c r="L74">
+        <v>277951200</v>
+      </c>
+      <c r="M74">
+        <v>1014600</v>
+      </c>
+      <c r="N74">
+        <v>20482073000</v>
+      </c>
+      <c r="O74">
+        <v>-16080800</v>
+      </c>
+      <c r="P74">
+        <v>-195466106000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1671714480000</v>
+      </c>
+      <c r="B75">
+        <v>1574700</v>
+      </c>
+      <c r="C75">
+        <v>2806100</v>
+      </c>
+      <c r="D75">
+        <v>36000</v>
+      </c>
+      <c r="E75">
+        <v>22328855000</v>
+      </c>
+      <c r="F75">
+        <v>47124324000</v>
+      </c>
+      <c r="G75">
+        <v>509888000</v>
+      </c>
+      <c r="H75">
+        <v>4416800</v>
+      </c>
+      <c r="I75">
+        <v>69963067000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-22T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>4701698109000</v>
+      </c>
+      <c r="L75">
+        <v>282368000</v>
+      </c>
+      <c r="M75">
+        <v>1231400</v>
+      </c>
+      <c r="N75">
+        <v>24795469000</v>
+      </c>
+      <c r="O75">
+        <v>-14849400</v>
+      </c>
+      <c r="P75">
+        <v>-170670637000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1671714600000</v>
+      </c>
+      <c r="B76">
+        <v>1582600</v>
+      </c>
+      <c r="C76">
+        <v>2532400</v>
+      </c>
+      <c r="D76">
+        <v>24400</v>
+      </c>
+      <c r="E76">
+        <v>24725359000</v>
+      </c>
+      <c r="F76">
+        <v>39357843000</v>
+      </c>
+      <c r="G76">
+        <v>307422000</v>
+      </c>
+      <c r="H76">
+        <v>4139400</v>
+      </c>
+      <c r="I76">
+        <v>64390624000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-22T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>4766088733000</v>
+      </c>
+      <c r="L76">
+        <v>286507400</v>
+      </c>
+      <c r="M76">
+        <v>949800</v>
+      </c>
+      <c r="N76">
+        <v>14632484000</v>
+      </c>
+      <c r="O76">
+        <v>-13899600</v>
+      </c>
+      <c r="P76">
+        <v>-156038153000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1671714720000</v>
+      </c>
+      <c r="B77">
+        <v>1658200</v>
+      </c>
+      <c r="C77">
+        <v>2610000</v>
+      </c>
+      <c r="D77">
+        <v>16100</v>
+      </c>
+      <c r="E77">
+        <v>26119802000</v>
+      </c>
+      <c r="F77">
+        <v>38233319000</v>
+      </c>
+      <c r="G77">
+        <v>296982000</v>
+      </c>
+      <c r="H77">
+        <v>4284300</v>
+      </c>
+      <c r="I77">
+        <v>64650103000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-22T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>4830738836000</v>
+      </c>
+      <c r="L77">
+        <v>290791700</v>
+      </c>
+      <c r="M77">
+        <v>951800</v>
+      </c>
+      <c r="N77">
+        <v>12113517000</v>
+      </c>
+      <c r="O77">
+        <v>-12947800</v>
+      </c>
+      <c r="P77">
+        <v>-143924636000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1671714840000</v>
+      </c>
+      <c r="B78">
+        <v>1633200</v>
+      </c>
+      <c r="C78">
+        <v>1811700</v>
+      </c>
+      <c r="D78">
+        <v>30000</v>
+      </c>
+      <c r="E78">
+        <v>25935039000</v>
+      </c>
+      <c r="F78">
+        <v>25754968000</v>
+      </c>
+      <c r="G78">
+        <v>222336000</v>
+      </c>
+      <c r="H78">
+        <v>3474900</v>
+      </c>
+      <c r="I78">
+        <v>51912343000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-22T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>4882651179000</v>
+      </c>
+      <c r="L78">
+        <v>294266600</v>
+      </c>
+      <c r="M78">
+        <v>178500</v>
+      </c>
+      <c r="N78">
+        <v>-180071000</v>
+      </c>
+      <c r="O78">
+        <v>-12769300</v>
+      </c>
+      <c r="P78">
+        <v>-144104707000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1671714960000</v>
+      </c>
+      <c r="B79">
+        <v>2133200</v>
+      </c>
+      <c r="C79">
+        <v>1389600</v>
+      </c>
+      <c r="D79">
+        <v>4200</v>
+      </c>
+      <c r="E79">
+        <v>35131519000</v>
+      </c>
+      <c r="F79">
+        <v>22062451000</v>
+      </c>
+      <c r="G79">
+        <v>50779000</v>
+      </c>
+      <c r="H79">
+        <v>3527000</v>
+      </c>
+      <c r="I79">
+        <v>57244749000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-22T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>4939895928000</v>
+      </c>
+      <c r="L79">
+        <v>297793600</v>
+      </c>
+      <c r="M79">
+        <v>-743600</v>
+      </c>
+      <c r="N79">
+        <v>-13069068000</v>
+      </c>
+      <c r="O79">
+        <v>-13512900</v>
+      </c>
+      <c r="P79">
+        <v>-157173775000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1671715080000</v>
+      </c>
+      <c r="B80">
+        <v>3052900</v>
+      </c>
+      <c r="C80">
+        <v>1115300</v>
+      </c>
+      <c r="D80">
+        <v>120600</v>
+      </c>
+      <c r="E80">
+        <v>46315685000</v>
+      </c>
+      <c r="F80">
+        <v>16743533000</v>
+      </c>
+      <c r="G80">
+        <v>1737748000</v>
+      </c>
+      <c r="H80">
+        <v>4288800</v>
+      </c>
+      <c r="I80">
+        <v>64796966000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-22T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>5004692894000</v>
+      </c>
+      <c r="L80">
+        <v>302082400</v>
+      </c>
+      <c r="M80">
+        <v>-1937600</v>
+      </c>
+      <c r="N80">
+        <v>-29572152000</v>
+      </c>
+      <c r="O80">
+        <v>-15450500</v>
+      </c>
+      <c r="P80">
+        <v>-186745927000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1671715200000</v>
+      </c>
+      <c r="B81">
+        <v>2073400</v>
+      </c>
+      <c r="C81">
+        <v>1288000</v>
+      </c>
+      <c r="D81">
+        <v>8100</v>
+      </c>
+      <c r="E81">
+        <v>29745323000</v>
+      </c>
+      <c r="F81">
+        <v>21695158000</v>
+      </c>
+      <c r="G81">
+        <v>166096000</v>
+      </c>
+      <c r="H81">
+        <v>3369500</v>
+      </c>
+      <c r="I81">
+        <v>51606577000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-22T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>5056299471000</v>
+      </c>
+      <c r="L81">
+        <v>305451900</v>
+      </c>
+      <c r="M81">
+        <v>-785400</v>
+      </c>
+      <c r="N81">
+        <v>-8050165000</v>
+      </c>
+      <c r="O81">
+        <v>-16235900</v>
+      </c>
+      <c r="P81">
+        <v>-194796092000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1671715320000</v>
+      </c>
+      <c r="B82">
+        <v>1753400</v>
+      </c>
+      <c r="C82">
+        <v>3011800</v>
+      </c>
+      <c r="D82">
+        <v>19000</v>
+      </c>
+      <c r="E82">
+        <v>27310872000</v>
+      </c>
+      <c r="F82">
+        <v>48599325000</v>
+      </c>
+      <c r="G82">
+        <v>216368000</v>
+      </c>
+      <c r="H82">
+        <v>4784200</v>
+      </c>
+      <c r="I82">
+        <v>76126565000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-22T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>5132426036000</v>
+      </c>
+      <c r="L82">
+        <v>310236100</v>
+      </c>
+      <c r="M82">
+        <v>1258400</v>
+      </c>
+      <c r="N82">
+        <v>21288453000</v>
+      </c>
+      <c r="O82">
+        <v>-14977500</v>
+      </c>
+      <c r="P82">
+        <v>-173507639000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1671715440000</v>
+      </c>
+      <c r="B83">
+        <v>877600</v>
+      </c>
+      <c r="C83">
+        <v>3932200</v>
+      </c>
+      <c r="D83">
+        <v>26400</v>
+      </c>
+      <c r="E83">
+        <v>13938346000</v>
+      </c>
+      <c r="F83">
+        <v>62103000000</v>
+      </c>
+      <c r="G83">
+        <v>313695000</v>
+      </c>
+      <c r="H83">
+        <v>4836200</v>
+      </c>
+      <c r="I83">
+        <v>76355041000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-22T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>5208781077000</v>
+      </c>
+      <c r="L83">
+        <v>315072300</v>
+      </c>
+      <c r="M83">
+        <v>3054600</v>
+      </c>
+      <c r="N83">
+        <v>48164654000</v>
+      </c>
+      <c r="O83">
+        <v>-11922900</v>
+      </c>
+      <c r="P83">
+        <v>-125342985000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1671715560000</v>
+      </c>
+      <c r="B84">
+        <v>1852500</v>
+      </c>
+      <c r="C84">
+        <v>3753600</v>
+      </c>
+      <c r="D84">
+        <v>11900</v>
+      </c>
+      <c r="E84">
+        <v>36935843000</v>
+      </c>
+      <c r="F84">
+        <v>55059120000</v>
+      </c>
+      <c r="G84">
+        <v>160600000</v>
+      </c>
+      <c r="H84">
+        <v>5618000</v>
+      </c>
+      <c r="I84">
+        <v>92155563000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-22T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>5300936640000</v>
+      </c>
+      <c r="L84">
+        <v>320690300</v>
+      </c>
+      <c r="M84">
+        <v>1901100</v>
+      </c>
+      <c r="N84">
+        <v>18123277000</v>
+      </c>
+      <c r="O84">
+        <v>-10021800</v>
+      </c>
+      <c r="P84">
+        <v>-107219708000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1671715680000</v>
+      </c>
+      <c r="B85">
+        <v>1677700</v>
+      </c>
+      <c r="C85">
+        <v>1586400</v>
+      </c>
+      <c r="D85">
+        <v>6900</v>
+      </c>
+      <c r="E85">
+        <v>27856660000</v>
+      </c>
+      <c r="F85">
+        <v>27340148000</v>
+      </c>
+      <c r="G85">
+        <v>307463000</v>
+      </c>
+      <c r="H85">
+        <v>3271000</v>
+      </c>
+      <c r="I85">
+        <v>55504271000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-22T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>5356440911000</v>
+      </c>
+      <c r="L85">
+        <v>323961300</v>
+      </c>
+      <c r="M85">
+        <v>-91300</v>
+      </c>
+      <c r="N85">
+        <v>-516512000</v>
+      </c>
+      <c r="O85">
+        <v>-10113100</v>
+      </c>
+      <c r="P85">
+        <v>-107736220000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1671715800000</v>
+      </c>
+      <c r="B86">
+        <v>2165400</v>
+      </c>
+      <c r="C86">
+        <v>1521500</v>
+      </c>
+      <c r="D86">
+        <v>42500</v>
+      </c>
+      <c r="E86">
+        <v>32114046000</v>
+      </c>
+      <c r="F86">
+        <v>24836289000</v>
+      </c>
+      <c r="G86">
+        <v>403282000</v>
+      </c>
+      <c r="H86">
+        <v>3729400</v>
+      </c>
+      <c r="I86">
+        <v>57353617000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-22T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>5413794528000</v>
+      </c>
+      <c r="L86">
+        <v>327690700</v>
+      </c>
+      <c r="M86">
+        <v>-643900</v>
+      </c>
+      <c r="N86">
+        <v>-7277757000</v>
+      </c>
+      <c r="O86">
+        <v>-10757000</v>
+      </c>
+      <c r="P86">
+        <v>-115013977000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1671715920000</v>
+      </c>
+      <c r="B87">
+        <v>2555500</v>
+      </c>
+      <c r="C87">
+        <v>1001300</v>
+      </c>
+      <c r="D87">
+        <v>17900</v>
+      </c>
+      <c r="E87">
+        <v>36685964000</v>
+      </c>
+      <c r="F87">
+        <v>18852802000</v>
+      </c>
+      <c r="G87">
+        <v>567024000</v>
+      </c>
+      <c r="H87">
+        <v>3574700</v>
+      </c>
+      <c r="I87">
+        <v>56105790000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-22T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>5469900318000</v>
+      </c>
+      <c r="L87">
+        <v>331265400</v>
+      </c>
+      <c r="M87">
+        <v>-1554200</v>
+      </c>
+      <c r="N87">
+        <v>-17833162000</v>
+      </c>
+      <c r="O87">
+        <v>-12311200</v>
+      </c>
+      <c r="P87">
+        <v>-132847139000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1671716040000</v>
+      </c>
+      <c r="B88">
+        <v>1645600</v>
+      </c>
+      <c r="C88">
+        <v>1391500</v>
+      </c>
+      <c r="D88">
+        <v>24400</v>
+      </c>
+      <c r="E88">
+        <v>21598700000</v>
+      </c>
+      <c r="F88">
+        <v>22901751000</v>
+      </c>
+      <c r="G88">
+        <v>296291000</v>
+      </c>
+      <c r="H88">
+        <v>3061500</v>
+      </c>
+      <c r="I88">
+        <v>44796742000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-22T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>5514697060000</v>
+      </c>
+      <c r="L88">
+        <v>334326900</v>
+      </c>
+      <c r="M88">
+        <v>-254100</v>
+      </c>
+      <c r="N88">
+        <v>1303051000</v>
+      </c>
+      <c r="O88">
+        <v>-12565300</v>
+      </c>
+      <c r="P88">
+        <v>-131544088000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1671716160000</v>
+      </c>
+      <c r="B89">
+        <v>3013500</v>
+      </c>
+      <c r="C89">
+        <v>1761500</v>
+      </c>
+      <c r="D89">
+        <v>6600</v>
+      </c>
+      <c r="E89">
+        <v>51003178000</v>
+      </c>
+      <c r="F89">
+        <v>27123521000</v>
+      </c>
+      <c r="G89">
+        <v>144074000</v>
+      </c>
+      <c r="H89">
+        <v>4781600</v>
+      </c>
+      <c r="I89">
+        <v>78270773000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-22T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>5592967833000</v>
+      </c>
+      <c r="L89">
+        <v>339108500</v>
+      </c>
+      <c r="M89">
+        <v>-1252000</v>
+      </c>
+      <c r="N89">
+        <v>-23879657000</v>
+      </c>
+      <c r="O89">
+        <v>-13817300</v>
+      </c>
+      <c r="P89">
+        <v>-155423745000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1671716280000</v>
+      </c>
+      <c r="B90">
+        <v>5671300</v>
+      </c>
+      <c r="C90">
+        <v>997900</v>
+      </c>
+      <c r="D90">
+        <v>15200</v>
+      </c>
+      <c r="E90">
+        <v>92816775000</v>
+      </c>
+      <c r="F90">
+        <v>17730258000</v>
+      </c>
+      <c r="G90">
+        <v>246915000</v>
+      </c>
+      <c r="H90">
+        <v>6684400</v>
+      </c>
+      <c r="I90">
+        <v>110793948000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-22T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>5703761781000</v>
+      </c>
+      <c r="L90">
+        <v>345792900</v>
+      </c>
+      <c r="M90">
+        <v>-4673400</v>
+      </c>
+      <c r="N90">
+        <v>-75086517000</v>
+      </c>
+      <c r="O90">
+        <v>-18490700</v>
+      </c>
+      <c r="P90">
+        <v>-230510262000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1671716400000</v>
+      </c>
+      <c r="B91">
+        <v>4175700</v>
+      </c>
+      <c r="C91">
+        <v>1088300</v>
+      </c>
+      <c r="D91">
+        <v>18600</v>
+      </c>
+      <c r="E91">
+        <v>62714718000</v>
+      </c>
+      <c r="F91">
+        <v>20907329000</v>
+      </c>
+      <c r="G91">
+        <v>218246000</v>
+      </c>
+      <c r="H91">
+        <v>5282600</v>
+      </c>
+      <c r="I91">
+        <v>83840293000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-22T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>5787602074000</v>
+      </c>
+      <c r="L91">
+        <v>351075500</v>
+      </c>
+      <c r="M91">
+        <v>-3087400</v>
+      </c>
+      <c r="N91">
+        <v>-41807389000</v>
+      </c>
+      <c r="O91">
+        <v>-21578100</v>
+      </c>
+      <c r="P91">
+        <v>-272317651000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1671716520000</v>
+      </c>
+      <c r="B92">
+        <v>2276000</v>
+      </c>
+      <c r="C92">
+        <v>1450400</v>
+      </c>
+      <c r="D92">
+        <v>28300</v>
+      </c>
+      <c r="E92">
+        <v>34551728000</v>
+      </c>
+      <c r="F92">
+        <v>27104856000</v>
+      </c>
+      <c r="G92">
+        <v>532757000</v>
+      </c>
+      <c r="H92">
+        <v>3754700</v>
+      </c>
+      <c r="I92">
+        <v>62189341000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-22T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>5849791415000</v>
+      </c>
+      <c r="L92">
+        <v>354830200</v>
+      </c>
+      <c r="M92">
+        <v>-825600</v>
+      </c>
+      <c r="N92">
+        <v>-7446872000</v>
+      </c>
+      <c r="O92">
+        <v>-22403700</v>
+      </c>
+      <c r="P92">
+        <v>-279764523000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1671716640000</v>
+      </c>
+      <c r="B93">
+        <v>1320700</v>
+      </c>
+      <c r="C93">
+        <v>2447300</v>
+      </c>
+      <c r="D93">
+        <v>60700</v>
+      </c>
+      <c r="E93">
+        <v>19956741000</v>
+      </c>
+      <c r="F93">
+        <v>40745218000</v>
+      </c>
+      <c r="G93">
+        <v>1007986000</v>
+      </c>
+      <c r="H93">
+        <v>3828700</v>
+      </c>
+      <c r="I93">
+        <v>61709945000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-22T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>5911501360000</v>
+      </c>
+      <c r="L93">
+        <v>358658900</v>
+      </c>
+      <c r="M93">
+        <v>1126600</v>
+      </c>
+      <c r="N93">
+        <v>20788477000</v>
+      </c>
+      <c r="O93">
+        <v>-21277100</v>
+      </c>
+      <c r="P93">
+        <v>-258976046000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1671716760000</v>
+      </c>
+      <c r="B94">
+        <v>1696000</v>
+      </c>
+      <c r="C94">
+        <v>1499700</v>
+      </c>
+      <c r="D94">
+        <v>3700</v>
+      </c>
+      <c r="E94">
+        <v>30662076000</v>
+      </c>
+      <c r="F94">
+        <v>26112864000</v>
+      </c>
+      <c r="G94">
+        <v>50415000</v>
+      </c>
+      <c r="H94">
+        <v>3199400</v>
+      </c>
+      <c r="I94">
+        <v>56825355000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-22T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>5968326715000</v>
+      </c>
+      <c r="L94">
+        <v>361858300</v>
+      </c>
+      <c r="M94">
+        <v>-196300</v>
+      </c>
+      <c r="N94">
+        <v>-4549212000</v>
+      </c>
+      <c r="O94">
+        <v>-21473400</v>
+      </c>
+      <c r="P94">
+        <v>-263525258000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1671716880000</v>
+      </c>
+      <c r="B95">
+        <v>1193400</v>
+      </c>
+      <c r="C95">
+        <v>1731100</v>
+      </c>
+      <c r="D95">
+        <v>1500</v>
+      </c>
+      <c r="E95">
+        <v>19396686000</v>
+      </c>
+      <c r="F95">
+        <v>26055158000</v>
+      </c>
+      <c r="G95">
+        <v>26680000</v>
+      </c>
+      <c r="H95">
+        <v>2926000</v>
+      </c>
+      <c r="I95">
+        <v>45478524000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-22T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>6013805239000</v>
+      </c>
+      <c r="L95">
+        <v>364784300</v>
+      </c>
+      <c r="M95">
+        <v>537700</v>
+      </c>
+      <c r="N95">
+        <v>6658472000</v>
+      </c>
+      <c r="O95">
+        <v>-20935700</v>
+      </c>
+      <c r="P95">
+        <v>-256866786000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1671717000000</v>
+      </c>
+      <c r="B96">
+        <v>1461000</v>
+      </c>
+      <c r="C96">
+        <v>2000200</v>
+      </c>
+      <c r="D96">
+        <v>23600</v>
+      </c>
+      <c r="E96">
+        <v>24471446000</v>
+      </c>
+      <c r="F96">
+        <v>27486773000</v>
+      </c>
+      <c r="G96">
+        <v>505125000</v>
+      </c>
+      <c r="H96">
+        <v>3484800</v>
+      </c>
+      <c r="I96">
+        <v>52463344000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-22T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>6066268583000</v>
+      </c>
+      <c r="L96">
+        <v>368269100</v>
+      </c>
+      <c r="M96">
+        <v>539200</v>
+      </c>
+      <c r="N96">
+        <v>3015327000</v>
+      </c>
+      <c r="O96">
+        <v>-20396500</v>
+      </c>
+      <c r="P96">
+        <v>-253851459000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1671717120000</v>
+      </c>
+      <c r="B97">
+        <v>3168100</v>
+      </c>
+      <c r="C97">
+        <v>1458800</v>
+      </c>
+      <c r="D97">
+        <v>33600</v>
+      </c>
+      <c r="E97">
+        <v>53673950000</v>
+      </c>
+      <c r="F97">
+        <v>20809175000</v>
+      </c>
+      <c r="G97">
+        <v>771826000</v>
+      </c>
+      <c r="H97">
+        <v>4660500</v>
+      </c>
+      <c r="I97">
+        <v>75254951000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-22T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>6141523534000</v>
+      </c>
+      <c r="L97">
+        <v>372929600</v>
+      </c>
+      <c r="M97">
+        <v>-1709300</v>
+      </c>
+      <c r="N97">
+        <v>-32864775000</v>
+      </c>
+      <c r="O97">
+        <v>-22105800</v>
+      </c>
+      <c r="P97">
+        <v>-286716234000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1671717240000</v>
+      </c>
+      <c r="B98">
+        <v>3529000</v>
+      </c>
+      <c r="C98">
+        <v>1228400</v>
+      </c>
+      <c r="D98">
+        <v>87400</v>
+      </c>
+      <c r="E98">
+        <v>51798222000</v>
+      </c>
+      <c r="F98">
+        <v>18906177000</v>
+      </c>
+      <c r="G98">
+        <v>1793129000</v>
+      </c>
+      <c r="H98">
+        <v>4844800</v>
+      </c>
+      <c r="I98">
+        <v>72497528000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-22T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>6214021062000</v>
+      </c>
+      <c r="L98">
+        <v>377774400</v>
+      </c>
+      <c r="M98">
+        <v>-2300600</v>
+      </c>
+      <c r="N98">
+        <v>-32892045000</v>
+      </c>
+      <c r="O98">
+        <v>-24406400</v>
+      </c>
+      <c r="P98">
+        <v>-319608279000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1671717360000</v>
+      </c>
+      <c r="B99">
+        <v>2121400</v>
+      </c>
+      <c r="C99">
+        <v>1064300</v>
+      </c>
+      <c r="D99">
+        <v>36800</v>
+      </c>
+      <c r="E99">
+        <v>35653032000</v>
+      </c>
+      <c r="F99">
+        <v>17827634000</v>
+      </c>
+      <c r="G99">
+        <v>495564000</v>
+      </c>
+      <c r="H99">
+        <v>3222500</v>
+      </c>
+      <c r="I99">
+        <v>53976230000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-22T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>6267997292000</v>
+      </c>
+      <c r="L99">
+        <v>380996900</v>
+      </c>
+      <c r="M99">
+        <v>-1057100</v>
+      </c>
+      <c r="N99">
+        <v>-17825398000</v>
+      </c>
+      <c r="O99">
+        <v>-25463500</v>
+      </c>
+      <c r="P99">
+        <v>-337433677000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1671717480000</v>
+      </c>
+      <c r="B100">
+        <v>971700</v>
+      </c>
+      <c r="C100">
+        <v>1933900</v>
+      </c>
+      <c r="D100">
+        <v>14400</v>
+      </c>
+      <c r="E100">
+        <v>14430733000</v>
+      </c>
+      <c r="F100">
+        <v>30386636000</v>
+      </c>
+      <c r="G100">
+        <v>202531000</v>
+      </c>
+      <c r="H100">
+        <v>2920000</v>
+      </c>
+      <c r="I100">
+        <v>45019900000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-22T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>6313017192000</v>
+      </c>
+      <c r="L100">
+        <v>383916900</v>
+      </c>
+      <c r="M100">
+        <v>962200</v>
+      </c>
+      <c r="N100">
+        <v>15955903000</v>
+      </c>
+      <c r="O100">
+        <v>-24501300</v>
+      </c>
+      <c r="P100">
+        <v>-321477774000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1671717600000</v>
+      </c>
+      <c r="B101">
+        <v>1025400</v>
+      </c>
+      <c r="C101">
+        <v>6311400</v>
+      </c>
+      <c r="D101">
+        <v>27300</v>
+      </c>
+      <c r="E101">
+        <v>15624200000</v>
+      </c>
+      <c r="F101">
+        <v>103858613000</v>
+      </c>
+      <c r="G101">
+        <v>595184000</v>
+      </c>
+      <c r="H101">
+        <v>7364100</v>
+      </c>
+      <c r="I101">
+        <v>120077997000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-22T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>6433095189000</v>
+      </c>
+      <c r="L101">
+        <v>391281000</v>
+      </c>
+      <c r="M101">
+        <v>5286000</v>
+      </c>
+      <c r="N101">
+        <v>88234413000</v>
+      </c>
+      <c r="O101">
+        <v>-19215300</v>
+      </c>
+      <c r="P101">
+        <v>-233243361000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1671717720000</v>
+      </c>
+      <c r="B102">
+        <v>1084700</v>
+      </c>
+      <c r="C102">
+        <v>5100800</v>
+      </c>
+      <c r="D102">
+        <v>14900</v>
+      </c>
+      <c r="E102">
+        <v>17291288000</v>
+      </c>
+      <c r="F102">
+        <v>81051044000</v>
+      </c>
+      <c r="G102">
+        <v>234628000</v>
+      </c>
+      <c r="H102">
+        <v>6200400</v>
+      </c>
+      <c r="I102">
+        <v>98576960000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-22T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>6531672149000</v>
+      </c>
+      <c r="L102">
+        <v>397481400</v>
+      </c>
+      <c r="M102">
+        <v>4016100</v>
+      </c>
+      <c r="N102">
+        <v>63759756000</v>
+      </c>
+      <c r="O102">
+        <v>-15199200</v>
+      </c>
+      <c r="P102">
+        <v>-169483605000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1671717840000</v>
+      </c>
+      <c r="B103">
+        <v>2640100</v>
+      </c>
+      <c r="C103">
+        <v>3833200</v>
+      </c>
+      <c r="D103">
+        <v>54200</v>
+      </c>
+      <c r="E103">
+        <v>46203249000</v>
+      </c>
+      <c r="F103">
+        <v>57008702000</v>
+      </c>
+      <c r="G103">
+        <v>369734000</v>
+      </c>
+      <c r="H103">
+        <v>6527500</v>
+      </c>
+      <c r="I103">
+        <v>103581685000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-22T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>6635253834000</v>
+      </c>
+      <c r="L103">
+        <v>404008900</v>
+      </c>
+      <c r="M103">
+        <v>1193100</v>
+      </c>
+      <c r="N103">
+        <v>10805453000</v>
+      </c>
+      <c r="O103">
+        <v>-14006100</v>
+      </c>
+      <c r="P103">
+        <v>-158678152000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1671717960000</v>
+      </c>
+      <c r="B104">
+        <v>2158900</v>
+      </c>
+      <c r="C104">
+        <v>3293800</v>
+      </c>
+      <c r="D104">
+        <v>31800</v>
+      </c>
+      <c r="E104">
+        <v>33404236000</v>
+      </c>
+      <c r="F104">
+        <v>51285454000</v>
+      </c>
+      <c r="G104">
+        <v>350970000</v>
+      </c>
+      <c r="H104">
+        <v>5484500</v>
+      </c>
+      <c r="I104">
+        <v>85040660000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-22T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>6720294494000</v>
+      </c>
+      <c r="L104">
+        <v>409493400</v>
+      </c>
+      <c r="M104">
+        <v>1134900</v>
+      </c>
+      <c r="N104">
+        <v>17881218000</v>
+      </c>
+      <c r="O104">
+        <v>-12871200</v>
+      </c>
+      <c r="P104">
+        <v>-140796934000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1671718080000</v>
+      </c>
+      <c r="B105">
+        <v>1401400</v>
+      </c>
+      <c r="C105">
+        <v>6486600</v>
+      </c>
+      <c r="D105">
+        <v>34900</v>
+      </c>
+      <c r="E105">
+        <v>22141488000</v>
+      </c>
+      <c r="F105">
+        <v>103959098000</v>
+      </c>
+      <c r="G105">
+        <v>547303000</v>
+      </c>
+      <c r="H105">
+        <v>7922900</v>
+      </c>
+      <c r="I105">
+        <v>126647889000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-22T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>6846942383000</v>
+      </c>
+      <c r="L105">
+        <v>417416300</v>
+      </c>
+      <c r="M105">
+        <v>5085200</v>
+      </c>
+      <c r="N105">
+        <v>81817610000</v>
+      </c>
+      <c r="O105">
+        <v>-7786000</v>
+      </c>
+      <c r="P105">
+        <v>-58979324000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1671718200000</v>
+      </c>
+      <c r="B106">
+        <v>1299900</v>
+      </c>
+      <c r="C106">
+        <v>9308400</v>
+      </c>
+      <c r="D106">
+        <v>303000</v>
+      </c>
+      <c r="E106">
+        <v>18850340000</v>
+      </c>
+      <c r="F106">
+        <v>126648025000</v>
+      </c>
+      <c r="G106">
+        <v>4218203000</v>
+      </c>
+      <c r="H106">
+        <v>10911300</v>
+      </c>
+      <c r="I106">
+        <v>149716568000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-22T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>6996658951000</v>
+      </c>
+      <c r="L106">
+        <v>428327600</v>
+      </c>
+      <c r="M106">
+        <v>8008500</v>
+      </c>
+      <c r="N106">
+        <v>107797685000</v>
+      </c>
+      <c r="O106">
+        <v>222500</v>
+      </c>
+      <c r="P106">
+        <v>48818361000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1671718320000</v>
+      </c>
+      <c r="B107">
+        <v>4228500</v>
+      </c>
+      <c r="C107">
+        <v>5064700</v>
+      </c>
+      <c r="D107">
+        <v>195800</v>
+      </c>
+      <c r="E107">
+        <v>62087916000</v>
+      </c>
+      <c r="F107">
+        <v>75268753000</v>
+      </c>
+      <c r="G107">
+        <v>2905079000</v>
+      </c>
+      <c r="H107">
+        <v>9489000</v>
+      </c>
+      <c r="I107">
+        <v>140261748000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-22T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>7136920699000</v>
+      </c>
+      <c r="L107">
+        <v>437816600</v>
+      </c>
+      <c r="M107">
+        <v>836200</v>
+      </c>
+      <c r="N107">
+        <v>13180837000</v>
+      </c>
+      <c r="O107">
+        <v>1058700</v>
+      </c>
+      <c r="P107">
+        <v>61999198000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1671718440000</v>
+      </c>
+      <c r="B108">
+        <v>3138500</v>
+      </c>
+      <c r="C108">
+        <v>1857100</v>
+      </c>
+      <c r="D108">
+        <v>12100</v>
+      </c>
+      <c r="E108">
+        <v>47492324000</v>
+      </c>
+      <c r="F108">
+        <v>34156258000</v>
+      </c>
+      <c r="G108">
+        <v>192772000</v>
+      </c>
+      <c r="H108">
+        <v>5007700</v>
+      </c>
+      <c r="I108">
+        <v>81841354000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-22T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>7218762053000</v>
+      </c>
+      <c r="L108">
+        <v>442824300</v>
+      </c>
+      <c r="M108">
+        <v>-1281400</v>
+      </c>
+      <c r="N108">
+        <v>-13336066000</v>
+      </c>
+      <c r="O108">
+        <v>-222700</v>
+      </c>
+      <c r="P108">
+        <v>48663132000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1671718560000</v>
+      </c>
+      <c r="B109">
+        <v>2851500</v>
+      </c>
+      <c r="C109">
+        <v>1574500</v>
+      </c>
+      <c r="D109">
+        <v>20100</v>
+      </c>
+      <c r="E109">
+        <v>47668924000</v>
+      </c>
+      <c r="F109">
+        <v>23821992000</v>
+      </c>
+      <c r="G109">
+        <v>231480000</v>
+      </c>
+      <c r="H109">
+        <v>4446100</v>
+      </c>
+      <c r="I109">
+        <v>71722396000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-22T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>7290484449000</v>
+      </c>
+      <c r="L109">
+        <v>447270400</v>
+      </c>
+      <c r="M109">
+        <v>-1277000</v>
+      </c>
+      <c r="N109">
+        <v>-23846932000</v>
+      </c>
+      <c r="O109">
+        <v>-1499700</v>
+      </c>
+      <c r="P109">
+        <v>24816200000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1671718680000</v>
+      </c>
+      <c r="B110">
+        <v>3144300</v>
+      </c>
+      <c r="C110">
+        <v>1172200</v>
+      </c>
+      <c r="D110">
+        <v>17000</v>
+      </c>
+      <c r="E110">
+        <v>49455443000</v>
+      </c>
+      <c r="F110">
+        <v>18843997000</v>
+      </c>
+      <c r="G110">
+        <v>408777000</v>
+      </c>
+      <c r="H110">
+        <v>4333500</v>
+      </c>
+      <c r="I110">
+        <v>68708217000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-22T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>7359192666000</v>
+      </c>
+      <c r="L110">
+        <v>451603900</v>
+      </c>
+      <c r="M110">
+        <v>-1972100</v>
+      </c>
+      <c r="N110">
+        <v>-30611446000</v>
+      </c>
+      <c r="O110">
+        <v>-3471800</v>
+      </c>
+      <c r="P110">
+        <v>-5795246000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1671718800000</v>
+      </c>
+      <c r="B111">
+        <v>1847200</v>
+      </c>
+      <c r="C111">
+        <v>1814600</v>
+      </c>
+      <c r="D111">
+        <v>39600</v>
+      </c>
+      <c r="E111">
+        <v>29125495000</v>
+      </c>
+      <c r="F111">
+        <v>32179494000</v>
+      </c>
+      <c r="G111">
+        <v>919184000</v>
+      </c>
+      <c r="H111">
+        <v>3701400</v>
+      </c>
+      <c r="I111">
+        <v>62224173000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-22T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>7421416839000</v>
+      </c>
+      <c r="L111">
+        <v>455305300</v>
+      </c>
+      <c r="M111">
+        <v>-32600</v>
+      </c>
+      <c r="N111">
+        <v>3053999000</v>
+      </c>
+      <c r="O111">
+        <v>-3504400</v>
+      </c>
+      <c r="P111">
+        <v>-2741247000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1671718920000</v>
+      </c>
+      <c r="B112">
+        <v>1609100</v>
+      </c>
+      <c r="C112">
+        <v>3397100</v>
+      </c>
+      <c r="D112">
+        <v>88000</v>
+      </c>
+      <c r="E112">
+        <v>25854276000</v>
+      </c>
+      <c r="F112">
+        <v>54119784000</v>
+      </c>
+      <c r="G112">
+        <v>1197176000</v>
+      </c>
+      <c r="H112">
+        <v>5094200</v>
+      </c>
+      <c r="I112">
+        <v>81171236000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-22T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>7502588075000</v>
+      </c>
+      <c r="L112">
+        <v>460399500</v>
+      </c>
+      <c r="M112">
+        <v>1788000</v>
+      </c>
+      <c r="N112">
+        <v>28265508000</v>
+      </c>
+      <c r="O112">
+        <v>-1716400</v>
+      </c>
+      <c r="P112">
+        <v>25524261000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1671719040000</v>
+      </c>
+      <c r="B113">
+        <v>1260500</v>
+      </c>
+      <c r="C113">
+        <v>3822800</v>
+      </c>
+      <c r="D113">
+        <v>39600</v>
+      </c>
+      <c r="E113">
+        <v>18382624000</v>
+      </c>
+      <c r="F113">
+        <v>66233397000</v>
+      </c>
+      <c r="G113">
+        <v>398407000</v>
+      </c>
+      <c r="H113">
+        <v>5122900</v>
+      </c>
+      <c r="I113">
+        <v>85014428000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-22T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>7587602503000</v>
+      </c>
+      <c r="L113">
+        <v>465522400</v>
+      </c>
+      <c r="M113">
+        <v>2562300</v>
+      </c>
+      <c r="N113">
+        <v>47850773000</v>
+      </c>
+      <c r="O113">
+        <v>845900</v>
+      </c>
+      <c r="P113">
+        <v>73375034000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1671719160000</v>
+      </c>
+      <c r="B114">
+        <v>2107700</v>
+      </c>
+      <c r="C114">
+        <v>3438800</v>
+      </c>
+      <c r="D114">
+        <v>8100</v>
+      </c>
+      <c r="E114">
+        <v>34420820000</v>
+      </c>
+      <c r="F114">
+        <v>67441090000</v>
+      </c>
+      <c r="G114">
+        <v>153826000</v>
+      </c>
+      <c r="H114">
+        <v>5554600</v>
+      </c>
+      <c r="I114">
+        <v>102015736000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-22T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>7689618239000</v>
+      </c>
+      <c r="L114">
+        <v>471077000</v>
+      </c>
+      <c r="M114">
+        <v>1331100</v>
+      </c>
+      <c r="N114">
+        <v>33020270000</v>
+      </c>
+      <c r="O114">
+        <v>2177000</v>
+      </c>
+      <c r="P114">
+        <v>106395304000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1671719280000</v>
+      </c>
+      <c r="B115">
+        <v>3141700</v>
+      </c>
+      <c r="C115">
+        <v>4362600</v>
+      </c>
+      <c r="D115">
+        <v>56900</v>
+      </c>
+      <c r="E115">
+        <v>43983640000</v>
+      </c>
+      <c r="F115">
+        <v>78298747000</v>
+      </c>
+      <c r="G115">
+        <v>1421194000</v>
+      </c>
+      <c r="H115">
+        <v>7561200</v>
+      </c>
+      <c r="I115">
+        <v>123703581000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-22T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>7813321820000</v>
+      </c>
+      <c r="L115">
+        <v>478638200</v>
+      </c>
+      <c r="M115">
+        <v>1220900</v>
+      </c>
+      <c r="N115">
+        <v>34315107000</v>
+      </c>
+      <c r="O115">
+        <v>3397900</v>
+      </c>
+      <c r="P115">
+        <v>140710411000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1671719400000</v>
+      </c>
+      <c r="B116">
+        <v>67600</v>
+      </c>
+      <c r="C116">
+        <v>19400</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>455535000</v>
+      </c>
+      <c r="F116">
+        <v>137973000</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>87000</v>
+      </c>
+      <c r="I116">
+        <v>593508000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-22T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>7813915328000</v>
+      </c>
+      <c r="L116">
+        <v>478725200</v>
+      </c>
+      <c r="M116">
+        <v>-48200</v>
+      </c>
+      <c r="N116">
+        <v>-317562000</v>
+      </c>
+      <c r="O116">
+        <v>3349700</v>
+      </c>
+      <c r="P116">
+        <v>140392849000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1671720000000</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>2000</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>20200000</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>2000</v>
+      </c>
+      <c r="I117">
+        <v>20200000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-22T14:40:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>7813935528000</v>
+      </c>
+      <c r="L117">
+        <v>478727200</v>
+      </c>
+      <c r="M117">
+        <v>2000</v>
+      </c>
+      <c r="N117">
+        <v>20200000</v>
+      </c>
+      <c r="O117">
+        <v>3351700</v>
+      </c>
+      <c r="P117">
+        <v>140413049000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1671720240000</v>
+      </c>
+      <c r="B118">
+        <v>1505600</v>
+      </c>
+      <c r="C118">
+        <v>2075000</v>
+      </c>
+      <c r="D118">
         <v>22700000</v>
       </c>
-      <c r="E50">
-        <v>25002360000</v>
-      </c>
-      <c r="F50">
-        <v>65041025000</v>
-      </c>
-      <c r="G50">
+      <c r="E118">
+        <v>24992360000</v>
+      </c>
+      <c r="F118">
+        <v>65013005000</v>
+      </c>
+      <c r="G118">
         <v>464176426000</v>
       </c>
-      <c r="H50">
-        <v>26284400</v>
-      </c>
-      <c r="I50">
-        <v>554219811000</v>
-      </c>
-      <c r="J50" t="str">
-        <v>2022-12-22T14:45:00.000Z</v>
-      </c>
-      <c r="K50">
+      <c r="H118">
+        <v>26280600</v>
+      </c>
+      <c r="I118">
+        <v>554181791000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2022-12-22T14:44:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>8368117319000</v>
+      </c>
+      <c r="L118">
+        <v>505007800</v>
+      </c>
+      <c r="M118">
+        <v>569400</v>
+      </c>
+      <c r="N118">
+        <v>40020645000</v>
+      </c>
+      <c r="O118">
+        <v>3921100</v>
+      </c>
+      <c r="P118">
+        <v>180433694000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1671720360000</v>
+      </c>
+      <c r="B119">
+        <v>600</v>
+      </c>
+      <c r="C119">
+        <v>200</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>6000000</v>
+      </c>
+      <c r="F119">
+        <v>2020000</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>800</v>
+      </c>
+      <c r="I119">
+        <v>8020000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2022-12-22T14:46:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>8368125339000</v>
+      </c>
+      <c r="L119">
+        <v>505008600</v>
+      </c>
+      <c r="M119">
+        <v>-400</v>
+      </c>
+      <c r="N119">
+        <v>-3980000</v>
+      </c>
+      <c r="O119">
+        <v>3920700</v>
+      </c>
+      <c r="P119">
+        <v>180429714000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1671720480000</v>
+      </c>
+      <c r="B120">
+        <v>400</v>
+      </c>
+      <c r="C120">
+        <v>2600</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>4000000</v>
+      </c>
+      <c r="F120">
+        <v>26000000</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>3000</v>
+      </c>
+      <c r="I120">
+        <v>30000000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2022-12-22T14:48:00.000Z</v>
+      </c>
+      <c r="K120">
         <v>8368155339000</v>
       </c>
-      <c r="L50">
+      <c r="L120">
         <v>505011600</v>
       </c>
-      <c r="M50">
-        <v>571200</v>
-      </c>
-      <c r="N50">
-        <v>40038665000</v>
-      </c>
-      <c r="O50">
+      <c r="M120">
+        <v>2200</v>
+      </c>
+      <c r="N120">
+        <v>22000000</v>
+      </c>
+      <c r="O120">
         <v>3922900</v>
       </c>
-      <c r="P50">
+      <c r="P120">
         <v>180451714000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P120"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221222/VNINDEX_HOSE_5p_20221222.xlsx
+++ b/name/vnindex/20221222/VNINDEX_HOSE_5p_20221222.xlsx
@@ -466,25 +466,25 @@
         <v>2926200</v>
       </c>
       <c r="E2">
-        <v>48191853000</v>
+        <v>35961295800</v>
       </c>
       <c r="F2">
-        <v>75843781000</v>
+        <v>57632910100</v>
       </c>
       <c r="G2">
-        <v>47323008000</v>
+        <v>46245986100</v>
       </c>
       <c r="H2">
         <v>10632800</v>
       </c>
       <c r="I2">
-        <v>171358642000</v>
+        <v>139840192000</v>
       </c>
       <c r="J2" t="str">
         <v>2022-12-22T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>171358642000</v>
+        <v>139840192000</v>
       </c>
       <c r="L2">
         <v>10632800</v>
@@ -493,13 +493,13 @@
         <v>1458200</v>
       </c>
       <c r="N2">
-        <v>27651928000</v>
+        <v>21671614300</v>
       </c>
       <c r="O2">
         <v>1458200</v>
       </c>
       <c r="P2">
-        <v>27651928000</v>
+        <v>21671614300</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         <v>113200</v>
       </c>
       <c r="E3">
-        <v>29528321000</v>
+        <v>25035318500</v>
       </c>
       <c r="F3">
-        <v>75293713000</v>
+        <v>67480334200</v>
       </c>
       <c r="G3">
-        <v>1609972000</v>
+        <v>1560022000</v>
       </c>
       <c r="H3">
         <v>6567500</v>
       </c>
       <c r="I3">
-        <v>106432006000</v>
+        <v>94075674700</v>
       </c>
       <c r="J3" t="str">
         <v>2022-12-22T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>277790648000</v>
+        <v>233915866700</v>
       </c>
       <c r="L3">
         <v>17200300</v>
@@ -543,13 +543,13 @@
         <v>2654300</v>
       </c>
       <c r="N3">
-        <v>45765392000</v>
+        <v>42445015700</v>
       </c>
       <c r="O3">
         <v>4112500</v>
       </c>
       <c r="P3">
-        <v>73417320000</v>
+        <v>64116630000</v>
       </c>
     </row>
     <row r="4">
@@ -566,10 +566,10 @@
         <v>71300</v>
       </c>
       <c r="E4">
-        <v>41149419000</v>
+        <v>38867802900</v>
       </c>
       <c r="F4">
-        <v>70338617000</v>
+        <v>52863010100</v>
       </c>
       <c r="G4">
         <v>1368931000</v>
@@ -578,13 +578,13 @@
         <v>7074300</v>
       </c>
       <c r="I4">
-        <v>112856967000</v>
+        <v>93099744000</v>
       </c>
       <c r="J4" t="str">
         <v>2022-12-22T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>390647615000</v>
+        <v>327015610700</v>
       </c>
       <c r="L4">
         <v>24274600</v>
@@ -593,13 +593,13 @@
         <v>2267400</v>
       </c>
       <c r="N4">
-        <v>29189198000</v>
+        <v>13995207200</v>
       </c>
       <c r="O4">
         <v>6379900</v>
       </c>
       <c r="P4">
-        <v>102606518000</v>
+        <v>78111837200</v>
       </c>
     </row>
     <row r="5">
@@ -616,25 +616,25 @@
         <v>55900</v>
       </c>
       <c r="E5">
-        <v>54758254000</v>
+        <v>44472150400</v>
       </c>
       <c r="F5">
-        <v>52315510000</v>
+        <v>43553580700</v>
       </c>
       <c r="G5">
-        <v>683159000</v>
+        <v>659782400</v>
       </c>
       <c r="H5">
         <v>5911600</v>
       </c>
       <c r="I5">
-        <v>107756923000</v>
+        <v>88685513500</v>
       </c>
       <c r="J5" t="str">
         <v>2022-12-22T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>498404538000</v>
+        <v>415701124200</v>
       </c>
       <c r="L5">
         <v>30186200</v>
@@ -643,13 +643,13 @@
         <v>183500</v>
       </c>
       <c r="N5">
-        <v>-2442744000</v>
+        <v>-918569700</v>
       </c>
       <c r="O5">
         <v>6563400</v>
       </c>
       <c r="P5">
-        <v>100163774000</v>
+        <v>77193267500</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>26500</v>
       </c>
       <c r="E6">
-        <v>66356793000</v>
+        <v>59744112300</v>
       </c>
       <c r="F6">
-        <v>34140584000</v>
+        <v>28470260000</v>
       </c>
       <c r="G6">
-        <v>480017000</v>
+        <v>478818200</v>
       </c>
       <c r="H6">
         <v>5694700</v>
       </c>
       <c r="I6">
-        <v>100977394000</v>
+        <v>88693190500</v>
       </c>
       <c r="J6" t="str">
         <v>2022-12-22T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>599381932000</v>
+        <v>504394314700</v>
       </c>
       <c r="L6">
         <v>35880900</v>
@@ -693,13 +693,13 @@
         <v>-1442600</v>
       </c>
       <c r="N6">
-        <v>-32216209000</v>
+        <v>-31273852300</v>
       </c>
       <c r="O6">
         <v>5120800</v>
       </c>
       <c r="P6">
-        <v>67947565000</v>
+        <v>45919415200</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>6500</v>
       </c>
       <c r="E7">
-        <v>55007772000</v>
+        <v>50308176300</v>
       </c>
       <c r="F7">
-        <v>21800667000</v>
+        <v>20478290700</v>
       </c>
       <c r="G7">
         <v>108149000</v>
@@ -728,13 +728,13 @@
         <v>5192500</v>
       </c>
       <c r="I7">
-        <v>76916588000</v>
+        <v>70894616000</v>
       </c>
       <c r="J7" t="str">
         <v>2022-12-22T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>676298520000</v>
+        <v>575288930700</v>
       </c>
       <c r="L7">
         <v>41073400</v>
@@ -743,13 +743,13 @@
         <v>-2546400</v>
       </c>
       <c r="N7">
-        <v>-33207105000</v>
+        <v>-29829885600</v>
       </c>
       <c r="O7">
         <v>2574400</v>
       </c>
       <c r="P7">
-        <v>34740460000</v>
+        <v>16089529600</v>
       </c>
     </row>
     <row r="8">
@@ -766,25 +766,25 @@
         <v>65000</v>
       </c>
       <c r="E8">
-        <v>45234777000</v>
+        <v>39525991500</v>
       </c>
       <c r="F8">
-        <v>17634733000</v>
+        <v>15738331300</v>
       </c>
       <c r="G8">
-        <v>1869006000</v>
+        <v>1843631400</v>
       </c>
       <c r="H8">
         <v>3945300</v>
       </c>
       <c r="I8">
-        <v>64738516000</v>
+        <v>57107954200</v>
       </c>
       <c r="J8" t="str">
         <v>2022-12-22T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>741037036000</v>
+        <v>632396884900</v>
       </c>
       <c r="L8">
         <v>45018700</v>
@@ -793,13 +793,13 @@
         <v>-1729300</v>
       </c>
       <c r="N8">
-        <v>-27600044000</v>
+        <v>-23787660200</v>
       </c>
       <c r="O8">
         <v>845100</v>
       </c>
       <c r="P8">
-        <v>7140416000</v>
+        <v>-7698130600</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         <v>19500</v>
       </c>
       <c r="E9">
-        <v>39169275000</v>
+        <v>27816639000</v>
       </c>
       <c r="F9">
-        <v>25793766000</v>
+        <v>24208952400</v>
       </c>
       <c r="G9">
         <v>308370000</v>
@@ -828,13 +828,13 @@
         <v>3911100</v>
       </c>
       <c r="I9">
-        <v>65271411000</v>
+        <v>52333961400</v>
       </c>
       <c r="J9" t="str">
         <v>2022-12-22T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>806308447000</v>
+        <v>684730846300</v>
       </c>
       <c r="L9">
         <v>48929800</v>
@@ -843,13 +843,13 @@
         <v>-831600</v>
       </c>
       <c r="N9">
-        <v>-13375509000</v>
+        <v>-3607686600</v>
       </c>
       <c r="O9">
         <v>13500</v>
       </c>
       <c r="P9">
-        <v>-6235093000</v>
+        <v>-11305817200</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>7400</v>
       </c>
       <c r="E10">
-        <v>34999176000</v>
+        <v>32677100400</v>
       </c>
       <c r="F10">
-        <v>24641255000</v>
+        <v>21998200700</v>
       </c>
       <c r="G10">
         <v>91101000</v>
@@ -878,13 +878,13 @@
         <v>3388900</v>
       </c>
       <c r="I10">
-        <v>59731532000</v>
+        <v>54766402100</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-22T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>866039979000</v>
+        <v>739497248400</v>
       </c>
       <c r="L10">
         <v>52318700</v>
@@ -893,13 +893,13 @@
         <v>-448500</v>
       </c>
       <c r="N10">
-        <v>-10357921000</v>
+        <v>-10678899700</v>
       </c>
       <c r="O10">
         <v>-435000</v>
       </c>
       <c r="P10">
-        <v>-16593014000</v>
+        <v>-21984716900</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>23200</v>
       </c>
       <c r="E11">
-        <v>29801535000</v>
+        <v>27074864400</v>
       </c>
       <c r="F11">
-        <v>19655264000</v>
+        <v>17380640900</v>
       </c>
       <c r="G11">
         <v>171201000</v>
@@ -928,13 +928,13 @@
         <v>2965400</v>
       </c>
       <c r="I11">
-        <v>49628000000</v>
+        <v>44626706300</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-22T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>915667979000</v>
+        <v>784123954700</v>
       </c>
       <c r="L11">
         <v>55284100</v>
@@ -943,13 +943,13 @@
         <v>-363000</v>
       </c>
       <c r="N11">
-        <v>-10146271000</v>
+        <v>-9694223500</v>
       </c>
       <c r="O11">
         <v>-798000</v>
       </c>
       <c r="P11">
-        <v>-26739285000</v>
+        <v>-31678940400</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>14600</v>
       </c>
       <c r="E12">
-        <v>24276369000</v>
+        <v>21399548700</v>
       </c>
       <c r="F12">
-        <v>21166687000</v>
+        <v>20298256300</v>
       </c>
       <c r="G12">
-        <v>451402000</v>
+        <v>444409000</v>
       </c>
       <c r="H12">
         <v>2992700</v>
       </c>
       <c r="I12">
-        <v>45894458000</v>
+        <v>42142214000</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-22T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>961562437000</v>
+        <v>826266168700</v>
       </c>
       <c r="L12">
         <v>58276800</v>
@@ -993,13 +993,13 @@
         <v>-178500</v>
       </c>
       <c r="N12">
-        <v>-3109682000</v>
+        <v>-1101292400</v>
       </c>
       <c r="O12">
         <v>-976500</v>
       </c>
       <c r="P12">
-        <v>-29848967000</v>
+        <v>-32780232800</v>
       </c>
     </row>
     <row r="13">
@@ -1016,25 +1016,25 @@
         <v>19100</v>
       </c>
       <c r="E13">
-        <v>25035694000</v>
+        <v>23445985300</v>
       </c>
       <c r="F13">
-        <v>21901621000</v>
+        <v>17845581100</v>
       </c>
       <c r="G13">
-        <v>292162000</v>
+        <v>225229000</v>
       </c>
       <c r="H13">
         <v>3048200</v>
       </c>
       <c r="I13">
-        <v>47229477000</v>
+        <v>41516795400</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-22T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1008791914000</v>
+        <v>867782964100</v>
       </c>
       <c r="L13">
         <v>61325000</v>
@@ -1043,13 +1043,13 @@
         <v>-428300</v>
       </c>
       <c r="N13">
-        <v>-3134073000</v>
+        <v>-5600404200</v>
       </c>
       <c r="O13">
         <v>-1404800</v>
       </c>
       <c r="P13">
-        <v>-32983040000</v>
+        <v>-38380637000</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>12500</v>
       </c>
       <c r="E14">
-        <v>23308557000</v>
+        <v>20445722700</v>
       </c>
       <c r="F14">
-        <v>26115218000</v>
+        <v>22272464600</v>
       </c>
       <c r="G14">
         <v>84839000</v>
@@ -1078,13 +1078,13 @@
         <v>3155100</v>
       </c>
       <c r="I14">
-        <v>49508614000</v>
+        <v>42803026300</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-22T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1058300528000</v>
+        <v>910585990400</v>
       </c>
       <c r="L14">
         <v>64480100</v>
@@ -1093,13 +1093,13 @@
         <v>147800</v>
       </c>
       <c r="N14">
-        <v>2806661000</v>
+        <v>1826741900</v>
       </c>
       <c r="O14">
         <v>-1257000</v>
       </c>
       <c r="P14">
-        <v>-30176379000</v>
+        <v>-36553895100</v>
       </c>
     </row>
     <row r="15">
@@ -1116,25 +1116,25 @@
         <v>14800</v>
       </c>
       <c r="E15">
-        <v>26051914000</v>
+        <v>24217750000</v>
       </c>
       <c r="F15">
-        <v>14338646000</v>
+        <v>13404381200</v>
       </c>
       <c r="G15">
-        <v>96324000</v>
+        <v>75345000</v>
       </c>
       <c r="H15">
         <v>2747100</v>
       </c>
       <c r="I15">
-        <v>40486884000</v>
+        <v>37697476200</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-22T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1098787412000</v>
+        <v>948283466600</v>
       </c>
       <c r="L15">
         <v>67227200</v>
@@ -1143,13 +1143,13 @@
         <v>-670700</v>
       </c>
       <c r="N15">
-        <v>-11713268000</v>
+        <v>-10813368800</v>
       </c>
       <c r="O15">
         <v>-1927700</v>
       </c>
       <c r="P15">
-        <v>-41889647000</v>
+        <v>-47367263900</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>3200</v>
       </c>
       <c r="E16">
-        <v>23853656000</v>
+        <v>21761050700</v>
       </c>
       <c r="F16">
-        <v>26899332000</v>
+        <v>26286645300</v>
       </c>
       <c r="G16">
-        <v>129143000</v>
+        <v>69203000</v>
       </c>
       <c r="H16">
         <v>3017700</v>
       </c>
       <c r="I16">
-        <v>50882131000</v>
+        <v>48116899000</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-22T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1149669543000</v>
+        <v>996400365600</v>
       </c>
       <c r="L16">
         <v>70244900</v>
@@ -1193,13 +1193,13 @@
         <v>152500</v>
       </c>
       <c r="N16">
-        <v>3045676000</v>
+        <v>4525594600</v>
       </c>
       <c r="O16">
         <v>-1775200</v>
       </c>
       <c r="P16">
-        <v>-38843971000</v>
+        <v>-42841669300</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>5700</v>
       </c>
       <c r="E17">
-        <v>22758475000</v>
+        <v>22027406800</v>
       </c>
       <c r="F17">
-        <v>27391422000</v>
+        <v>25317198300</v>
       </c>
       <c r="G17">
         <v>127416000</v>
@@ -1228,13 +1228,13 @@
         <v>2987800</v>
       </c>
       <c r="I17">
-        <v>50277313000</v>
+        <v>47472021100</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-22T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1199946856000</v>
+        <v>1043872386700</v>
       </c>
       <c r="L17">
         <v>73232700</v>
@@ -1243,13 +1243,13 @@
         <v>261700</v>
       </c>
       <c r="N17">
-        <v>4632947000</v>
+        <v>3289791500</v>
       </c>
       <c r="O17">
         <v>-1513500</v>
       </c>
       <c r="P17">
-        <v>-34211024000</v>
+        <v>-39551877800</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>2800</v>
       </c>
       <c r="E18">
-        <v>20032659000</v>
+        <v>19750741200</v>
       </c>
       <c r="F18">
-        <v>40525907000</v>
+        <v>38012922500</v>
       </c>
       <c r="G18">
         <v>80271000</v>
@@ -1278,13 +1278,13 @@
         <v>3776100</v>
       </c>
       <c r="I18">
-        <v>60638837000</v>
+        <v>57843934700</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-22T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1260585693000</v>
+        <v>1101716321400</v>
       </c>
       <c r="L18">
         <v>77008800</v>
@@ -1293,13 +1293,13 @@
         <v>1381700</v>
       </c>
       <c r="N18">
-        <v>20493248000</v>
+        <v>18262181300</v>
       </c>
       <c r="O18">
         <v>-131800</v>
       </c>
       <c r="P18">
-        <v>-13717776000</v>
+        <v>-21289696500</v>
       </c>
     </row>
     <row r="19">
@@ -1316,25 +1316,25 @@
         <v>154400</v>
       </c>
       <c r="E19">
-        <v>19246037000</v>
+        <v>18617965700</v>
       </c>
       <c r="F19">
-        <v>88845871000</v>
+        <v>87327291100</v>
       </c>
       <c r="G19">
-        <v>2626209000</v>
+        <v>2540694600</v>
       </c>
       <c r="H19">
         <v>6730000</v>
       </c>
       <c r="I19">
-        <v>110718117000</v>
+        <v>108485951400</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-22T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1371303810000</v>
+        <v>1210202272800</v>
       </c>
       <c r="L19">
         <v>83738800</v>
@@ -1343,13 +1343,13 @@
         <v>3758000</v>
       </c>
       <c r="N19">
-        <v>69599834000</v>
+        <v>68709325400</v>
       </c>
       <c r="O19">
         <v>3626200</v>
       </c>
       <c r="P19">
-        <v>55882058000</v>
+        <v>47419628900</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>2300</v>
       </c>
       <c r="E20">
-        <v>17692186000</v>
+        <v>16087792000</v>
       </c>
       <c r="F20">
-        <v>59758265000</v>
+        <v>54449079500</v>
       </c>
       <c r="G20">
         <v>65155000</v>
@@ -1378,13 +1378,13 @@
         <v>4406100</v>
       </c>
       <c r="I20">
-        <v>77515606000</v>
+        <v>70602026500</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-22T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1448819416000</v>
+        <v>1280804299300</v>
       </c>
       <c r="L20">
         <v>88144900</v>
@@ -1393,13 +1393,13 @@
         <v>2355400</v>
       </c>
       <c r="N20">
-        <v>42066079000</v>
+        <v>38361287500</v>
       </c>
       <c r="O20">
         <v>5981600</v>
       </c>
       <c r="P20">
-        <v>97948137000</v>
+        <v>85780916400</v>
       </c>
     </row>
     <row r="21">
@@ -1416,25 +1416,25 @@
         <v>4900</v>
       </c>
       <c r="E21">
-        <v>28883825000</v>
+        <v>28117791800</v>
       </c>
       <c r="F21">
-        <v>43007658000</v>
+        <v>41785581300</v>
       </c>
       <c r="G21">
-        <v>104754000</v>
+        <v>51707100</v>
       </c>
       <c r="H21">
         <v>4639800</v>
       </c>
       <c r="I21">
-        <v>71996237000</v>
+        <v>69955080200</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-22T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1520815653000</v>
+        <v>1350759379500</v>
       </c>
       <c r="L21">
         <v>92784700</v>
@@ -1443,13 +1443,13 @@
         <v>1281900</v>
       </c>
       <c r="N21">
-        <v>14123833000</v>
+        <v>13667789500</v>
       </c>
       <c r="O21">
         <v>7263500</v>
       </c>
       <c r="P21">
-        <v>112071970000</v>
+        <v>99448705900</v>
       </c>
     </row>
     <row r="22">
@@ -1466,25 +1466,25 @@
         <v>11000</v>
       </c>
       <c r="E22">
-        <v>19614388000</v>
+        <v>17031473500</v>
       </c>
       <c r="F22">
-        <v>42995538000</v>
+        <v>36513926100</v>
       </c>
       <c r="G22">
-        <v>188622000</v>
+        <v>104606100</v>
       </c>
       <c r="H22">
         <v>3624400</v>
       </c>
       <c r="I22">
-        <v>62798548000</v>
+        <v>53650005700</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-22T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1583614201000</v>
+        <v>1404409385200</v>
       </c>
       <c r="L22">
         <v>96409100</v>
@@ -1493,13 +1493,13 @@
         <v>1188400</v>
       </c>
       <c r="N22">
-        <v>23381150000</v>
+        <v>19482452600</v>
       </c>
       <c r="O22">
         <v>8451900</v>
       </c>
       <c r="P22">
-        <v>135453120000</v>
+        <v>118931158500</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>2900</v>
       </c>
       <c r="E23">
-        <v>13056865000</v>
+        <v>11636886400</v>
       </c>
       <c r="F23">
-        <v>45991383000</v>
+        <v>38406175800</v>
       </c>
       <c r="G23">
         <v>49160000</v>
@@ -1528,13 +1528,13 @@
         <v>3451900</v>
       </c>
       <c r="I23">
-        <v>59097408000</v>
+        <v>50092222200</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-22T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1642711609000</v>
+        <v>1454501607400</v>
       </c>
       <c r="L23">
         <v>99861000</v>
@@ -1543,13 +1543,13 @@
         <v>2100800</v>
       </c>
       <c r="N23">
-        <v>32934518000</v>
+        <v>26769289400</v>
       </c>
       <c r="O23">
         <v>10552700</v>
       </c>
       <c r="P23">
-        <v>168387638000</v>
+        <v>145700447900</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>12200</v>
       </c>
       <c r="E24">
-        <v>16253925000</v>
+        <v>15883196100</v>
       </c>
       <c r="F24">
-        <v>35710501000</v>
+        <v>30122294800</v>
       </c>
       <c r="G24">
         <v>178556000</v>
@@ -1578,13 +1578,13 @@
         <v>3068900</v>
       </c>
       <c r="I24">
-        <v>52142982000</v>
+        <v>46184046900</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-22T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1694854591000</v>
+        <v>1500685654300</v>
       </c>
       <c r="L24">
         <v>102929900</v>
@@ -1593,13 +1593,13 @@
         <v>1102500</v>
       </c>
       <c r="N24">
-        <v>19456576000</v>
+        <v>14239098700</v>
       </c>
       <c r="O24">
         <v>11655200</v>
       </c>
       <c r="P24">
-        <v>187844214000</v>
+        <v>159939546600</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>3100</v>
       </c>
       <c r="E25">
-        <v>23292179000</v>
+        <v>22631140700</v>
       </c>
       <c r="F25">
-        <v>64587117000</v>
+        <v>57982528200</v>
       </c>
       <c r="G25">
-        <v>81340000</v>
+        <v>72948400</v>
       </c>
       <c r="H25">
         <v>4808900</v>
       </c>
       <c r="I25">
-        <v>87960636000</v>
+        <v>80686617300</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-22T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1782815227000</v>
+        <v>1581372271600</v>
       </c>
       <c r="L25">
         <v>107738800</v>
@@ -1643,13 +1643,13 @@
         <v>2077600</v>
       </c>
       <c r="N25">
-        <v>41294938000</v>
+        <v>35351387500</v>
       </c>
       <c r="O25">
         <v>13732800</v>
       </c>
       <c r="P25">
-        <v>229139152000</v>
+        <v>195290934100</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>28100</v>
       </c>
       <c r="E26">
-        <v>19912754000</v>
+        <v>17148021500</v>
       </c>
       <c r="F26">
-        <v>54125927000</v>
+        <v>45778482800</v>
       </c>
       <c r="G26">
         <v>563725000</v>
@@ -1678,13 +1678,13 @@
         <v>4268200</v>
       </c>
       <c r="I26">
-        <v>74602406000</v>
+        <v>63490229300</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-22T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1857417633000</v>
+        <v>1644862500900</v>
       </c>
       <c r="L26">
         <v>112007000</v>
@@ -1693,13 +1693,13 @@
         <v>1893900</v>
       </c>
       <c r="N26">
-        <v>34213173000</v>
+        <v>28630461300</v>
       </c>
       <c r="O26">
         <v>15626700</v>
       </c>
       <c r="P26">
-        <v>263352325000</v>
+        <v>223921395400</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>19900</v>
       </c>
       <c r="E27">
-        <v>21584252000</v>
+        <v>20766071000</v>
       </c>
       <c r="F27">
-        <v>55272232000</v>
+        <v>50874434200</v>
       </c>
       <c r="G27">
         <v>491099000</v>
@@ -1728,13 +1728,13 @@
         <v>4230900</v>
       </c>
       <c r="I27">
-        <v>77347583000</v>
+        <v>72131604200</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-22T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1934765216000</v>
+        <v>1716994105100</v>
       </c>
       <c r="L27">
         <v>116237900</v>
@@ -1743,13 +1743,13 @@
         <v>1435200</v>
       </c>
       <c r="N27">
-        <v>33687980000</v>
+        <v>30108363200</v>
       </c>
       <c r="O27">
         <v>17061900</v>
       </c>
       <c r="P27">
-        <v>297040305000</v>
+        <v>254029758600</v>
       </c>
     </row>
     <row r="28">
@@ -1766,25 +1766,25 @@
         <v>41000</v>
       </c>
       <c r="E28">
-        <v>27345983000</v>
+        <v>26246084000</v>
       </c>
       <c r="F28">
-        <v>52261215000</v>
+        <v>48315664500</v>
       </c>
       <c r="G28">
-        <v>630390000</v>
+        <v>617403000</v>
       </c>
       <c r="H28">
         <v>4492900</v>
       </c>
       <c r="I28">
-        <v>80237588000</v>
+        <v>75179151500</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-22T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2015002804000</v>
+        <v>1792173256600</v>
       </c>
       <c r="L28">
         <v>120730800</v>
@@ -1793,13 +1793,13 @@
         <v>1704300</v>
       </c>
       <c r="N28">
-        <v>24915232000</v>
+        <v>22069580500</v>
       </c>
       <c r="O28">
         <v>18766200</v>
       </c>
       <c r="P28">
-        <v>321955537000</v>
+        <v>276099339100</v>
       </c>
     </row>
     <row r="29">
@@ -1816,25 +1816,25 @@
         <v>35600</v>
       </c>
       <c r="E29">
-        <v>35532371000</v>
+        <v>34544559800</v>
       </c>
       <c r="F29">
-        <v>98858859000</v>
+        <v>93096427200</v>
       </c>
       <c r="G29">
-        <v>414135000</v>
+        <v>352596600</v>
       </c>
       <c r="H29">
         <v>7940100</v>
       </c>
       <c r="I29">
-        <v>134805365000</v>
+        <v>127993583600</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-22T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2149808169000</v>
+        <v>1920166840200</v>
       </c>
       <c r="L29">
         <v>128670900</v>
@@ -1843,13 +1843,13 @@
         <v>3469900</v>
       </c>
       <c r="N29">
-        <v>63326488000</v>
+        <v>58551867400</v>
       </c>
       <c r="O29">
         <v>22236100</v>
       </c>
       <c r="P29">
-        <v>385282025000</v>
+        <v>334651206500</v>
       </c>
     </row>
     <row r="30">
@@ -1866,25 +1866,25 @@
         <v>13600</v>
       </c>
       <c r="E30">
-        <v>16552005000</v>
+        <v>16094762700</v>
       </c>
       <c r="F30">
-        <v>111774277000</v>
+        <v>102561099400</v>
       </c>
       <c r="G30">
-        <v>427348000</v>
+        <v>219556000</v>
       </c>
       <c r="H30">
         <v>7325400</v>
       </c>
       <c r="I30">
-        <v>128753630000</v>
+        <v>118875418100</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-22T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2278561799000</v>
+        <v>2039042258300</v>
       </c>
       <c r="L30">
         <v>135996300</v>
@@ -1893,13 +1893,13 @@
         <v>5389400</v>
       </c>
       <c r="N30">
-        <v>95222272000</v>
+        <v>86466336700</v>
       </c>
       <c r="O30">
         <v>27625500</v>
       </c>
       <c r="P30">
-        <v>480504297000</v>
+        <v>421117543200</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>5500</v>
       </c>
       <c r="E31">
-        <v>56005640000</v>
+        <v>53368979300</v>
       </c>
       <c r="F31">
-        <v>115418698000</v>
+        <v>87405739000</v>
       </c>
       <c r="G31">
         <v>259515000</v>
@@ -1928,13 +1928,13 @@
         <v>9207900</v>
       </c>
       <c r="I31">
-        <v>171683853000</v>
+        <v>141034233300</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-22T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>2450245652000</v>
+        <v>2180076491600</v>
       </c>
       <c r="L31">
         <v>145204200</v>
@@ -1943,13 +1943,13 @@
         <v>3355400</v>
       </c>
       <c r="N31">
-        <v>59413058000</v>
+        <v>34036759700</v>
       </c>
       <c r="O31">
         <v>30980900</v>
       </c>
       <c r="P31">
-        <v>539917355000</v>
+        <v>455154302900</v>
       </c>
     </row>
     <row r="32">
@@ -1966,25 +1966,25 @@
         <v>27400</v>
       </c>
       <c r="E32">
-        <v>67984442000</v>
+        <v>62161670600</v>
       </c>
       <c r="F32">
-        <v>41223899000</v>
+        <v>37761564800</v>
       </c>
       <c r="G32">
-        <v>435451000</v>
+        <v>367918600</v>
       </c>
       <c r="H32">
         <v>5767900</v>
       </c>
       <c r="I32">
-        <v>109643792000</v>
+        <v>100291154000</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-22T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>2559889444000</v>
+        <v>2280367645600</v>
       </c>
       <c r="L32">
         <v>150972100</v>
@@ -1993,13 +1993,13 @@
         <v>-1190300</v>
       </c>
       <c r="N32">
-        <v>-26760543000</v>
+        <v>-24400105800</v>
       </c>
       <c r="O32">
         <v>29790600</v>
       </c>
       <c r="P32">
-        <v>513156812000</v>
+        <v>430754197100</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>18500</v>
       </c>
       <c r="E33">
-        <v>53461326000</v>
+        <v>47612580600</v>
       </c>
       <c r="F33">
-        <v>21436480000</v>
+        <v>20088829000</v>
       </c>
       <c r="G33">
         <v>300443000</v>
@@ -2028,13 +2028,13 @@
         <v>4322300</v>
       </c>
       <c r="I33">
-        <v>75198249000</v>
+        <v>68001852600</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-22T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>2635087693000</v>
+        <v>2348369498200</v>
       </c>
       <c r="L33">
         <v>155294400</v>
@@ -2043,13 +2043,13 @@
         <v>-1813400</v>
       </c>
       <c r="N33">
-        <v>-32024846000</v>
+        <v>-27523751600</v>
       </c>
       <c r="O33">
         <v>27977200</v>
       </c>
       <c r="P33">
-        <v>481131966000</v>
+        <v>403230445500</v>
       </c>
     </row>
     <row r="34">
@@ -2066,25 +2066,25 @@
         <v>31500</v>
       </c>
       <c r="E34">
-        <v>26589121000</v>
+        <v>25897313500</v>
       </c>
       <c r="F34">
-        <v>23313929000</v>
+        <v>22179364700</v>
       </c>
       <c r="G34">
-        <v>509872000</v>
+        <v>478703200</v>
       </c>
       <c r="H34">
         <v>2811300</v>
       </c>
       <c r="I34">
-        <v>50412922000</v>
+        <v>48555381400</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-22T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>2685500615000</v>
+        <v>2396924879600</v>
       </c>
       <c r="L34">
         <v>158105700</v>
@@ -2093,13 +2093,13 @@
         <v>-271000</v>
       </c>
       <c r="N34">
-        <v>-3275192000</v>
+        <v>-3717948800</v>
       </c>
       <c r="O34">
         <v>27706200</v>
       </c>
       <c r="P34">
-        <v>477856774000</v>
+        <v>399512496700</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>14600</v>
       </c>
       <c r="E35">
-        <v>42667048000</v>
+        <v>39150368200</v>
       </c>
       <c r="F35">
-        <v>30600364000</v>
+        <v>29056809100</v>
       </c>
       <c r="G35">
-        <v>543143000</v>
+        <v>510775400</v>
       </c>
       <c r="H35">
         <v>3332300</v>
       </c>
       <c r="I35">
-        <v>73810555000</v>
+        <v>68717952700</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-22T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>2759311170000</v>
+        <v>2465642832300</v>
       </c>
       <c r="L35">
         <v>161438000</v>
@@ -2143,13 +2143,13 @@
         <v>-147500</v>
       </c>
       <c r="N35">
-        <v>-12066684000</v>
+        <v>-10093559100</v>
       </c>
       <c r="O35">
         <v>27558700</v>
       </c>
       <c r="P35">
-        <v>465790090000</v>
+        <v>389418937600</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>6500</v>
       </c>
       <c r="E36">
-        <v>67231790000</v>
+        <v>61998628400</v>
       </c>
       <c r="F36">
-        <v>20092705000</v>
+        <v>19943854000</v>
       </c>
       <c r="G36">
         <v>238816000</v>
@@ -2178,13 +2178,13 @@
         <v>4540000</v>
       </c>
       <c r="I36">
-        <v>87563311000</v>
+        <v>82181298400</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-22T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>2846874481000</v>
+        <v>2547824130700</v>
       </c>
       <c r="L36">
         <v>165978000</v>
@@ -2193,13 +2193,13 @@
         <v>-2400500</v>
       </c>
       <c r="N36">
-        <v>-47139085000</v>
+        <v>-42054774400</v>
       </c>
       <c r="O36">
         <v>25158200</v>
       </c>
       <c r="P36">
-        <v>418651005000</v>
+        <v>347364163200</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>36700</v>
       </c>
       <c r="E37">
-        <v>33297847000</v>
+        <v>30588559000</v>
       </c>
       <c r="F37">
-        <v>14621690000</v>
+        <v>13115198000</v>
       </c>
       <c r="G37">
         <v>539788000</v>
@@ -2228,13 +2228,13 @@
         <v>2748100</v>
       </c>
       <c r="I37">
-        <v>48459325000</v>
+        <v>44243545000</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-22T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>2895333806000</v>
+        <v>2592067675700</v>
       </c>
       <c r="L37">
         <v>168726100</v>
@@ -2243,13 +2243,13 @@
         <v>-1174000</v>
       </c>
       <c r="N37">
-        <v>-18676157000</v>
+        <v>-17473361000</v>
       </c>
       <c r="O37">
         <v>23984200</v>
       </c>
       <c r="P37">
-        <v>399974848000</v>
+        <v>329890802200</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>9600</v>
       </c>
       <c r="E38">
-        <v>29157972000</v>
+        <v>26590941600</v>
       </c>
       <c r="F38">
-        <v>15838154000</v>
+        <v>15499892600</v>
       </c>
       <c r="G38">
         <v>371370000</v>
@@ -2278,13 +2278,13 @@
         <v>2679700</v>
       </c>
       <c r="I38">
-        <v>45367496000</v>
+        <v>42462204200</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-22T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>2940701302000</v>
+        <v>2634529879900</v>
       </c>
       <c r="L38">
         <v>171405800</v>
@@ -2293,13 +2293,13 @@
         <v>-975500</v>
       </c>
       <c r="N38">
-        <v>-13319818000</v>
+        <v>-11091049000</v>
       </c>
       <c r="O38">
         <v>23008700</v>
       </c>
       <c r="P38">
-        <v>386655030000</v>
+        <v>318799753200</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>62700</v>
       </c>
       <c r="E39">
-        <v>24700744000</v>
+        <v>21331117000</v>
       </c>
       <c r="F39">
-        <v>13200051000</v>
+        <v>12820331100</v>
       </c>
       <c r="G39">
         <v>303954000</v>
@@ -2328,13 +2328,13 @@
         <v>2407800</v>
       </c>
       <c r="I39">
-        <v>38204749000</v>
+        <v>34455402100</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-22T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>2978906051000</v>
+        <v>2668985282000</v>
       </c>
       <c r="L39">
         <v>173813600</v>
@@ -2343,13 +2343,13 @@
         <v>-931700</v>
       </c>
       <c r="N39">
-        <v>-11500693000</v>
+        <v>-8510785900</v>
       </c>
       <c r="O39">
         <v>22077000</v>
       </c>
       <c r="P39">
-        <v>375154337000</v>
+        <v>310288967300</v>
       </c>
     </row>
     <row r="40">
@@ -2366,25 +2366,25 @@
         <v>4700</v>
       </c>
       <c r="E40">
-        <v>17928533000</v>
+        <v>16029533900</v>
       </c>
       <c r="F40">
-        <v>9364099000</v>
+        <v>8237127100</v>
       </c>
       <c r="G40">
-        <v>126994000</v>
+        <v>24596500</v>
       </c>
       <c r="H40">
         <v>1709800</v>
       </c>
       <c r="I40">
-        <v>27419626000</v>
+        <v>24291257500</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-22T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>3006325677000</v>
+        <v>2693276539500</v>
       </c>
       <c r="L40">
         <v>175523400</v>
@@ -2393,13 +2393,13 @@
         <v>-535900</v>
       </c>
       <c r="N40">
-        <v>-8564434000</v>
+        <v>-7792406800</v>
       </c>
       <c r="O40">
         <v>21541100</v>
       </c>
       <c r="P40">
-        <v>366589903000</v>
+        <v>302496560500</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>3700</v>
       </c>
       <c r="E41">
-        <v>25154081000</v>
+        <v>23257479500</v>
       </c>
       <c r="F41">
-        <v>18724338000</v>
+        <v>17696267100</v>
       </c>
       <c r="G41">
         <v>78115000</v>
@@ -2428,13 +2428,13 @@
         <v>2590200</v>
       </c>
       <c r="I41">
-        <v>43956534000</v>
+        <v>41031861600</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-22T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>3050282211000</v>
+        <v>2734308401100</v>
       </c>
       <c r="L41">
         <v>178113600</v>
@@ -2443,13 +2443,13 @@
         <v>-540100</v>
       </c>
       <c r="N41">
-        <v>-6429743000</v>
+        <v>-5561212400</v>
       </c>
       <c r="O41">
         <v>21001000</v>
       </c>
       <c r="P41">
-        <v>360160160000</v>
+        <v>296935348100</v>
       </c>
     </row>
     <row r="42">
@@ -2466,25 +2466,25 @@
         <v>7400</v>
       </c>
       <c r="E42">
-        <v>24024231000</v>
+        <v>21006451800</v>
       </c>
       <c r="F42">
-        <v>18547284000</v>
+        <v>17676855300</v>
       </c>
       <c r="G42">
-        <v>244425000</v>
+        <v>67602000</v>
       </c>
       <c r="H42">
         <v>2516900</v>
       </c>
       <c r="I42">
-        <v>42815940000</v>
+        <v>38750909100</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-22T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>3093098151000</v>
+        <v>2773059310200</v>
       </c>
       <c r="L42">
         <v>180630500</v>
@@ -2493,13 +2493,13 @@
         <v>-78900</v>
       </c>
       <c r="N42">
-        <v>-5476947000</v>
+        <v>-3329596500</v>
       </c>
       <c r="O42">
         <v>20922100</v>
       </c>
       <c r="P42">
-        <v>354683213000</v>
+        <v>293605751600</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>5500</v>
       </c>
       <c r="E43">
-        <v>21898966000</v>
+        <v>21090175600</v>
       </c>
       <c r="F43">
-        <v>20381926000</v>
+        <v>18717492100</v>
       </c>
       <c r="G43">
         <v>57598000</v>
@@ -2528,13 +2528,13 @@
         <v>2598500</v>
       </c>
       <c r="I43">
-        <v>42338490000</v>
+        <v>39865265700</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-22T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>3135436641000</v>
+        <v>2812924575900</v>
       </c>
       <c r="L43">
         <v>183229000</v>
@@ -2543,13 +2543,13 @@
         <v>-66000</v>
       </c>
       <c r="N43">
-        <v>-1517040000</v>
+        <v>-2372683500</v>
       </c>
       <c r="O43">
         <v>20856100</v>
       </c>
       <c r="P43">
-        <v>353166173000</v>
+        <v>291233068100</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>11300</v>
       </c>
       <c r="E44">
-        <v>38762221000</v>
+        <v>36408177400</v>
       </c>
       <c r="F44">
-        <v>15316414000</v>
+        <v>14387743600</v>
       </c>
       <c r="G44">
         <v>306073000</v>
@@ -2578,13 +2578,13 @@
         <v>3065700</v>
       </c>
       <c r="I44">
-        <v>54384708000</v>
+        <v>51101994000</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-22T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>3189821349000</v>
+        <v>2864026569900</v>
       </c>
       <c r="L44">
         <v>186294700</v>
@@ -2593,13 +2593,13 @@
         <v>-1037000</v>
       </c>
       <c r="N44">
-        <v>-23445807000</v>
+        <v>-22020433800</v>
       </c>
       <c r="O44">
         <v>19819100</v>
       </c>
       <c r="P44">
-        <v>329720366000</v>
+        <v>269212634300</v>
       </c>
     </row>
     <row r="45">
@@ -2616,25 +2616,25 @@
         <v>2300</v>
       </c>
       <c r="E45">
-        <v>30356255000</v>
+        <v>28845866900</v>
       </c>
       <c r="F45">
-        <v>12126340000</v>
+        <v>10263005200</v>
       </c>
       <c r="G45">
-        <v>33000000</v>
+        <v>31901100</v>
       </c>
       <c r="H45">
         <v>2592000</v>
       </c>
       <c r="I45">
-        <v>42515595000</v>
+        <v>39140773200</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-22T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>3232336944000</v>
+        <v>2903167343100</v>
       </c>
       <c r="L45">
         <v>188886700</v>
@@ -2643,13 +2643,13 @@
         <v>-1161900</v>
       </c>
       <c r="N45">
-        <v>-18229915000</v>
+        <v>-18582861700</v>
       </c>
       <c r="O45">
         <v>18657200</v>
       </c>
       <c r="P45">
-        <v>311490451000</v>
+        <v>250629772600</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>13000</v>
       </c>
       <c r="E46">
-        <v>21230759000</v>
+        <v>19433258300</v>
       </c>
       <c r="F46">
-        <v>13172750000</v>
+        <v>12191931800</v>
       </c>
       <c r="G46">
         <v>102060000</v>
@@ -2678,13 +2678,13 @@
         <v>2182600</v>
       </c>
       <c r="I46">
-        <v>34505569000</v>
+        <v>31727250100</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-22T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>3266842513000</v>
+        <v>2934894593200</v>
       </c>
       <c r="L46">
         <v>191069300</v>
@@ -2693,13 +2693,13 @@
         <v>-647000</v>
       </c>
       <c r="N46">
-        <v>-8058009000</v>
+        <v>-7241326500</v>
       </c>
       <c r="O46">
         <v>18010200</v>
       </c>
       <c r="P46">
-        <v>303432442000</v>
+        <v>243388446100</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>13000</v>
       </c>
       <c r="E47">
-        <v>24137421000</v>
+        <v>22423536600</v>
       </c>
       <c r="F47">
-        <v>17988429000</v>
+        <v>17233384800</v>
       </c>
       <c r="G47">
         <v>190845000</v>
@@ -2728,13 +2728,13 @@
         <v>2527700</v>
       </c>
       <c r="I47">
-        <v>42316695000</v>
+        <v>39847766400</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-22T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>3309159208000</v>
+        <v>2974742359600</v>
       </c>
       <c r="L47">
         <v>193597000</v>
@@ -2743,13 +2743,13 @@
         <v>-591300</v>
       </c>
       <c r="N47">
-        <v>-6148992000</v>
+        <v>-5190151800</v>
       </c>
       <c r="O47">
         <v>17418900</v>
       </c>
       <c r="P47">
-        <v>297283450000</v>
+        <v>238198294300</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>9000</v>
       </c>
       <c r="E48">
-        <v>20023756000</v>
+        <v>19041938800</v>
       </c>
       <c r="F48">
-        <v>11167787000</v>
+        <v>8163594200</v>
       </c>
       <c r="G48">
         <v>66196000</v>
@@ -2778,13 +2778,13 @@
         <v>1861900</v>
       </c>
       <c r="I48">
-        <v>31257739000</v>
+        <v>27271729000</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-22T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>3340416947000</v>
+        <v>3002014088600</v>
       </c>
       <c r="L48">
         <v>195458900</v>
@@ -2793,13 +2793,13 @@
         <v>-650900</v>
       </c>
       <c r="N48">
-        <v>-8855969000</v>
+        <v>-10878344600</v>
       </c>
       <c r="O48">
         <v>16768000</v>
       </c>
       <c r="P48">
-        <v>288427481000</v>
+        <v>227319949700</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>2000</v>
       </c>
       <c r="E49">
-        <v>15403654000</v>
+        <v>14808349900</v>
       </c>
       <c r="F49">
-        <v>10495661000</v>
+        <v>9631126400</v>
       </c>
       <c r="G49">
         <v>11620000</v>
@@ -2828,13 +2828,13 @@
         <v>1676700</v>
       </c>
       <c r="I49">
-        <v>25910935000</v>
+        <v>24451096300</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-22T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>3366327882000</v>
+        <v>3026465184900</v>
       </c>
       <c r="L49">
         <v>197135600</v>
@@ -2843,13 +2843,13 @@
         <v>-311300</v>
       </c>
       <c r="N49">
-        <v>-4907993000</v>
+        <v>-5177223500</v>
       </c>
       <c r="O49">
         <v>16456700</v>
       </c>
       <c r="P49">
-        <v>283519488000</v>
+        <v>222142726200</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>5800</v>
       </c>
       <c r="E50">
-        <v>24502275000</v>
+        <v>23926251600</v>
       </c>
       <c r="F50">
-        <v>14263650000</v>
+        <v>14202011700</v>
       </c>
       <c r="G50">
         <v>65794000</v>
@@ -2878,13 +2878,13 @@
         <v>2324200</v>
       </c>
       <c r="I50">
-        <v>38831719000</v>
+        <v>38194057300</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-22T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>3405159601000</v>
+        <v>3064659242200</v>
       </c>
       <c r="L50">
         <v>199459800</v>
@@ -2893,13 +2893,13 @@
         <v>-500600</v>
       </c>
       <c r="N50">
-        <v>-10238625000</v>
+        <v>-9724239900</v>
       </c>
       <c r="O50">
         <v>15956100</v>
       </c>
       <c r="P50">
-        <v>273280863000</v>
+        <v>212418486300</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>16000</v>
       </c>
       <c r="E51">
-        <v>15815380000</v>
+        <v>15568227400</v>
       </c>
       <c r="F51">
-        <v>11783033000</v>
+        <v>10039178600</v>
       </c>
       <c r="G51">
         <v>341145000</v>
@@ -2928,13 +2928,13 @@
         <v>1692100</v>
       </c>
       <c r="I51">
-        <v>27939558000</v>
+        <v>25948551000</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-22T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>3433099159000</v>
+        <v>3090607793200</v>
       </c>
       <c r="L51">
         <v>201151900</v>
@@ -2943,13 +2943,13 @@
         <v>-214100</v>
       </c>
       <c r="N51">
-        <v>-4032347000</v>
+        <v>-5529048800</v>
       </c>
       <c r="O51">
         <v>15742000</v>
       </c>
       <c r="P51">
-        <v>269248516000</v>
+        <v>206889437500</v>
       </c>
     </row>
     <row r="52">
@@ -2966,25 +2966,25 @@
         <v>700</v>
       </c>
       <c r="E52">
-        <v>17218341000</v>
+        <v>15655905000</v>
       </c>
       <c r="F52">
-        <v>13304199000</v>
+        <v>12529874100</v>
       </c>
       <c r="G52">
-        <v>26777000</v>
+        <v>5198600</v>
       </c>
       <c r="H52">
         <v>1792600</v>
       </c>
       <c r="I52">
-        <v>30549317000</v>
+        <v>28190977700</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-22T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>3463648476000</v>
+        <v>3118798770900</v>
       </c>
       <c r="L52">
         <v>202944500</v>
@@ -2993,13 +2993,13 @@
         <v>-376500</v>
       </c>
       <c r="N52">
-        <v>-3914142000</v>
+        <v>-3126030900</v>
       </c>
       <c r="O52">
         <v>15365500</v>
       </c>
       <c r="P52">
-        <v>265334374000</v>
+        <v>203763406600</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>2500</v>
       </c>
       <c r="E53">
-        <v>11340005000</v>
+        <v>11011334000</v>
       </c>
       <c r="F53">
-        <v>9562859000</v>
+        <v>8273849300</v>
       </c>
       <c r="G53">
         <v>52775000</v>
@@ -3028,13 +3028,13 @@
         <v>1279900</v>
       </c>
       <c r="I53">
-        <v>20955639000</v>
+        <v>19337958300</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-22T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>3484604115000</v>
+        <v>3138136729200</v>
       </c>
       <c r="L53">
         <v>204224400</v>
@@ -3043,13 +3043,13 @@
         <v>-208800</v>
       </c>
       <c r="N53">
-        <v>-1777146000</v>
+        <v>-2737484700</v>
       </c>
       <c r="O53">
         <v>15156700</v>
       </c>
       <c r="P53">
-        <v>263557228000</v>
+        <v>201025921900</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>1400</v>
       </c>
       <c r="E54">
-        <v>17627132000</v>
+        <v>16876483400</v>
       </c>
       <c r="F54">
-        <v>6594113000</v>
+        <v>6171036500</v>
       </c>
       <c r="G54">
         <v>54870000</v>
@@ -3078,13 +3078,13 @@
         <v>1458900</v>
       </c>
       <c r="I54">
-        <v>24276115000</v>
+        <v>23102389900</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-22T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>3508880230000</v>
+        <v>3161239119100</v>
       </c>
       <c r="L54">
         <v>205683300</v>
@@ -3093,13 +3093,13 @@
         <v>-819300</v>
       </c>
       <c r="N54">
-        <v>-11033019000</v>
+        <v>-10705446900</v>
       </c>
       <c r="O54">
         <v>14337400</v>
       </c>
       <c r="P54">
-        <v>252524209000</v>
+        <v>190320475000</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>29400</v>
       </c>
       <c r="E55">
-        <v>14267061000</v>
+        <v>12920309100</v>
       </c>
       <c r="F55">
-        <v>7661589000</v>
+        <v>6163288800</v>
       </c>
       <c r="G55">
         <v>286581000</v>
@@ -3128,13 +3128,13 @@
         <v>1420600</v>
       </c>
       <c r="I55">
-        <v>22215231000</v>
+        <v>19370178900</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-22T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>3531095461000</v>
+        <v>3180609298000</v>
       </c>
       <c r="L55">
         <v>207103900</v>
@@ -3143,13 +3143,13 @@
         <v>-446400</v>
       </c>
       <c r="N55">
-        <v>-6605472000</v>
+        <v>-6757020300</v>
       </c>
       <c r="O55">
         <v>13891000</v>
       </c>
       <c r="P55">
-        <v>245918737000</v>
+        <v>183563454700</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>1600</v>
       </c>
       <c r="E56">
-        <v>16138039000</v>
+        <v>13867811500</v>
       </c>
       <c r="F56">
-        <v>14175576000</v>
+        <v>13187565000</v>
       </c>
       <c r="G56">
         <v>30810000</v>
@@ -3178,13 +3178,13 @@
         <v>1950500</v>
       </c>
       <c r="I56">
-        <v>30344425000</v>
+        <v>27086186500</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-22T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>3561439886000</v>
+        <v>3207695484500</v>
       </c>
       <c r="L56">
         <v>209054400</v>
@@ -3193,13 +3193,13 @@
         <v>-294500</v>
       </c>
       <c r="N56">
-        <v>-1962463000</v>
+        <v>-680246500</v>
       </c>
       <c r="O56">
         <v>13596500</v>
       </c>
       <c r="P56">
-        <v>243956274000</v>
+        <v>182883208200</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>8900</v>
       </c>
       <c r="E57">
-        <v>27522719000</v>
+        <v>25461782000</v>
       </c>
       <c r="F57">
-        <v>11821314000</v>
+        <v>11005930200</v>
       </c>
       <c r="G57">
         <v>60970000</v>
@@ -3228,13 +3228,13 @@
         <v>2706600</v>
       </c>
       <c r="I57">
-        <v>39405003000</v>
+        <v>36528682200</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-22T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>3600844889000</v>
+        <v>3244224166700</v>
       </c>
       <c r="L57">
         <v>211761000</v>
@@ -3243,13 +3243,13 @@
         <v>-1291700</v>
       </c>
       <c r="N57">
-        <v>-15701405000</v>
+        <v>-14455851800</v>
       </c>
       <c r="O57">
         <v>12304800</v>
       </c>
       <c r="P57">
-        <v>228254869000</v>
+        <v>168427356400</v>
       </c>
     </row>
     <row r="58">
@@ -3266,25 +3266,25 @@
         <v>19600</v>
       </c>
       <c r="E58">
-        <v>53468619000</v>
+        <v>45217578300</v>
       </c>
       <c r="F58">
-        <v>6310948000</v>
+        <v>5123836300</v>
       </c>
       <c r="G58">
-        <v>324496000</v>
+        <v>284036500</v>
       </c>
       <c r="H58">
         <v>3449200</v>
       </c>
       <c r="I58">
-        <v>60104063000</v>
+        <v>50625451100</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-22T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>3660948952000</v>
+        <v>3294849617800</v>
       </c>
       <c r="L58">
         <v>215210200</v>
@@ -3293,13 +3293,13 @@
         <v>-2802000</v>
       </c>
       <c r="N58">
-        <v>-47157671000</v>
+        <v>-40093742000</v>
       </c>
       <c r="O58">
         <v>9502800</v>
       </c>
       <c r="P58">
-        <v>181097198000</v>
+        <v>128333614400</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>11100</v>
       </c>
       <c r="E59">
-        <v>46806187000</v>
+        <v>39580819600</v>
       </c>
       <c r="F59">
-        <v>7786187000</v>
+        <v>6828745400</v>
       </c>
       <c r="G59">
         <v>118035000</v>
@@ -3328,13 +3328,13 @@
         <v>3705700</v>
       </c>
       <c r="I59">
-        <v>54710409000</v>
+        <v>46527600000</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-22T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>3715659361000</v>
+        <v>3341377217800</v>
       </c>
       <c r="L59">
         <v>218915900</v>
@@ -3343,13 +3343,13 @@
         <v>-2612400</v>
       </c>
       <c r="N59">
-        <v>-39020000000</v>
+        <v>-32752074200</v>
       </c>
       <c r="O59">
         <v>6890400</v>
       </c>
       <c r="P59">
-        <v>142077198000</v>
+        <v>95581540200</v>
       </c>
     </row>
     <row r="60">
@@ -3366,25 +3366,25 @@
         <v>2400</v>
       </c>
       <c r="E60">
-        <v>41130205000</v>
+        <v>27353295700</v>
       </c>
       <c r="F60">
-        <v>6059572000</v>
+        <v>5494737400</v>
       </c>
       <c r="G60">
-        <v>46105000</v>
+        <v>20330800</v>
       </c>
       <c r="H60">
         <v>2886900</v>
       </c>
       <c r="I60">
-        <v>47235882000</v>
+        <v>32868363900</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-22T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>3762895243000</v>
+        <v>3374245581700</v>
       </c>
       <c r="L60">
         <v>221802800</v>
@@ -3393,13 +3393,13 @@
         <v>-2128300</v>
       </c>
       <c r="N60">
-        <v>-35070633000</v>
+        <v>-21858558300</v>
       </c>
       <c r="O60">
         <v>4762100</v>
       </c>
       <c r="P60">
-        <v>107006565000</v>
+        <v>73722981900</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>400</v>
       </c>
       <c r="E61">
-        <v>36409524000</v>
+        <v>32694742500</v>
       </c>
       <c r="F61">
-        <v>9089381000</v>
+        <v>6373499600</v>
       </c>
       <c r="G61">
         <v>5292000</v>
@@ -3428,13 +3428,13 @@
         <v>2972600</v>
       </c>
       <c r="I61">
-        <v>45504197000</v>
+        <v>39073534100</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-22T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>3808399440000</v>
+        <v>3413319115800</v>
       </c>
       <c r="L61">
         <v>224775400</v>
@@ -3443,13 +3443,13 @@
         <v>-1763000</v>
       </c>
       <c r="N61">
-        <v>-27320143000</v>
+        <v>-26321242900</v>
       </c>
       <c r="O61">
         <v>2999100</v>
       </c>
       <c r="P61">
-        <v>79686422000</v>
+        <v>47401739000</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>13900</v>
       </c>
       <c r="E62">
-        <v>45390123000</v>
+        <v>43135679700</v>
       </c>
       <c r="F62">
-        <v>8000784000</v>
+        <v>7016169600</v>
       </c>
       <c r="G62">
         <v>180635000</v>
@@ -3478,13 +3478,13 @@
         <v>3348600</v>
       </c>
       <c r="I62">
-        <v>53571542000</v>
+        <v>50332484300</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-22T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>3861970982000</v>
+        <v>3463651600100</v>
       </c>
       <c r="L62">
         <v>228124000</v>
@@ -3493,13 +3493,13 @@
         <v>-2386500</v>
       </c>
       <c r="N62">
-        <v>-37389339000</v>
+        <v>-36119510100</v>
       </c>
       <c r="O62">
         <v>612600</v>
       </c>
       <c r="P62">
-        <v>42297083000</v>
+        <v>11282228900</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>9800</v>
       </c>
       <c r="E63">
-        <v>40521200000</v>
+        <v>38338884500</v>
       </c>
       <c r="F63">
-        <v>10248605000</v>
+        <v>8893061900</v>
       </c>
       <c r="G63">
         <v>195590000</v>
@@ -3528,13 +3528,13 @@
         <v>3163600</v>
       </c>
       <c r="I63">
-        <v>50965395000</v>
+        <v>47427536400</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-22T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>3912936377000</v>
+        <v>3511079136500</v>
       </c>
       <c r="L63">
         <v>231287600</v>
@@ -3543,13 +3543,13 @@
         <v>-1870200</v>
       </c>
       <c r="N63">
-        <v>-30272595000</v>
+        <v>-29445822600</v>
       </c>
       <c r="O63">
         <v>-1257600</v>
       </c>
       <c r="P63">
-        <v>12024488000</v>
+        <v>-18163593700</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>11800</v>
       </c>
       <c r="E64">
-        <v>28316114000</v>
+        <v>24311123000</v>
       </c>
       <c r="F64">
-        <v>18080714000</v>
+        <v>17422772600</v>
       </c>
       <c r="G64">
         <v>63790000</v>
@@ -3578,13 +3578,13 @@
         <v>2836400</v>
       </c>
       <c r="I64">
-        <v>46460618000</v>
+        <v>41797685600</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-22T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>3959396995000</v>
+        <v>3552876822100</v>
       </c>
       <c r="L64">
         <v>234124000</v>
@@ -3593,13 +3593,13 @@
         <v>-538800</v>
       </c>
       <c r="N64">
-        <v>-10235400000</v>
+        <v>-6888350400</v>
       </c>
       <c r="O64">
         <v>-1796400</v>
       </c>
       <c r="P64">
-        <v>1789088000</v>
+        <v>-25051944100</v>
       </c>
     </row>
     <row r="65">
@@ -3616,25 +3616,25 @@
         <v>12400</v>
       </c>
       <c r="E65">
-        <v>27642190000</v>
+        <v>26178754900</v>
       </c>
       <c r="F65">
-        <v>17980524000</v>
+        <v>16575730200</v>
       </c>
       <c r="G65">
-        <v>212972000</v>
+        <v>164021000</v>
       </c>
       <c r="H65">
         <v>2823400</v>
       </c>
       <c r="I65">
-        <v>45835686000</v>
+        <v>42918506100</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-22T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>4005232681000</v>
+        <v>3595795328200</v>
       </c>
       <c r="L65">
         <v>236947400</v>
@@ -3643,13 +3643,13 @@
         <v>-698000</v>
       </c>
       <c r="N65">
-        <v>-9661666000</v>
+        <v>-9603024700</v>
       </c>
       <c r="O65">
         <v>-2494400</v>
       </c>
       <c r="P65">
-        <v>-7872578000</v>
+        <v>-34654968800</v>
       </c>
     </row>
     <row r="66">
@@ -3666,25 +3666,25 @@
         <v>14900</v>
       </c>
       <c r="E66">
-        <v>21233949000</v>
+        <v>20278505400</v>
       </c>
       <c r="F66">
-        <v>17236071000</v>
+        <v>15931177200</v>
       </c>
       <c r="G66">
-        <v>207345000</v>
+        <v>198354000</v>
       </c>
       <c r="H66">
         <v>2320600</v>
       </c>
       <c r="I66">
-        <v>38677365000</v>
+        <v>36408036600</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-22T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>4043910046000</v>
+        <v>3632203364800</v>
       </c>
       <c r="L66">
         <v>239268000</v>
@@ -3693,13 +3693,13 @@
         <v>-493100</v>
       </c>
       <c r="N66">
-        <v>-3997878000</v>
+        <v>-4347328200</v>
       </c>
       <c r="O66">
         <v>-2987500</v>
       </c>
       <c r="P66">
-        <v>-11870456000</v>
+        <v>-39002297000</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>17700</v>
       </c>
       <c r="E67">
-        <v>16071283000</v>
+        <v>14667987700</v>
       </c>
       <c r="F67">
-        <v>11499330000</v>
+        <v>9179352300</v>
       </c>
       <c r="G67">
         <v>196203000</v>
@@ -3728,13 +3728,13 @@
         <v>1668400</v>
       </c>
       <c r="I67">
-        <v>27766816000</v>
+        <v>24043543000</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-22T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>4071676862000</v>
+        <v>3656246907800</v>
       </c>
       <c r="L67">
         <v>240936400</v>
@@ -3743,13 +3743,13 @@
         <v>-292900</v>
       </c>
       <c r="N67">
-        <v>-4571953000</v>
+        <v>-5488635400</v>
       </c>
       <c r="O67">
         <v>-3280400</v>
       </c>
       <c r="P67">
-        <v>-16442409000</v>
+        <v>-44490932400</v>
       </c>
     </row>
     <row r="68">
@@ -3766,25 +3766,25 @@
         <v>4000</v>
       </c>
       <c r="E68">
-        <v>26813609000</v>
+        <v>23791134500</v>
       </c>
       <c r="F68">
-        <v>7685722000</v>
+        <v>6531277600</v>
       </c>
       <c r="G68">
-        <v>40331000</v>
+        <v>36734600</v>
       </c>
       <c r="H68">
         <v>2106600</v>
       </c>
       <c r="I68">
-        <v>34539662000</v>
+        <v>30359146700</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-22T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>4106216524000</v>
+        <v>3686606054500</v>
       </c>
       <c r="L68">
         <v>243043000</v>
@@ -3793,13 +3793,13 @@
         <v>-1326400</v>
       </c>
       <c r="N68">
-        <v>-19127887000</v>
+        <v>-17259856900</v>
       </c>
       <c r="O68">
         <v>-4606800</v>
       </c>
       <c r="P68">
-        <v>-35570296000</v>
+        <v>-61750789300</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>9800</v>
       </c>
       <c r="E69">
-        <v>32751776000</v>
+        <v>26322112100</v>
       </c>
       <c r="F69">
-        <v>13468671000</v>
+        <v>12693946500</v>
       </c>
       <c r="G69">
         <v>134245000</v>
@@ -3828,13 +3828,13 @@
         <v>3062300</v>
       </c>
       <c r="I69">
-        <v>46354692000</v>
+        <v>39150303600</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-22T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>4152571216000</v>
+        <v>3725756358100</v>
       </c>
       <c r="L69">
         <v>246105300</v>
@@ -3843,13 +3843,13 @@
         <v>-1214700</v>
       </c>
       <c r="N69">
-        <v>-19283105000</v>
+        <v>-13628165600</v>
       </c>
       <c r="O69">
         <v>-5821500</v>
       </c>
       <c r="P69">
-        <v>-54853401000</v>
+        <v>-75378954900</v>
       </c>
     </row>
     <row r="70">
@@ -3884,7 +3884,7 @@
         <v>2022-12-22T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>4152745096000</v>
+        <v>3725930238100</v>
       </c>
       <c r="L70">
         <v>246124100</v>
@@ -3899,7 +3899,7 @@
         <v>-5818100</v>
       </c>
       <c r="P70">
-        <v>-54730801000</v>
+        <v>-75256354900</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>905900</v>
       </c>
       <c r="E71">
-        <v>134253375000</v>
+        <v>120694047900</v>
       </c>
       <c r="F71">
-        <v>53962081000</v>
+        <v>50872973200</v>
       </c>
       <c r="G71">
-        <v>11449174000</v>
+        <v>11188834600</v>
       </c>
       <c r="H71">
         <v>13510100</v>
       </c>
       <c r="I71">
-        <v>199664630000</v>
+        <v>182755855700</v>
       </c>
       <c r="J71" t="str">
         <v>2022-12-22T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>4352409726000</v>
+        <v>3908686093800</v>
       </c>
       <c r="L71">
         <v>259634200</v>
@@ -3943,13 +3943,13 @@
         <v>-5135600</v>
       </c>
       <c r="N71">
-        <v>-80291294000</v>
+        <v>-69821074700</v>
       </c>
       <c r="O71">
         <v>-10953700</v>
       </c>
       <c r="P71">
-        <v>-135022095000</v>
+        <v>-145077429600</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>44600</v>
       </c>
       <c r="E72">
-        <v>86113266000</v>
+        <v>78276910200</v>
       </c>
       <c r="F72">
-        <v>29279577000</v>
+        <v>25922837100</v>
       </c>
       <c r="G72">
         <v>434502000</v>
@@ -3978,13 +3978,13 @@
         <v>7578900</v>
       </c>
       <c r="I72">
-        <v>115827345000</v>
+        <v>104634249300</v>
       </c>
       <c r="J72" t="str">
         <v>2022-12-22T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>4468237071000</v>
+        <v>4013320343100</v>
       </c>
       <c r="L72">
         <v>267213100</v>
@@ -3993,13 +3993,13 @@
         <v>-3985900</v>
       </c>
       <c r="N72">
-        <v>-56833689000</v>
+        <v>-52354073100</v>
       </c>
       <c r="O72">
         <v>-14939600</v>
       </c>
       <c r="P72">
-        <v>-191855784000</v>
+        <v>-197431502700</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>17400</v>
       </c>
       <c r="E73">
-        <v>59030623000</v>
+        <v>52388671600</v>
       </c>
       <c r="F73">
-        <v>34938228000</v>
+        <v>31888480800</v>
       </c>
       <c r="G73">
         <v>265902000</v>
@@ -4028,13 +4028,13 @@
         <v>6249000</v>
       </c>
       <c r="I73">
-        <v>94234753000</v>
+        <v>84543054400</v>
       </c>
       <c r="J73" t="str">
         <v>2022-12-22T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>4562471824000</v>
+        <v>4097863397500</v>
       </c>
       <c r="L73">
         <v>273462100</v>
@@ -4043,13 +4043,13 @@
         <v>-2155800</v>
       </c>
       <c r="N73">
-        <v>-24092395000</v>
+        <v>-20500190800</v>
       </c>
       <c r="O73">
         <v>-17095400</v>
       </c>
       <c r="P73">
-        <v>-215948179000</v>
+        <v>-217931693500</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>148100</v>
       </c>
       <c r="E74">
-        <v>23507213000</v>
+        <v>20918204600</v>
       </c>
       <c r="F74">
-        <v>43989286000</v>
+        <v>40714963600</v>
       </c>
       <c r="G74">
         <v>1766719000</v>
@@ -4078,13 +4078,13 @@
         <v>4489100</v>
       </c>
       <c r="I74">
-        <v>69263218000</v>
+        <v>63399887200</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-22T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>4631735042000</v>
+        <v>4161263284700</v>
       </c>
       <c r="L74">
         <v>277951200</v>
@@ -4093,13 +4093,13 @@
         <v>1014600</v>
       </c>
       <c r="N74">
-        <v>20482073000</v>
+        <v>19796759000</v>
       </c>
       <c r="O74">
         <v>-16080800</v>
       </c>
       <c r="P74">
-        <v>-195466106000</v>
+        <v>-198134934500</v>
       </c>
     </row>
     <row r="75">
@@ -4116,25 +4116,25 @@
         <v>36000</v>
       </c>
       <c r="E75">
-        <v>22328855000</v>
+        <v>21013271900</v>
       </c>
       <c r="F75">
-        <v>47124324000</v>
+        <v>42218634600</v>
       </c>
       <c r="G75">
-        <v>509888000</v>
+        <v>463134800</v>
       </c>
       <c r="H75">
         <v>4416800</v>
       </c>
       <c r="I75">
-        <v>69963067000</v>
+        <v>63695041300</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-22T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>4701698109000</v>
+        <v>4224958326000</v>
       </c>
       <c r="L75">
         <v>282368000</v>
@@ -4143,13 +4143,13 @@
         <v>1231400</v>
       </c>
       <c r="N75">
-        <v>24795469000</v>
+        <v>21205362700</v>
       </c>
       <c r="O75">
         <v>-14849400</v>
       </c>
       <c r="P75">
-        <v>-170670637000</v>
+        <v>-176929571800</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>24400</v>
       </c>
       <c r="E76">
-        <v>24725359000</v>
+        <v>22695590800</v>
       </c>
       <c r="F76">
-        <v>39357843000</v>
+        <v>35338366500</v>
       </c>
       <c r="G76">
         <v>307422000</v>
@@ -4178,13 +4178,13 @@
         <v>4139400</v>
       </c>
       <c r="I76">
-        <v>64390624000</v>
+        <v>58341379300</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-22T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>4766088733000</v>
+        <v>4283299705300</v>
       </c>
       <c r="L76">
         <v>286507400</v>
@@ -4193,13 +4193,13 @@
         <v>949800</v>
       </c>
       <c r="N76">
-        <v>14632484000</v>
+        <v>12642775700</v>
       </c>
       <c r="O76">
         <v>-13899600</v>
       </c>
       <c r="P76">
-        <v>-156038153000</v>
+        <v>-164286796100</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>16100</v>
       </c>
       <c r="E77">
-        <v>26119802000</v>
+        <v>24933089900</v>
       </c>
       <c r="F77">
-        <v>38233319000</v>
+        <v>36375878300</v>
       </c>
       <c r="G77">
         <v>296982000</v>
@@ -4228,13 +4228,13 @@
         <v>4284300</v>
       </c>
       <c r="I77">
-        <v>64650103000</v>
+        <v>61605950200</v>
       </c>
       <c r="J77" t="str">
         <v>2022-12-22T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>4830738836000</v>
+        <v>4344905655500</v>
       </c>
       <c r="L77">
         <v>290791700</v>
@@ -4243,13 +4243,13 @@
         <v>951800</v>
       </c>
       <c r="N77">
-        <v>12113517000</v>
+        <v>11442788400</v>
       </c>
       <c r="O77">
         <v>-12947800</v>
       </c>
       <c r="P77">
-        <v>-143924636000</v>
+        <v>-152844007700</v>
       </c>
     </row>
     <row r="78">
@@ -4266,25 +4266,25 @@
         <v>30000</v>
       </c>
       <c r="E78">
-        <v>25935039000</v>
+        <v>25523251200</v>
       </c>
       <c r="F78">
-        <v>25754968000</v>
+        <v>22819006900</v>
       </c>
       <c r="G78">
-        <v>222336000</v>
+        <v>87471000</v>
       </c>
       <c r="H78">
         <v>3474900</v>
       </c>
       <c r="I78">
-        <v>51912343000</v>
+        <v>48429729100</v>
       </c>
       <c r="J78" t="str">
         <v>2022-12-22T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>4882651179000</v>
+        <v>4393335384600</v>
       </c>
       <c r="L78">
         <v>294266600</v>
@@ -4293,13 +4293,13 @@
         <v>178500</v>
       </c>
       <c r="N78">
-        <v>-180071000</v>
+        <v>-2704244300</v>
       </c>
       <c r="O78">
         <v>-12769300</v>
       </c>
       <c r="P78">
-        <v>-144104707000</v>
+        <v>-155548252000</v>
       </c>
     </row>
     <row r="79">
@@ -4316,25 +4316,25 @@
         <v>4200</v>
       </c>
       <c r="E79">
-        <v>35131519000</v>
+        <v>32299354000</v>
       </c>
       <c r="F79">
-        <v>22062451000</v>
+        <v>20881333300</v>
       </c>
       <c r="G79">
-        <v>50779000</v>
+        <v>38291500</v>
       </c>
       <c r="H79">
         <v>3527000</v>
       </c>
       <c r="I79">
-        <v>57244749000</v>
+        <v>53218978800</v>
       </c>
       <c r="J79" t="str">
         <v>2022-12-22T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>4939895928000</v>
+        <v>4446554363400</v>
       </c>
       <c r="L79">
         <v>297793600</v>
@@ -4343,13 +4343,13 @@
         <v>-743600</v>
       </c>
       <c r="N79">
-        <v>-13069068000</v>
+        <v>-11418020700</v>
       </c>
       <c r="O79">
         <v>-13512900</v>
       </c>
       <c r="P79">
-        <v>-157173775000</v>
+        <v>-166966272700</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>120600</v>
       </c>
       <c r="E80">
-        <v>46315685000</v>
+        <v>40387019600</v>
       </c>
       <c r="F80">
-        <v>16743533000</v>
+        <v>15691586000</v>
       </c>
       <c r="G80">
         <v>1737748000</v>
@@ -4378,13 +4378,13 @@
         <v>4288800</v>
       </c>
       <c r="I80">
-        <v>64796966000</v>
+        <v>57816353600</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-22T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>5004692894000</v>
+        <v>4504370717000</v>
       </c>
       <c r="L80">
         <v>302082400</v>
@@ -4393,13 +4393,13 @@
         <v>-1937600</v>
       </c>
       <c r="N80">
-        <v>-29572152000</v>
+        <v>-24695433600</v>
       </c>
       <c r="O80">
         <v>-15450500</v>
       </c>
       <c r="P80">
-        <v>-186745927000</v>
+        <v>-191661706300</v>
       </c>
     </row>
     <row r="81">
@@ -4416,25 +4416,25 @@
         <v>8100</v>
       </c>
       <c r="E81">
-        <v>29745323000</v>
+        <v>26583088400</v>
       </c>
       <c r="F81">
-        <v>21695158000</v>
+        <v>19487168200</v>
       </c>
       <c r="G81">
-        <v>166096000</v>
+        <v>154307800</v>
       </c>
       <c r="H81">
         <v>3369500</v>
       </c>
       <c r="I81">
-        <v>51606577000</v>
+        <v>46224564400</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-22T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>5056299471000</v>
+        <v>4550595281400</v>
       </c>
       <c r="L81">
         <v>305451900</v>
@@ -4443,13 +4443,13 @@
         <v>-785400</v>
       </c>
       <c r="N81">
-        <v>-8050165000</v>
+        <v>-7095920200</v>
       </c>
       <c r="O81">
         <v>-16235900</v>
       </c>
       <c r="P81">
-        <v>-194796092000</v>
+        <v>-198757626500</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>19000</v>
       </c>
       <c r="E82">
-        <v>27310872000</v>
+        <v>25864619700</v>
       </c>
       <c r="F82">
-        <v>48599325000</v>
+        <v>43010819100</v>
       </c>
       <c r="G82">
         <v>216368000</v>
@@ -4478,13 +4478,13 @@
         <v>4784200</v>
       </c>
       <c r="I82">
-        <v>76126565000</v>
+        <v>69091806800</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-22T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>5132426036000</v>
+        <v>4619687088200</v>
       </c>
       <c r="L82">
         <v>310236100</v>
@@ -4493,13 +4493,13 @@
         <v>1258400</v>
       </c>
       <c r="N82">
-        <v>21288453000</v>
+        <v>17146199400</v>
       </c>
       <c r="O82">
         <v>-14977500</v>
       </c>
       <c r="P82">
-        <v>-173507639000</v>
+        <v>-181611427100</v>
       </c>
     </row>
     <row r="83">
@@ -4516,25 +4516,25 @@
         <v>26400</v>
       </c>
       <c r="E83">
-        <v>13938346000</v>
+        <v>13217367700</v>
       </c>
       <c r="F83">
-        <v>62103000000</v>
+        <v>56468340300</v>
       </c>
       <c r="G83">
-        <v>313695000</v>
+        <v>304704000</v>
       </c>
       <c r="H83">
         <v>4836200</v>
       </c>
       <c r="I83">
-        <v>76355041000</v>
+        <v>69990412000</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-22T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>5208781077000</v>
+        <v>4689677500200</v>
       </c>
       <c r="L83">
         <v>315072300</v>
@@ -4543,13 +4543,13 @@
         <v>3054600</v>
       </c>
       <c r="N83">
-        <v>48164654000</v>
+        <v>43250972600</v>
       </c>
       <c r="O83">
         <v>-11922900</v>
       </c>
       <c r="P83">
-        <v>-125342985000</v>
+        <v>-138360454500</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>11900</v>
       </c>
       <c r="E84">
-        <v>36935843000</v>
+        <v>32960022800</v>
       </c>
       <c r="F84">
-        <v>55059120000</v>
+        <v>53333547300</v>
       </c>
       <c r="G84">
-        <v>160600000</v>
+        <v>155005600</v>
       </c>
       <c r="H84">
         <v>5618000</v>
       </c>
       <c r="I84">
-        <v>92155563000</v>
+        <v>86448575700</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-22T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>5300936640000</v>
+        <v>4776126075900</v>
       </c>
       <c r="L84">
         <v>320690300</v>
@@ -4593,13 +4593,13 @@
         <v>1901100</v>
       </c>
       <c r="N84">
-        <v>18123277000</v>
+        <v>20373524500</v>
       </c>
       <c r="O84">
         <v>-10021800</v>
       </c>
       <c r="P84">
-        <v>-107219708000</v>
+        <v>-117986930000</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>6900</v>
       </c>
       <c r="E85">
-        <v>27856660000</v>
+        <v>24512107900</v>
       </c>
       <c r="F85">
-        <v>27340148000</v>
+        <v>26147741600</v>
       </c>
       <c r="G85">
         <v>307463000</v>
@@ -4628,13 +4628,13 @@
         <v>3271000</v>
       </c>
       <c r="I85">
-        <v>55504271000</v>
+        <v>50967312500</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-22T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>5356440911000</v>
+        <v>4827093388400</v>
       </c>
       <c r="L85">
         <v>323961300</v>
@@ -4643,13 +4643,13 @@
         <v>-91300</v>
       </c>
       <c r="N85">
-        <v>-516512000</v>
+        <v>1635633700</v>
       </c>
       <c r="O85">
         <v>-10113100</v>
       </c>
       <c r="P85">
-        <v>-107736220000</v>
+        <v>-116351296300</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>42500</v>
       </c>
       <c r="E86">
-        <v>32114046000</v>
+        <v>30948113100</v>
       </c>
       <c r="F86">
-        <v>24836289000</v>
+        <v>22868358900</v>
       </c>
       <c r="G86">
         <v>403282000</v>
@@ -4678,13 +4678,13 @@
         <v>3729400</v>
       </c>
       <c r="I86">
-        <v>57353617000</v>
+        <v>54219754000</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-22T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>5413794528000</v>
+        <v>4881313142400</v>
       </c>
       <c r="L86">
         <v>327690700</v>
@@ -4693,13 +4693,13 @@
         <v>-643900</v>
       </c>
       <c r="N86">
-        <v>-7277757000</v>
+        <v>-8079754200</v>
       </c>
       <c r="O86">
         <v>-10757000</v>
       </c>
       <c r="P86">
-        <v>-115013977000</v>
+        <v>-124431050500</v>
       </c>
     </row>
     <row r="87">
@@ -4716,25 +4716,25 @@
         <v>17900</v>
       </c>
       <c r="E87">
-        <v>36685964000</v>
+        <v>30610046000</v>
       </c>
       <c r="F87">
-        <v>18852802000</v>
+        <v>17616639400</v>
       </c>
       <c r="G87">
-        <v>567024000</v>
+        <v>346844400</v>
       </c>
       <c r="H87">
         <v>3574700</v>
       </c>
       <c r="I87">
-        <v>56105790000</v>
+        <v>48573529800</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-22T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>5469900318000</v>
+        <v>4929886672200</v>
       </c>
       <c r="L87">
         <v>331265400</v>
@@ -4743,13 +4743,13 @@
         <v>-1554200</v>
       </c>
       <c r="N87">
-        <v>-17833162000</v>
+        <v>-12993406600</v>
       </c>
       <c r="O87">
         <v>-12311200</v>
       </c>
       <c r="P87">
-        <v>-132847139000</v>
+        <v>-137424457100</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>24400</v>
       </c>
       <c r="E88">
-        <v>21598700000</v>
+        <v>19213287800</v>
       </c>
       <c r="F88">
-        <v>22901751000</v>
+        <v>21131722800</v>
       </c>
       <c r="G88">
         <v>296291000</v>
@@ -4778,13 +4778,13 @@
         <v>3061500</v>
       </c>
       <c r="I88">
-        <v>44796742000</v>
+        <v>40641301600</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-22T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>5514697060000</v>
+        <v>4970527973800</v>
       </c>
       <c r="L88">
         <v>334326900</v>
@@ -4793,13 +4793,13 @@
         <v>-254100</v>
       </c>
       <c r="N88">
-        <v>1303051000</v>
+        <v>1918435000</v>
       </c>
       <c r="O88">
         <v>-12565300</v>
       </c>
       <c r="P88">
-        <v>-131544088000</v>
+        <v>-135506022100</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>6600</v>
       </c>
       <c r="E89">
-        <v>51003178000</v>
+        <v>49665916600</v>
       </c>
       <c r="F89">
-        <v>27123521000</v>
+        <v>26729315600</v>
       </c>
       <c r="G89">
         <v>144074000</v>
@@ -4828,13 +4828,13 @@
         <v>4781600</v>
       </c>
       <c r="I89">
-        <v>78270773000</v>
+        <v>76539306200</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-22T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>5592967833000</v>
+        <v>5047067280000</v>
       </c>
       <c r="L89">
         <v>339108500</v>
@@ -4843,13 +4843,13 @@
         <v>-1252000</v>
       </c>
       <c r="N89">
-        <v>-23879657000</v>
+        <v>-22936601000</v>
       </c>
       <c r="O89">
         <v>-13817300</v>
       </c>
       <c r="P89">
-        <v>-155423745000</v>
+        <v>-158442623100</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>15200</v>
       </c>
       <c r="E90">
-        <v>92816775000</v>
+        <v>89528866200</v>
       </c>
       <c r="F90">
-        <v>17730258000</v>
+        <v>17360927700</v>
       </c>
       <c r="G90">
         <v>246915000</v>
@@ -4878,13 +4878,13 @@
         <v>6684400</v>
       </c>
       <c r="I90">
-        <v>110793948000</v>
+        <v>107136708900</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-22T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>5703761781000</v>
+        <v>5154203988900</v>
       </c>
       <c r="L90">
         <v>345792900</v>
@@ -4893,13 +4893,13 @@
         <v>-4673400</v>
       </c>
       <c r="N90">
-        <v>-75086517000</v>
+        <v>-72167938500</v>
       </c>
       <c r="O90">
         <v>-18490700</v>
       </c>
       <c r="P90">
-        <v>-230510262000</v>
+        <v>-230610561600</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>18600</v>
       </c>
       <c r="E91">
-        <v>62714718000</v>
+        <v>58601435400</v>
       </c>
       <c r="F91">
-        <v>20907329000</v>
+        <v>19521815900</v>
       </c>
       <c r="G91">
-        <v>218246000</v>
+        <v>192272000</v>
       </c>
       <c r="H91">
         <v>5282600</v>
       </c>
       <c r="I91">
-        <v>83840293000</v>
+        <v>78315523300</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-22T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>5787602074000</v>
+        <v>5232519512200</v>
       </c>
       <c r="L91">
         <v>351075500</v>
@@ -4943,13 +4943,13 @@
         <v>-3087400</v>
       </c>
       <c r="N91">
-        <v>-41807389000</v>
+        <v>-39079619500</v>
       </c>
       <c r="O91">
         <v>-21578100</v>
       </c>
       <c r="P91">
-        <v>-272317651000</v>
+        <v>-269690181100</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>28300</v>
       </c>
       <c r="E92">
-        <v>34551728000</v>
+        <v>32698982600</v>
       </c>
       <c r="F92">
-        <v>27104856000</v>
+        <v>26358503100</v>
       </c>
       <c r="G92">
         <v>532757000</v>
@@ -4978,13 +4978,13 @@
         <v>3754700</v>
       </c>
       <c r="I92">
-        <v>62189341000</v>
+        <v>59590242700</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-22T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>5849791415000</v>
+        <v>5292109754900</v>
       </c>
       <c r="L92">
         <v>354830200</v>
@@ -4993,13 +4993,13 @@
         <v>-825600</v>
       </c>
       <c r="N92">
-        <v>-7446872000</v>
+        <v>-6340479500</v>
       </c>
       <c r="O92">
         <v>-22403700</v>
       </c>
       <c r="P92">
-        <v>-279764523000</v>
+        <v>-276030660600</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>60700</v>
       </c>
       <c r="E93">
-        <v>19956741000</v>
+        <v>17092907700</v>
       </c>
       <c r="F93">
-        <v>40745218000</v>
+        <v>36825341800</v>
       </c>
       <c r="G93">
         <v>1007986000</v>
@@ -5028,13 +5028,13 @@
         <v>3828700</v>
       </c>
       <c r="I93">
-        <v>61709945000</v>
+        <v>54926235500</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-22T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>5911501360000</v>
+        <v>5347035990400</v>
       </c>
       <c r="L93">
         <v>358658900</v>
@@ -5043,13 +5043,13 @@
         <v>1126600</v>
       </c>
       <c r="N93">
-        <v>20788477000</v>
+        <v>19732434100</v>
       </c>
       <c r="O93">
         <v>-21277100</v>
       </c>
       <c r="P93">
-        <v>-258976046000</v>
+        <v>-256298226500</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>3700</v>
       </c>
       <c r="E94">
-        <v>30662076000</v>
+        <v>30030408300</v>
       </c>
       <c r="F94">
-        <v>26112864000</v>
+        <v>22456324200</v>
       </c>
       <c r="G94">
         <v>50415000</v>
@@ -5078,13 +5078,13 @@
         <v>3199400</v>
       </c>
       <c r="I94">
-        <v>56825355000</v>
+        <v>52537147500</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-22T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>5968326715000</v>
+        <v>5399573137900</v>
       </c>
       <c r="L94">
         <v>361858300</v>
@@ -5093,13 +5093,13 @@
         <v>-196300</v>
       </c>
       <c r="N94">
-        <v>-4549212000</v>
+        <v>-7574084100</v>
       </c>
       <c r="O94">
         <v>-21473400</v>
       </c>
       <c r="P94">
-        <v>-263525258000</v>
+        <v>-263872310600</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>1500</v>
       </c>
       <c r="E95">
-        <v>19396686000</v>
+        <v>17713670700</v>
       </c>
       <c r="F95">
-        <v>26055158000</v>
+        <v>24317297600</v>
       </c>
       <c r="G95">
         <v>26680000</v>
@@ -5128,13 +5128,13 @@
         <v>2926000</v>
       </c>
       <c r="I95">
-        <v>45478524000</v>
+        <v>42057648300</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-22T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>6013805239000</v>
+        <v>5441630786200</v>
       </c>
       <c r="L95">
         <v>364784300</v>
@@ -5143,13 +5143,13 @@
         <v>537700</v>
       </c>
       <c r="N95">
-        <v>6658472000</v>
+        <v>6603626900</v>
       </c>
       <c r="O95">
         <v>-20935700</v>
       </c>
       <c r="P95">
-        <v>-256866786000</v>
+        <v>-257268683700</v>
       </c>
     </row>
     <row r="96">
@@ -5166,25 +5166,25 @@
         <v>23600</v>
       </c>
       <c r="E96">
-        <v>24471446000</v>
+        <v>21214506200</v>
       </c>
       <c r="F96">
-        <v>27486773000</v>
+        <v>21984580700</v>
       </c>
       <c r="G96">
-        <v>505125000</v>
+        <v>484745400</v>
       </c>
       <c r="H96">
         <v>3484800</v>
       </c>
       <c r="I96">
-        <v>52463344000</v>
+        <v>43683832300</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-22T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>6066268583000</v>
+        <v>5485314618500</v>
       </c>
       <c r="L96">
         <v>368269100</v>
@@ -5193,13 +5193,13 @@
         <v>539200</v>
       </c>
       <c r="N96">
-        <v>3015327000</v>
+        <v>770074500</v>
       </c>
       <c r="O96">
         <v>-20396500</v>
       </c>
       <c r="P96">
-        <v>-253851459000</v>
+        <v>-256498609200</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>33600</v>
       </c>
       <c r="E97">
-        <v>53673950000</v>
+        <v>51591834200</v>
       </c>
       <c r="F97">
-        <v>20809175000</v>
+        <v>20373111500</v>
       </c>
       <c r="G97">
-        <v>771826000</v>
+        <v>760137700</v>
       </c>
       <c r="H97">
         <v>4660500</v>
       </c>
       <c r="I97">
-        <v>75254951000</v>
+        <v>72725083400</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-22T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>6141523534000</v>
+        <v>5558039701900</v>
       </c>
       <c r="L97">
         <v>372929600</v>
@@ -5243,13 +5243,13 @@
         <v>-1709300</v>
       </c>
       <c r="N97">
-        <v>-32864775000</v>
+        <v>-31218722700</v>
       </c>
       <c r="O97">
         <v>-22105800</v>
       </c>
       <c r="P97">
-        <v>-286716234000</v>
+        <v>-287717331900</v>
       </c>
     </row>
     <row r="98">
@@ -5266,25 +5266,25 @@
         <v>87400</v>
       </c>
       <c r="E98">
-        <v>51798222000</v>
+        <v>48580842600</v>
       </c>
       <c r="F98">
-        <v>18906177000</v>
+        <v>16667118300</v>
       </c>
       <c r="G98">
-        <v>1793129000</v>
+        <v>1712609600</v>
       </c>
       <c r="H98">
         <v>4844800</v>
       </c>
       <c r="I98">
-        <v>72497528000</v>
+        <v>66960570500</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-22T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>6214021062000</v>
+        <v>5625000272400</v>
       </c>
       <c r="L98">
         <v>377774400</v>
@@ -5293,13 +5293,13 @@
         <v>-2300600</v>
       </c>
       <c r="N98">
-        <v>-32892045000</v>
+        <v>-31913724300</v>
       </c>
       <c r="O98">
         <v>-24406400</v>
       </c>
       <c r="P98">
-        <v>-319608279000</v>
+        <v>-319631056200</v>
       </c>
     </row>
     <row r="99">
@@ -5316,25 +5316,25 @@
         <v>36800</v>
       </c>
       <c r="E99">
-        <v>35653032000</v>
+        <v>32956131600</v>
       </c>
       <c r="F99">
-        <v>17827634000</v>
+        <v>14794969700</v>
       </c>
       <c r="G99">
-        <v>495564000</v>
+        <v>474585000</v>
       </c>
       <c r="H99">
         <v>3222500</v>
       </c>
       <c r="I99">
-        <v>53976230000</v>
+        <v>48225686300</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-22T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>6267997292000</v>
+        <v>5673225958700</v>
       </c>
       <c r="L99">
         <v>380996900</v>
@@ -5343,13 +5343,13 @@
         <v>-1057100</v>
       </c>
       <c r="N99">
-        <v>-17825398000</v>
+        <v>-18161161900</v>
       </c>
       <c r="O99">
         <v>-25463500</v>
       </c>
       <c r="P99">
-        <v>-337433677000</v>
+        <v>-337792218100</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>14400</v>
       </c>
       <c r="E100">
-        <v>14430733000</v>
+        <v>12982582600</v>
       </c>
       <c r="F100">
-        <v>30386636000</v>
+        <v>26419207400</v>
       </c>
       <c r="G100">
         <v>202531000</v>
@@ -5378,13 +5378,13 @@
         <v>2920000</v>
       </c>
       <c r="I100">
-        <v>45019900000</v>
+        <v>39604321000</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-22T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>6313017192000</v>
+        <v>5712830279700</v>
       </c>
       <c r="L100">
         <v>383916900</v>
@@ -5393,13 +5393,13 @@
         <v>962200</v>
       </c>
       <c r="N100">
-        <v>15955903000</v>
+        <v>13436624800</v>
       </c>
       <c r="O100">
         <v>-24501300</v>
       </c>
       <c r="P100">
-        <v>-321477774000</v>
+        <v>-324355593300</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>27300</v>
       </c>
       <c r="E101">
-        <v>15624200000</v>
+        <v>13759266800</v>
       </c>
       <c r="F101">
-        <v>103858613000</v>
+        <v>93528353600</v>
       </c>
       <c r="G101">
-        <v>595184000</v>
+        <v>485294000</v>
       </c>
       <c r="H101">
         <v>7364100</v>
       </c>
       <c r="I101">
-        <v>120077997000</v>
+        <v>107772914400</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-22T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>6433095189000</v>
+        <v>5820603194100</v>
       </c>
       <c r="L101">
         <v>391281000</v>
@@ -5443,13 +5443,13 @@
         <v>5286000</v>
       </c>
       <c r="N101">
-        <v>88234413000</v>
+        <v>79769086800</v>
       </c>
       <c r="O101">
         <v>-19215300</v>
       </c>
       <c r="P101">
-        <v>-233243361000</v>
+        <v>-244586506500</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>14900</v>
       </c>
       <c r="E102">
-        <v>17291288000</v>
+        <v>14690591300</v>
       </c>
       <c r="F102">
-        <v>81051044000</v>
+        <v>74881020200</v>
       </c>
       <c r="G102">
         <v>234628000</v>
@@ -5478,13 +5478,13 @@
         <v>6200400</v>
       </c>
       <c r="I102">
-        <v>98576960000</v>
+        <v>89806239500</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-22T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>6531672149000</v>
+        <v>5910409433600</v>
       </c>
       <c r="L102">
         <v>397481400</v>
@@ -5493,13 +5493,13 @@
         <v>4016100</v>
       </c>
       <c r="N102">
-        <v>63759756000</v>
+        <v>60190428900</v>
       </c>
       <c r="O102">
         <v>-15199200</v>
       </c>
       <c r="P102">
-        <v>-169483605000</v>
+        <v>-184396077600</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>54200</v>
       </c>
       <c r="E103">
-        <v>46203249000</v>
+        <v>40609947900</v>
       </c>
       <c r="F103">
-        <v>57008702000</v>
+        <v>52232782700</v>
       </c>
       <c r="G103">
         <v>369734000</v>
@@ -5528,13 +5528,13 @@
         <v>6527500</v>
       </c>
       <c r="I103">
-        <v>103581685000</v>
+        <v>93212464600</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-22T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>6635253834000</v>
+        <v>6003621898200</v>
       </c>
       <c r="L103">
         <v>404008900</v>
@@ -5543,13 +5543,13 @@
         <v>1193100</v>
       </c>
       <c r="N103">
-        <v>10805453000</v>
+        <v>11622834800</v>
       </c>
       <c r="O103">
         <v>-14006100</v>
       </c>
       <c r="P103">
-        <v>-158678152000</v>
+        <v>-172773242800</v>
       </c>
     </row>
     <row r="104">
@@ -5566,25 +5566,25 @@
         <v>31800</v>
       </c>
       <c r="E104">
-        <v>33404236000</v>
+        <v>28691253700</v>
       </c>
       <c r="F104">
-        <v>51285454000</v>
+        <v>48235107400</v>
       </c>
       <c r="G104">
-        <v>350970000</v>
+        <v>191629500</v>
       </c>
       <c r="H104">
         <v>5484500</v>
       </c>
       <c r="I104">
-        <v>85040660000</v>
+        <v>77117990600</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-22T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>6720294494000</v>
+        <v>6080739888800</v>
       </c>
       <c r="L104">
         <v>409493400</v>
@@ -5593,13 +5593,13 @@
         <v>1134900</v>
       </c>
       <c r="N104">
-        <v>17881218000</v>
+        <v>19543853700</v>
       </c>
       <c r="O104">
         <v>-12871200</v>
       </c>
       <c r="P104">
-        <v>-140796934000</v>
+        <v>-153229389100</v>
       </c>
     </row>
     <row r="105">
@@ -5616,25 +5616,25 @@
         <v>34900</v>
       </c>
       <c r="E105">
-        <v>22141488000</v>
+        <v>20795035800</v>
       </c>
       <c r="F105">
-        <v>103959098000</v>
+        <v>84120956000</v>
       </c>
       <c r="G105">
-        <v>547303000</v>
+        <v>523327000</v>
       </c>
       <c r="H105">
         <v>7922900</v>
       </c>
       <c r="I105">
-        <v>126647889000</v>
+        <v>105439318800</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-22T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>6846942383000</v>
+        <v>6186179207600</v>
       </c>
       <c r="L105">
         <v>417416300</v>
@@ -5643,13 +5643,13 @@
         <v>5085200</v>
       </c>
       <c r="N105">
-        <v>81817610000</v>
+        <v>63325920200</v>
       </c>
       <c r="O105">
         <v>-7786000</v>
       </c>
       <c r="P105">
-        <v>-58979324000</v>
+        <v>-89903468900</v>
       </c>
     </row>
     <row r="106">
@@ -5666,25 +5666,25 @@
         <v>303000</v>
       </c>
       <c r="E106">
-        <v>18850340000</v>
+        <v>16669423100</v>
       </c>
       <c r="F106">
-        <v>126648025000</v>
+        <v>117452130100</v>
       </c>
       <c r="G106">
-        <v>4218203000</v>
+        <v>4210410800</v>
       </c>
       <c r="H106">
         <v>10911300</v>
       </c>
       <c r="I106">
-        <v>149716568000</v>
+        <v>138331964000</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-22T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>6996658951000</v>
+        <v>6324511171600</v>
       </c>
       <c r="L106">
         <v>428327600</v>
@@ -5693,13 +5693,13 @@
         <v>8008500</v>
       </c>
       <c r="N106">
-        <v>107797685000</v>
+        <v>100782707000</v>
       </c>
       <c r="O106">
         <v>222500</v>
       </c>
       <c r="P106">
-        <v>48818361000</v>
+        <v>10879238100</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>195800</v>
       </c>
       <c r="E107">
-        <v>62087916000</v>
+        <v>54100211700</v>
       </c>
       <c r="F107">
-        <v>75268753000</v>
+        <v>72117407500</v>
       </c>
       <c r="G107">
         <v>2905079000</v>
@@ -5728,13 +5728,13 @@
         <v>9489000</v>
       </c>
       <c r="I107">
-        <v>140261748000</v>
+        <v>129122698200</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-22T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>7136920699000</v>
+        <v>6453633869800</v>
       </c>
       <c r="L107">
         <v>437816600</v>
@@ -5743,13 +5743,13 @@
         <v>836200</v>
       </c>
       <c r="N107">
-        <v>13180837000</v>
+        <v>18017195800</v>
       </c>
       <c r="O107">
         <v>1058700</v>
       </c>
       <c r="P107">
-        <v>61999198000</v>
+        <v>28896433900</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>12100</v>
       </c>
       <c r="E108">
-        <v>47492324000</v>
+        <v>42618203000</v>
       </c>
       <c r="F108">
-        <v>34156258000</v>
+        <v>32541074800</v>
       </c>
       <c r="G108">
-        <v>192772000</v>
+        <v>149115700</v>
       </c>
       <c r="H108">
         <v>5007700</v>
       </c>
       <c r="I108">
-        <v>81841354000</v>
+        <v>75308393500</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-22T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>7218762053000</v>
+        <v>6528942263300</v>
       </c>
       <c r="L108">
         <v>442824300</v>
@@ -5793,13 +5793,13 @@
         <v>-1281400</v>
       </c>
       <c r="N108">
-        <v>-13336066000</v>
+        <v>-10077128200</v>
       </c>
       <c r="O108">
         <v>-222700</v>
       </c>
       <c r="P108">
-        <v>48663132000</v>
+        <v>18819305700</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>20100</v>
       </c>
       <c r="E109">
-        <v>47668924000</v>
+        <v>40365135100</v>
       </c>
       <c r="F109">
-        <v>23821992000</v>
+        <v>22670145000</v>
       </c>
       <c r="G109">
-        <v>231480000</v>
+        <v>222489000</v>
       </c>
       <c r="H109">
         <v>4446100</v>
       </c>
       <c r="I109">
-        <v>71722396000</v>
+        <v>63257769100</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-22T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>7290484449000</v>
+        <v>6592200032400</v>
       </c>
       <c r="L109">
         <v>447270400</v>
@@ -5843,13 +5843,13 @@
         <v>-1277000</v>
       </c>
       <c r="N109">
-        <v>-23846932000</v>
+        <v>-17694990100</v>
       </c>
       <c r="O109">
         <v>-1499700</v>
       </c>
       <c r="P109">
-        <v>24816200000</v>
+        <v>1124315600</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>17000</v>
       </c>
       <c r="E110">
-        <v>49455443000</v>
+        <v>44496806600</v>
       </c>
       <c r="F110">
-        <v>18843997000</v>
+        <v>14401344100</v>
       </c>
       <c r="G110">
         <v>408777000</v>
@@ -5878,13 +5878,13 @@
         <v>4333500</v>
       </c>
       <c r="I110">
-        <v>68708217000</v>
+        <v>59306927700</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-22T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>7359192666000</v>
+        <v>6651506960100</v>
       </c>
       <c r="L110">
         <v>451603900</v>
@@ -5893,13 +5893,13 @@
         <v>-1972100</v>
       </c>
       <c r="N110">
-        <v>-30611446000</v>
+        <v>-30095462500</v>
       </c>
       <c r="O110">
         <v>-3471800</v>
       </c>
       <c r="P110">
-        <v>-5795246000</v>
+        <v>-28971146900</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>39600</v>
       </c>
       <c r="E111">
-        <v>29125495000</v>
+        <v>26142880600</v>
       </c>
       <c r="F111">
-        <v>32179494000</v>
+        <v>28153923600</v>
       </c>
       <c r="G111">
-        <v>919184000</v>
+        <v>898404800</v>
       </c>
       <c r="H111">
         <v>3701400</v>
       </c>
       <c r="I111">
-        <v>62224173000</v>
+        <v>55195209000</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-22T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>7421416839000</v>
+        <v>6706702169100</v>
       </c>
       <c r="L111">
         <v>455305300</v>
@@ -5943,13 +5943,13 @@
         <v>-32600</v>
       </c>
       <c r="N111">
-        <v>3053999000</v>
+        <v>2011043000</v>
       </c>
       <c r="O111">
         <v>-3504400</v>
       </c>
       <c r="P111">
-        <v>-2741247000</v>
+        <v>-26960103900</v>
       </c>
     </row>
     <row r="112">
@@ -5966,25 +5966,25 @@
         <v>88000</v>
       </c>
       <c r="E112">
-        <v>25854276000</v>
+        <v>18046491600</v>
       </c>
       <c r="F112">
-        <v>54119784000</v>
+        <v>45111301500</v>
       </c>
       <c r="G112">
-        <v>1197176000</v>
+        <v>1167206000</v>
       </c>
       <c r="H112">
         <v>5094200</v>
       </c>
       <c r="I112">
-        <v>81171236000</v>
+        <v>64324999100</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-22T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>7502588075000</v>
+        <v>6771027168200</v>
       </c>
       <c r="L112">
         <v>460399500</v>
@@ -5993,13 +5993,13 @@
         <v>1788000</v>
       </c>
       <c r="N112">
-        <v>28265508000</v>
+        <v>27064809900</v>
       </c>
       <c r="O112">
         <v>-1716400</v>
       </c>
       <c r="P112">
-        <v>25524261000</v>
+        <v>104706000</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>39600</v>
       </c>
       <c r="E113">
-        <v>18382624000</v>
+        <v>16182526300</v>
       </c>
       <c r="F113">
-        <v>66233397000</v>
+        <v>60242394000</v>
       </c>
       <c r="G113">
-        <v>398407000</v>
+        <v>348956500</v>
       </c>
       <c r="H113">
         <v>5122900</v>
       </c>
       <c r="I113">
-        <v>85014428000</v>
+        <v>76773876800</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-22T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>7587602503000</v>
+        <v>6847801045000</v>
       </c>
       <c r="L113">
         <v>465522400</v>
@@ -6043,13 +6043,13 @@
         <v>2562300</v>
       </c>
       <c r="N113">
-        <v>47850773000</v>
+        <v>44059867700</v>
       </c>
       <c r="O113">
         <v>845900</v>
       </c>
       <c r="P113">
-        <v>73375034000</v>
+        <v>44164573700</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>8100</v>
       </c>
       <c r="E114">
-        <v>34420820000</v>
+        <v>31183160900</v>
       </c>
       <c r="F114">
-        <v>67441090000</v>
+        <v>60272166100</v>
       </c>
       <c r="G114">
-        <v>153826000</v>
+        <v>150729100</v>
       </c>
       <c r="H114">
         <v>5554600</v>
       </c>
       <c r="I114">
-        <v>102015736000</v>
+        <v>91606056100</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-22T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>7689618239000</v>
+        <v>6939407101100</v>
       </c>
       <c r="L114">
         <v>471077000</v>
@@ -6093,13 +6093,13 @@
         <v>1331100</v>
       </c>
       <c r="N114">
-        <v>33020270000</v>
+        <v>29089005200</v>
       </c>
       <c r="O114">
         <v>2177000</v>
       </c>
       <c r="P114">
-        <v>106395304000</v>
+        <v>73253578900</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>56900</v>
       </c>
       <c r="E115">
-        <v>43983640000</v>
+        <v>42111514000</v>
       </c>
       <c r="F115">
-        <v>78298747000</v>
+        <v>67772983300</v>
       </c>
       <c r="G115">
-        <v>1421194000</v>
+        <v>1411104100</v>
       </c>
       <c r="H115">
         <v>7561200</v>
       </c>
       <c r="I115">
-        <v>123703581000</v>
+        <v>111295601400</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-22T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>7813321820000</v>
+        <v>7050702702500</v>
       </c>
       <c r="L115">
         <v>478638200</v>
@@ -6143,13 +6143,13 @@
         <v>1220900</v>
       </c>
       <c r="N115">
-        <v>34315107000</v>
+        <v>25661469300</v>
       </c>
       <c r="O115">
         <v>3397900</v>
       </c>
       <c r="P115">
-        <v>140710411000</v>
+        <v>98915048200</v>
       </c>
     </row>
     <row r="116">
@@ -6184,7 +6184,7 @@
         <v>2022-12-22T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>7813915328000</v>
+        <v>7051296210500</v>
       </c>
       <c r="L116">
         <v>478725200</v>
@@ -6199,7 +6199,7 @@
         <v>3349700</v>
       </c>
       <c r="P116">
-        <v>140392849000</v>
+        <v>98597486200</v>
       </c>
     </row>
     <row r="117">
@@ -6234,7 +6234,7 @@
         <v>2022-12-22T14:40:00.000Z</v>
       </c>
       <c r="K117">
-        <v>7813935528000</v>
+        <v>7051316410500</v>
       </c>
       <c r="L117">
         <v>478727200</v>
@@ -6249,7 +6249,7 @@
         <v>3351700</v>
       </c>
       <c r="P117">
-        <v>140413049000</v>
+        <v>98617686200</v>
       </c>
     </row>
     <row r="118">
@@ -6266,25 +6266,25 @@
         <v>22700000</v>
       </c>
       <c r="E118">
-        <v>24992360000</v>
+        <v>14648813900</v>
       </c>
       <c r="F118">
-        <v>65013005000</v>
+        <v>63495224300</v>
       </c>
       <c r="G118">
-        <v>464176426000</v>
+        <v>355702308700</v>
       </c>
       <c r="H118">
         <v>26280600</v>
       </c>
       <c r="I118">
-        <v>554181791000</v>
+        <v>433846346900</v>
       </c>
       <c r="J118" t="str">
         <v>2022-12-22T14:44:00.000Z</v>
       </c>
       <c r="K118">
-        <v>8368117319000</v>
+        <v>7485162757400</v>
       </c>
       <c r="L118">
         <v>505007800</v>
@@ -6293,13 +6293,13 @@
         <v>569400</v>
       </c>
       <c r="N118">
-        <v>40020645000</v>
+        <v>48846410400</v>
       </c>
       <c r="O118">
         <v>3921100</v>
       </c>
       <c r="P118">
-        <v>180433694000</v>
+        <v>147464096600</v>
       </c>
     </row>
     <row r="119">
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>6000000</v>
+        <v>6000</v>
       </c>
       <c r="F119">
         <v>2020000</v>
@@ -6328,13 +6328,13 @@
         <v>800</v>
       </c>
       <c r="I119">
-        <v>8020000</v>
+        <v>2026000</v>
       </c>
       <c r="J119" t="str">
         <v>2022-12-22T14:46:00.000Z</v>
       </c>
       <c r="K119">
-        <v>8368125339000</v>
+        <v>7485164783400</v>
       </c>
       <c r="L119">
         <v>505008600</v>
@@ -6343,13 +6343,13 @@
         <v>-400</v>
       </c>
       <c r="N119">
-        <v>-3980000</v>
+        <v>2014000</v>
       </c>
       <c r="O119">
         <v>3920700</v>
       </c>
       <c r="P119">
-        <v>180429714000</v>
+        <v>147466110600</v>
       </c>
     </row>
     <row r="120">
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>4000000</v>
+        <v>4000</v>
       </c>
       <c r="F120">
-        <v>26000000</v>
+        <v>26000</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6378,13 +6378,13 @@
         <v>3000</v>
       </c>
       <c r="I120">
-        <v>30000000</v>
+        <v>30000</v>
       </c>
       <c r="J120" t="str">
         <v>2022-12-22T14:48:00.000Z</v>
       </c>
       <c r="K120">
-        <v>8368155339000</v>
+        <v>7485164813400</v>
       </c>
       <c r="L120">
         <v>505011600</v>
@@ -6393,13 +6393,13 @@
         <v>2200</v>
       </c>
       <c r="N120">
-        <v>22000000</v>
+        <v>22000</v>
       </c>
       <c r="O120">
         <v>3922900</v>
       </c>
       <c r="P120">
-        <v>180451714000</v>
+        <v>147466132600</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221222/VNINDEX_HOSE_5p_20221222.xlsx
+++ b/name/vnindex/20221222/VNINDEX_HOSE_5p_20221222.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P120"/>
+  <dimension ref="A1:AC120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>21671614300</v>
       </c>
+      <c r="Q2">
+        <v>57632910100</v>
+      </c>
+      <c r="R2">
+        <v>35961295800</v>
+      </c>
+      <c r="S2">
+        <v>4582400</v>
+      </c>
+      <c r="T2">
+        <v>3124200</v>
+      </c>
+      <c r="U2">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V2">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W2">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X2">
+        <v>4243795</v>
+      </c>
+      <c r="Y2">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z2">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA2">
+        <v>32965.5</v>
+      </c>
+      <c r="AB2">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC2">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>64116630000</v>
       </c>
+      <c r="Q3">
+        <v>125113244300</v>
+      </c>
+      <c r="R3">
+        <v>60996614300</v>
+      </c>
+      <c r="S3">
+        <v>9136700</v>
+      </c>
+      <c r="T3">
+        <v>5024200</v>
+      </c>
+      <c r="U3">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V3">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W3">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X3">
+        <v>4243795</v>
+      </c>
+      <c r="Y3">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z3">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA3">
+        <v>32965.5</v>
+      </c>
+      <c r="AB3">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC3">
+        <v>34.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>78111837200</v>
       </c>
+      <c r="Q4">
+        <v>177976254400</v>
+      </c>
+      <c r="R4">
+        <v>99864417200</v>
+      </c>
+      <c r="S4">
+        <v>13771900</v>
+      </c>
+      <c r="T4">
+        <v>7392000</v>
+      </c>
+      <c r="U4">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V4">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W4">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X4">
+        <v>4243795</v>
+      </c>
+      <c r="Y4">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z4">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA4">
+        <v>32965.5</v>
+      </c>
+      <c r="AB4">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC4">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>77193267500</v>
       </c>
+      <c r="Q5">
+        <v>221529835100</v>
+      </c>
+      <c r="R5">
+        <v>144336567600</v>
+      </c>
+      <c r="S5">
+        <v>16791500</v>
+      </c>
+      <c r="T5">
+        <v>10228100</v>
+      </c>
+      <c r="U5">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V5">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W5">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X5">
+        <v>4243795</v>
+      </c>
+      <c r="Y5">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z5">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA5">
+        <v>32965.5</v>
+      </c>
+      <c r="AB5">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC5">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>45919415200</v>
       </c>
+      <c r="Q6">
+        <v>250000095100</v>
+      </c>
+      <c r="R6">
+        <v>204080679900</v>
+      </c>
+      <c r="S6">
+        <v>18904300</v>
+      </c>
+      <c r="T6">
+        <v>13783500</v>
+      </c>
+      <c r="U6">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V6">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W6">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X6">
+        <v>4243795</v>
+      </c>
+      <c r="Y6">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z6">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA6">
+        <v>32965.5</v>
+      </c>
+      <c r="AB6">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC6">
+        <v>25.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>16089529600</v>
       </c>
+      <c r="Q7">
+        <v>270478385800</v>
+      </c>
+      <c r="R7">
+        <v>254388856200</v>
+      </c>
+      <c r="S7">
+        <v>20224100</v>
+      </c>
+      <c r="T7">
+        <v>17649700</v>
+      </c>
+      <c r="U7">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V7">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W7">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X7">
+        <v>4243795</v>
+      </c>
+      <c r="Y7">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z7">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA7">
+        <v>32965.5</v>
+      </c>
+      <c r="AB7">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC7">
+        <v>24.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-7698130600</v>
       </c>
+      <c r="Q8">
+        <v>286216717100</v>
+      </c>
+      <c r="R8">
+        <v>293914847700</v>
+      </c>
+      <c r="S8">
+        <v>21299600</v>
+      </c>
+      <c r="T8">
+        <v>20454500</v>
+      </c>
+      <c r="U8">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V8">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W8">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X8">
+        <v>4243795</v>
+      </c>
+      <c r="Y8">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z8">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA8">
+        <v>32965.5</v>
+      </c>
+      <c r="AB8">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC8">
+        <v>19.2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-11305817200</v>
       </c>
+      <c r="Q9">
+        <v>310425669500</v>
+      </c>
+      <c r="R9">
+        <v>321731486700</v>
+      </c>
+      <c r="S9">
+        <v>22829600</v>
+      </c>
+      <c r="T9">
+        <v>22816100</v>
+      </c>
+      <c r="U9">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V9">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W9">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X9">
+        <v>4243795</v>
+      </c>
+      <c r="Y9">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z9">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA9">
+        <v>32965.5</v>
+      </c>
+      <c r="AB9">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC9">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-21984716900</v>
       </c>
+      <c r="Q10">
+        <v>332423870200</v>
+      </c>
+      <c r="R10">
+        <v>354408587100</v>
+      </c>
+      <c r="S10">
+        <v>24296100</v>
+      </c>
+      <c r="T10">
+        <v>24731100</v>
+      </c>
+      <c r="U10">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V10">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W10">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X10">
+        <v>4243795</v>
+      </c>
+      <c r="Y10">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z10">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA10">
+        <v>32965.5</v>
+      </c>
+      <c r="AB10">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC10">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-31678940400</v>
       </c>
+      <c r="Q11">
+        <v>349804511100</v>
+      </c>
+      <c r="R11">
+        <v>381483451500</v>
+      </c>
+      <c r="S11">
+        <v>25585700</v>
+      </c>
+      <c r="T11">
+        <v>26383700</v>
+      </c>
+      <c r="U11">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V11">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W11">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X11">
+        <v>4243795</v>
+      </c>
+      <c r="Y11">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z11">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA11">
+        <v>32965.5</v>
+      </c>
+      <c r="AB11">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC11">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-32780232800</v>
       </c>
+      <c r="Q12">
+        <v>370102767400</v>
+      </c>
+      <c r="R12">
+        <v>402883000200</v>
+      </c>
+      <c r="S12">
+        <v>26985500</v>
+      </c>
+      <c r="T12">
+        <v>27962000</v>
+      </c>
+      <c r="U12">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V12">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W12">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X12">
+        <v>4243795</v>
+      </c>
+      <c r="Y12">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z12">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA12">
+        <v>32965.5</v>
+      </c>
+      <c r="AB12">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC12">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-38380637000</v>
       </c>
+      <c r="Q13">
+        <v>387948348500</v>
+      </c>
+      <c r="R13">
+        <v>426328985500</v>
+      </c>
+      <c r="S13">
+        <v>28285900</v>
+      </c>
+      <c r="T13">
+        <v>29690700</v>
+      </c>
+      <c r="U13">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V13">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W13">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X13">
+        <v>4243795</v>
+      </c>
+      <c r="Y13">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z13">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA13">
+        <v>32965.5</v>
+      </c>
+      <c r="AB13">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC13">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-36553895100</v>
       </c>
+      <c r="Q14">
+        <v>410220813100</v>
+      </c>
+      <c r="R14">
+        <v>446774708200</v>
+      </c>
+      <c r="S14">
+        <v>29931100</v>
+      </c>
+      <c r="T14">
+        <v>31188100</v>
+      </c>
+      <c r="U14">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V14">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W14">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X14">
+        <v>4243795</v>
+      </c>
+      <c r="Y14">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z14">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA14">
+        <v>32965.5</v>
+      </c>
+      <c r="AB14">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC14">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>-47367263900</v>
       </c>
+      <c r="Q15">
+        <v>423625194300</v>
+      </c>
+      <c r="R15">
+        <v>470992458200</v>
+      </c>
+      <c r="S15">
+        <v>30961900</v>
+      </c>
+      <c r="T15">
+        <v>32889600</v>
+      </c>
+      <c r="U15">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V15">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W15">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X15">
+        <v>4243795</v>
+      </c>
+      <c r="Y15">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z15">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA15">
+        <v>32965.5</v>
+      </c>
+      <c r="AB15">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC15">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>-42841669300</v>
       </c>
+      <c r="Q16">
+        <v>449911839600</v>
+      </c>
+      <c r="R16">
+        <v>492753508900</v>
+      </c>
+      <c r="S16">
+        <v>32545400</v>
+      </c>
+      <c r="T16">
+        <v>34320600</v>
+      </c>
+      <c r="U16">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V16">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W16">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X16">
+        <v>4243795</v>
+      </c>
+      <c r="Y16">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z16">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA16">
+        <v>32965.5</v>
+      </c>
+      <c r="AB16">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC16">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>-39551877800</v>
       </c>
+      <c r="Q17">
+        <v>475229037900</v>
+      </c>
+      <c r="R17">
+        <v>514780915700</v>
+      </c>
+      <c r="S17">
+        <v>34167300</v>
+      </c>
+      <c r="T17">
+        <v>35680800</v>
+      </c>
+      <c r="U17">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V17">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W17">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X17">
+        <v>4243795</v>
+      </c>
+      <c r="Y17">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z17">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA17">
+        <v>32965.5</v>
+      </c>
+      <c r="AB17">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC17">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>-21289696500</v>
       </c>
+      <c r="Q18">
+        <v>513241960400</v>
+      </c>
+      <c r="R18">
+        <v>534531656900</v>
+      </c>
+      <c r="S18">
+        <v>36744800</v>
+      </c>
+      <c r="T18">
+        <v>36876600</v>
+      </c>
+      <c r="U18">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V18">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W18">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X18">
+        <v>4243795</v>
+      </c>
+      <c r="Y18">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z18">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA18">
+        <v>32965.5</v>
+      </c>
+      <c r="AB18">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC18">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>47419628900</v>
       </c>
+      <c r="Q19">
+        <v>600569251500</v>
+      </c>
+      <c r="R19">
+        <v>553149622600</v>
+      </c>
+      <c r="S19">
+        <v>41911600</v>
+      </c>
+      <c r="T19">
+        <v>38285400</v>
+      </c>
+      <c r="U19">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V19">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W19">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X19">
+        <v>4243795</v>
+      </c>
+      <c r="Y19">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z19">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA19">
+        <v>32965.5</v>
+      </c>
+      <c r="AB19">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC19">
+        <v>55.4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>85780916400</v>
       </c>
+      <c r="Q20">
+        <v>655018331000</v>
+      </c>
+      <c r="R20">
+        <v>569237414600</v>
+      </c>
+      <c r="S20">
+        <v>45291200</v>
+      </c>
+      <c r="T20">
+        <v>39309600</v>
+      </c>
+      <c r="U20">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V20">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W20">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X20">
+        <v>4243795</v>
+      </c>
+      <c r="Y20">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z20">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA20">
+        <v>32965.5</v>
+      </c>
+      <c r="AB20">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC20">
+        <v>31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>99448705900</v>
       </c>
+      <c r="Q21">
+        <v>696803912300</v>
+      </c>
+      <c r="R21">
+        <v>597355206400</v>
+      </c>
+      <c r="S21">
+        <v>48249600</v>
+      </c>
+      <c r="T21">
+        <v>40986100</v>
+      </c>
+      <c r="U21">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V21">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W21">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X21">
+        <v>4243795</v>
+      </c>
+      <c r="Y21">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z21">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA21">
+        <v>32965.5</v>
+      </c>
+      <c r="AB21">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC21">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>118931158500</v>
       </c>
+      <c r="Q22">
+        <v>733317838400</v>
+      </c>
+      <c r="R22">
+        <v>614386679900</v>
+      </c>
+      <c r="S22">
+        <v>50650500</v>
+      </c>
+      <c r="T22">
+        <v>42198600</v>
+      </c>
+      <c r="U22">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V22">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W22">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X22">
+        <v>4243795</v>
+      </c>
+      <c r="Y22">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z22">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA22">
+        <v>32965.5</v>
+      </c>
+      <c r="AB22">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC22">
+        <v>15.7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>145700447900</v>
       </c>
+      <c r="Q23">
+        <v>771724014200</v>
+      </c>
+      <c r="R23">
+        <v>626023566300</v>
+      </c>
+      <c r="S23">
+        <v>53425400</v>
+      </c>
+      <c r="T23">
+        <v>42872700</v>
+      </c>
+      <c r="U23">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V23">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W23">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X23">
+        <v>4243795</v>
+      </c>
+      <c r="Y23">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z23">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA23">
+        <v>32965.5</v>
+      </c>
+      <c r="AB23">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC23">
+        <v>21.6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>159939546600</v>
       </c>
+      <c r="Q24">
+        <v>801846309000</v>
+      </c>
+      <c r="R24">
+        <v>641906762400</v>
+      </c>
+      <c r="S24">
+        <v>55505000</v>
+      </c>
+      <c r="T24">
+        <v>43849800</v>
+      </c>
+      <c r="U24">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V24">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W24">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X24">
+        <v>4243795</v>
+      </c>
+      <c r="Y24">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z24">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA24">
+        <v>32965.5</v>
+      </c>
+      <c r="AB24">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC24">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>195290934100</v>
       </c>
+      <c r="Q25">
+        <v>859828837200</v>
+      </c>
+      <c r="R25">
+        <v>664537903100</v>
+      </c>
+      <c r="S25">
+        <v>58946700</v>
+      </c>
+      <c r="T25">
+        <v>45213900</v>
+      </c>
+      <c r="U25">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V25">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W25">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X25">
+        <v>4243795</v>
+      </c>
+      <c r="Y25">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z25">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA25">
+        <v>32965.5</v>
+      </c>
+      <c r="AB25">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC25">
+        <v>28.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>223921395400</v>
       </c>
+      <c r="Q26">
+        <v>905607320000</v>
+      </c>
+      <c r="R26">
+        <v>681685924600</v>
+      </c>
+      <c r="S26">
+        <v>62013700</v>
+      </c>
+      <c r="T26">
+        <v>46387000</v>
+      </c>
+      <c r="U26">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V26">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W26">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X26">
+        <v>4243795</v>
+      </c>
+      <c r="Y26">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z26">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA26">
+        <v>32965.5</v>
+      </c>
+      <c r="AB26">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC26">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>254029758600</v>
       </c>
+      <c r="Q27">
+        <v>956481754200</v>
+      </c>
+      <c r="R27">
+        <v>702451995600</v>
+      </c>
+      <c r="S27">
+        <v>64836800</v>
+      </c>
+      <c r="T27">
+        <v>47774900</v>
+      </c>
+      <c r="U27">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V27">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W27">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X27">
+        <v>4243795</v>
+      </c>
+      <c r="Y27">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z27">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA27">
+        <v>32965.5</v>
+      </c>
+      <c r="AB27">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC27">
+        <v>24.3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>276099339100</v>
       </c>
+      <c r="Q28">
+        <v>1004797418700</v>
+      </c>
+      <c r="R28">
+        <v>728698079600</v>
+      </c>
+      <c r="S28">
+        <v>67914900</v>
+      </c>
+      <c r="T28">
+        <v>49148700</v>
+      </c>
+      <c r="U28">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V28">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W28">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X28">
+        <v>4243795</v>
+      </c>
+      <c r="Y28">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z28">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA28">
+        <v>32965.5</v>
+      </c>
+      <c r="AB28">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC28">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>334651206500</v>
       </c>
+      <c r="Q29">
+        <v>1097893845900</v>
+      </c>
+      <c r="R29">
+        <v>763242639400</v>
+      </c>
+      <c r="S29">
+        <v>73602100</v>
+      </c>
+      <c r="T29">
+        <v>51366000</v>
+      </c>
+      <c r="U29">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V29">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W29">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X29">
+        <v>4243795</v>
+      </c>
+      <c r="Y29">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z29">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA29">
+        <v>32965.5</v>
+      </c>
+      <c r="AB29">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC29">
+        <v>47.2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>421117543200</v>
       </c>
+      <c r="Q30">
+        <v>1200454945300</v>
+      </c>
+      <c r="R30">
+        <v>779337402100</v>
+      </c>
+      <c r="S30">
+        <v>79952700</v>
+      </c>
+      <c r="T30">
+        <v>52327200</v>
+      </c>
+      <c r="U30">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V30">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W30">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X30">
+        <v>4243795</v>
+      </c>
+      <c r="Y30">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z30">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA30">
+        <v>32965.5</v>
+      </c>
+      <c r="AB30">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC30">
+        <v>69.8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>455154302900</v>
       </c>
+      <c r="Q31">
+        <v>1287860684300</v>
+      </c>
+      <c r="R31">
+        <v>832706381400</v>
+      </c>
+      <c r="S31">
+        <v>86231600</v>
+      </c>
+      <c r="T31">
+        <v>55250700</v>
+      </c>
+      <c r="U31">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V31">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W31">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X31">
+        <v>4243795</v>
+      </c>
+      <c r="Y31">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z31">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA31">
+        <v>32965.5</v>
+      </c>
+      <c r="AB31">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC31">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>430754197100</v>
       </c>
+      <c r="Q32">
+        <v>1325622249100</v>
+      </c>
+      <c r="R32">
+        <v>894868052000</v>
+      </c>
+      <c r="S32">
+        <v>88506700</v>
+      </c>
+      <c r="T32">
+        <v>58716100</v>
+      </c>
+      <c r="U32">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V32">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W32">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X32">
+        <v>4243795</v>
+      </c>
+      <c r="Y32">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z32">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA32">
+        <v>32965.5</v>
+      </c>
+      <c r="AB32">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC32">
+        <v>19.7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>403230445500</v>
       </c>
+      <c r="Q33">
+        <v>1345711078100</v>
+      </c>
+      <c r="R33">
+        <v>942480632600</v>
+      </c>
+      <c r="S33">
+        <v>89751900</v>
+      </c>
+      <c r="T33">
+        <v>61774700</v>
+      </c>
+      <c r="U33">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V33">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W33">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X33">
+        <v>4243795</v>
+      </c>
+      <c r="Y33">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z33">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA33">
+        <v>32965.5</v>
+      </c>
+      <c r="AB33">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC33">
+        <v>22.2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>399512496700</v>
       </c>
+      <c r="Q34">
+        <v>1367890442800</v>
+      </c>
+      <c r="R34">
+        <v>968377946100</v>
+      </c>
+      <c r="S34">
+        <v>91006300</v>
+      </c>
+      <c r="T34">
+        <v>63300100</v>
+      </c>
+      <c r="U34">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V34">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W34">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X34">
+        <v>4243795</v>
+      </c>
+      <c r="Y34">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z34">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA34">
+        <v>32965.5</v>
+      </c>
+      <c r="AB34">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>389418937600</v>
       </c>
+      <c r="Q35">
+        <v>1396947251900</v>
+      </c>
+      <c r="R35">
+        <v>1007528314300</v>
+      </c>
+      <c r="S35">
+        <v>92591400</v>
+      </c>
+      <c r="T35">
+        <v>65032700</v>
+      </c>
+      <c r="U35">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V35">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W35">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X35">
+        <v>4243795</v>
+      </c>
+      <c r="Y35">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z35">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA35">
+        <v>32965.5</v>
+      </c>
+      <c r="AB35">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC35">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>347364163200</v>
       </c>
+      <c r="Q36">
+        <v>1416891105900</v>
+      </c>
+      <c r="R36">
+        <v>1069526942700</v>
+      </c>
+      <c r="S36">
+        <v>93657900</v>
+      </c>
+      <c r="T36">
+        <v>68499700</v>
+      </c>
+      <c r="U36">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V36">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W36">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X36">
+        <v>4243795</v>
+      </c>
+      <c r="Y36">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z36">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA36">
+        <v>32965.5</v>
+      </c>
+      <c r="AB36">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC36">
+        <v>33.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>329890802200</v>
       </c>
+      <c r="Q37">
+        <v>1430006303900</v>
+      </c>
+      <c r="R37">
+        <v>1100115501700</v>
+      </c>
+      <c r="S37">
+        <v>94426600</v>
+      </c>
+      <c r="T37">
+        <v>70442400</v>
+      </c>
+      <c r="U37">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V37">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W37">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X37">
+        <v>4243795</v>
+      </c>
+      <c r="Y37">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z37">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA37">
+        <v>32965.5</v>
+      </c>
+      <c r="AB37">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC37">
+        <v>14.1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>318799753200</v>
       </c>
+      <c r="Q38">
+        <v>1445506196500</v>
+      </c>
+      <c r="R38">
+        <v>1126706443300</v>
+      </c>
+      <c r="S38">
+        <v>95273900</v>
+      </c>
+      <c r="T38">
+        <v>72265200</v>
+      </c>
+      <c r="U38">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V38">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W38">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X38">
+        <v>4243795</v>
+      </c>
+      <c r="Y38">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z38">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA38">
+        <v>32965.5</v>
+      </c>
+      <c r="AB38">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC38">
+        <v>9</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>310288967300</v>
       </c>
+      <c r="Q39">
+        <v>1458326527600</v>
+      </c>
+      <c r="R39">
+        <v>1148037560300</v>
+      </c>
+      <c r="S39">
+        <v>95980600</v>
+      </c>
+      <c r="T39">
+        <v>73903600</v>
+      </c>
+      <c r="U39">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V39">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W39">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X39">
+        <v>4243795</v>
+      </c>
+      <c r="Y39">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z39">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA39">
+        <v>32965.5</v>
+      </c>
+      <c r="AB39">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC39">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>302496560500</v>
       </c>
+      <c r="Q40">
+        <v>1466563654700</v>
+      </c>
+      <c r="R40">
+        <v>1164067094200</v>
+      </c>
+      <c r="S40">
+        <v>96565200</v>
+      </c>
+      <c r="T40">
+        <v>75024100</v>
+      </c>
+      <c r="U40">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V40">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W40">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X40">
+        <v>4243795</v>
+      </c>
+      <c r="Y40">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z40">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA40">
+        <v>32965.5</v>
+      </c>
+      <c r="AB40">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC40">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>296935348100</v>
       </c>
+      <c r="Q41">
+        <v>1484259921800</v>
+      </c>
+      <c r="R41">
+        <v>1187324573700</v>
+      </c>
+      <c r="S41">
+        <v>97588400</v>
+      </c>
+      <c r="T41">
+        <v>76587400</v>
+      </c>
+      <c r="U41">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V41">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W41">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X41">
+        <v>4243795</v>
+      </c>
+      <c r="Y41">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z41">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA41">
+        <v>32965.5</v>
+      </c>
+      <c r="AB41">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC41">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>293605751600</v>
       </c>
+      <c r="Q42">
+        <v>1501936777100</v>
+      </c>
+      <c r="R42">
+        <v>1208331025500</v>
+      </c>
+      <c r="S42">
+        <v>98803700</v>
+      </c>
+      <c r="T42">
+        <v>77881600</v>
+      </c>
+      <c r="U42">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V42">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W42">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X42">
+        <v>4243795</v>
+      </c>
+      <c r="Y42">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z42">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA42">
+        <v>32965.5</v>
+      </c>
+      <c r="AB42">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC42">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>291233068100</v>
       </c>
+      <c r="Q43">
+        <v>1520654269200</v>
+      </c>
+      <c r="R43">
+        <v>1229421201100</v>
+      </c>
+      <c r="S43">
+        <v>100067200</v>
+      </c>
+      <c r="T43">
+        <v>79211100</v>
+      </c>
+      <c r="U43">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V43">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W43">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X43">
+        <v>4243795</v>
+      </c>
+      <c r="Y43">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z43">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA43">
+        <v>32965.5</v>
+      </c>
+      <c r="AB43">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC43">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>269212634300</v>
       </c>
+      <c r="Q44">
+        <v>1535042012800</v>
+      </c>
+      <c r="R44">
+        <v>1265829378500</v>
+      </c>
+      <c r="S44">
+        <v>101075900</v>
+      </c>
+      <c r="T44">
+        <v>81256800</v>
+      </c>
+      <c r="U44">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V44">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W44">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X44">
+        <v>4243795</v>
+      </c>
+      <c r="Y44">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z44">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA44">
+        <v>32965.5</v>
+      </c>
+      <c r="AB44">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC44">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>250629772600</v>
       </c>
+      <c r="Q45">
+        <v>1545305018000</v>
+      </c>
+      <c r="R45">
+        <v>1294675245400</v>
+      </c>
+      <c r="S45">
+        <v>101789800</v>
+      </c>
+      <c r="T45">
+        <v>83132600</v>
+      </c>
+      <c r="U45">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V45">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W45">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X45">
+        <v>4243795</v>
+      </c>
+      <c r="Y45">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z45">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA45">
+        <v>32965.5</v>
+      </c>
+      <c r="AB45">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC45">
+        <v>15</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>243388446100</v>
       </c>
+      <c r="Q46">
+        <v>1557496949800</v>
+      </c>
+      <c r="R46">
+        <v>1314108503700</v>
+      </c>
+      <c r="S46">
+        <v>102551100</v>
+      </c>
+      <c r="T46">
+        <v>84540900</v>
+      </c>
+      <c r="U46">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V46">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W46">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X46">
+        <v>4243795</v>
+      </c>
+      <c r="Y46">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z46">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA46">
+        <v>32965.5</v>
+      </c>
+      <c r="AB46">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC46">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>238198294300</v>
       </c>
+      <c r="Q47">
+        <v>1574730334600</v>
+      </c>
+      <c r="R47">
+        <v>1336532040300</v>
+      </c>
+      <c r="S47">
+        <v>103512800</v>
+      </c>
+      <c r="T47">
+        <v>86093900</v>
+      </c>
+      <c r="U47">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V47">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W47">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X47">
+        <v>4243795</v>
+      </c>
+      <c r="Y47">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z47">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA47">
+        <v>32965.5</v>
+      </c>
+      <c r="AB47">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC47">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>227319949700</v>
       </c>
+      <c r="Q48">
+        <v>1582893928800</v>
+      </c>
+      <c r="R48">
+        <v>1355573979100</v>
+      </c>
+      <c r="S48">
+        <v>104113800</v>
+      </c>
+      <c r="T48">
+        <v>87345800</v>
+      </c>
+      <c r="U48">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V48">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W48">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X48">
+        <v>4243795</v>
+      </c>
+      <c r="Y48">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z48">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA48">
+        <v>32965.5</v>
+      </c>
+      <c r="AB48">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC48">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>222142726200</v>
       </c>
+      <c r="Q49">
+        <v>1592525055200</v>
+      </c>
+      <c r="R49">
+        <v>1370382329000</v>
+      </c>
+      <c r="S49">
+        <v>104795500</v>
+      </c>
+      <c r="T49">
+        <v>88338800</v>
+      </c>
+      <c r="U49">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V49">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W49">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X49">
+        <v>4243795</v>
+      </c>
+      <c r="Y49">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z49">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA49">
+        <v>32965.5</v>
+      </c>
+      <c r="AB49">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC49">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>212418486300</v>
       </c>
+      <c r="Q50">
+        <v>1606727066900</v>
+      </c>
+      <c r="R50">
+        <v>1394308580600</v>
+      </c>
+      <c r="S50">
+        <v>105704400</v>
+      </c>
+      <c r="T50">
+        <v>89748300</v>
+      </c>
+      <c r="U50">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V50">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W50">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X50">
+        <v>4243795</v>
+      </c>
+      <c r="Y50">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z50">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA50">
+        <v>32965.5</v>
+      </c>
+      <c r="AB50">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC50">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>206889437500</v>
       </c>
+      <c r="Q51">
+        <v>1616766245500</v>
+      </c>
+      <c r="R51">
+        <v>1409876808000</v>
+      </c>
+      <c r="S51">
+        <v>106435400</v>
+      </c>
+      <c r="T51">
+        <v>90693400</v>
+      </c>
+      <c r="U51">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V51">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W51">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X51">
+        <v>4243795</v>
+      </c>
+      <c r="Y51">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z51">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA51">
+        <v>32965.5</v>
+      </c>
+      <c r="AB51">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC51">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>203763406600</v>
       </c>
+      <c r="Q52">
+        <v>1629296119600</v>
+      </c>
+      <c r="R52">
+        <v>1425532713000</v>
+      </c>
+      <c r="S52">
+        <v>107143100</v>
+      </c>
+      <c r="T52">
+        <v>91777600</v>
+      </c>
+      <c r="U52">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V52">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W52">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X52">
+        <v>4243795</v>
+      </c>
+      <c r="Y52">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z52">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA52">
+        <v>32965.5</v>
+      </c>
+      <c r="AB52">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC52">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>201025921900</v>
       </c>
+      <c r="Q53">
+        <v>1637569968900</v>
+      </c>
+      <c r="R53">
+        <v>1436544047000</v>
+      </c>
+      <c r="S53">
+        <v>107677400</v>
+      </c>
+      <c r="T53">
+        <v>92520700</v>
+      </c>
+      <c r="U53">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V53">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W53">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X53">
+        <v>4243795</v>
+      </c>
+      <c r="Y53">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z53">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA53">
+        <v>32965.5</v>
+      </c>
+      <c r="AB53">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC53">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>190320475000</v>
       </c>
+      <c r="Q54">
+        <v>1643741005400</v>
+      </c>
+      <c r="R54">
+        <v>1453420530400</v>
+      </c>
+      <c r="S54">
+        <v>107996500</v>
+      </c>
+      <c r="T54">
+        <v>93659100</v>
+      </c>
+      <c r="U54">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V54">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W54">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X54">
+        <v>4243795</v>
+      </c>
+      <c r="Y54">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z54">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA54">
+        <v>32965.5</v>
+      </c>
+      <c r="AB54">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC54">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>183563454700</v>
       </c>
+      <c r="Q55">
+        <v>1649904294200</v>
+      </c>
+      <c r="R55">
+        <v>1466340839500</v>
+      </c>
+      <c r="S55">
+        <v>108468900</v>
+      </c>
+      <c r="T55">
+        <v>94577900</v>
+      </c>
+      <c r="U55">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V55">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W55">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X55">
+        <v>4243795</v>
+      </c>
+      <c r="Y55">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z55">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA55">
+        <v>32965.5</v>
+      </c>
+      <c r="AB55">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC55">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>182883208200</v>
       </c>
+      <c r="Q56">
+        <v>1663091859200</v>
+      </c>
+      <c r="R56">
+        <v>1480208651000</v>
+      </c>
+      <c r="S56">
+        <v>109296100</v>
+      </c>
+      <c r="T56">
+        <v>95699600</v>
+      </c>
+      <c r="U56">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V56">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W56">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X56">
+        <v>4243795</v>
+      </c>
+      <c r="Y56">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z56">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA56">
+        <v>32965.5</v>
+      </c>
+      <c r="AB56">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC56">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>168427356400</v>
       </c>
+      <c r="Q57">
+        <v>1674097789400</v>
+      </c>
+      <c r="R57">
+        <v>1505670433000</v>
+      </c>
+      <c r="S57">
+        <v>109999100</v>
+      </c>
+      <c r="T57">
+        <v>97694300</v>
+      </c>
+      <c r="U57">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V57">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W57">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X57">
+        <v>4243795</v>
+      </c>
+      <c r="Y57">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z57">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA57">
+        <v>32965.5</v>
+      </c>
+      <c r="AB57">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC57">
+        <v>11.7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>128333614400</v>
       </c>
+      <c r="Q58">
+        <v>1679221625700</v>
+      </c>
+      <c r="R58">
+        <v>1550888011300</v>
+      </c>
+      <c r="S58">
+        <v>110312900</v>
+      </c>
+      <c r="T58">
+        <v>100810100</v>
+      </c>
+      <c r="U58">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V58">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W58">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X58">
+        <v>4243795</v>
+      </c>
+      <c r="Y58">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z58">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA58">
+        <v>32965.5</v>
+      </c>
+      <c r="AB58">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC58">
+        <v>32.4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>95581540200</v>
       </c>
+      <c r="Q59">
+        <v>1686050371100</v>
+      </c>
+      <c r="R59">
+        <v>1590468830900</v>
+      </c>
+      <c r="S59">
+        <v>110854000</v>
+      </c>
+      <c r="T59">
+        <v>103963600</v>
+      </c>
+      <c r="U59">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V59">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W59">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X59">
+        <v>4243795</v>
+      </c>
+      <c r="Y59">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z59">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA59">
+        <v>32965.5</v>
+      </c>
+      <c r="AB59">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC59">
+        <v>26.4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>73722981900</v>
       </c>
+      <c r="Q60">
+        <v>1691545108500</v>
+      </c>
+      <c r="R60">
+        <v>1617822126600</v>
+      </c>
+      <c r="S60">
+        <v>111232100</v>
+      </c>
+      <c r="T60">
+        <v>106470000</v>
+      </c>
+      <c r="U60">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V60">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W60">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X60">
+        <v>4243795</v>
+      </c>
+      <c r="Y60">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z60">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA60">
+        <v>32965.5</v>
+      </c>
+      <c r="AB60">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC60">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>47401739000</v>
       </c>
+      <c r="Q61">
+        <v>1697918608100</v>
+      </c>
+      <c r="R61">
+        <v>1650516869100</v>
+      </c>
+      <c r="S61">
+        <v>111836700</v>
+      </c>
+      <c r="T61">
+        <v>108837600</v>
+      </c>
+      <c r="U61">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V61">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W61">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X61">
+        <v>4243795</v>
+      </c>
+      <c r="Y61">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z61">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA61">
+        <v>32965.5</v>
+      </c>
+      <c r="AB61">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC61">
+        <v>21.2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>11282228900</v>
       </c>
+      <c r="Q62">
+        <v>1704934777700</v>
+      </c>
+      <c r="R62">
+        <v>1693652548800</v>
+      </c>
+      <c r="S62">
+        <v>112310800</v>
+      </c>
+      <c r="T62">
+        <v>111698200</v>
+      </c>
+      <c r="U62">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V62">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W62">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X62">
+        <v>4243795</v>
+      </c>
+      <c r="Y62">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z62">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA62">
+        <v>32965.5</v>
+      </c>
+      <c r="AB62">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC62">
+        <v>29.1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-18163593700</v>
       </c>
+      <c r="Q63">
+        <v>1713827839600</v>
+      </c>
+      <c r="R63">
+        <v>1731991433300</v>
+      </c>
+      <c r="S63">
+        <v>112952600</v>
+      </c>
+      <c r="T63">
+        <v>114210200</v>
+      </c>
+      <c r="U63">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V63">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W63">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X63">
+        <v>4243795</v>
+      </c>
+      <c r="Y63">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z63">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA63">
+        <v>32965.5</v>
+      </c>
+      <c r="AB63">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC63">
+        <v>23.8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-25051944100</v>
       </c>
+      <c r="Q64">
+        <v>1731250612200</v>
+      </c>
+      <c r="R64">
+        <v>1756302556300</v>
+      </c>
+      <c r="S64">
+        <v>114095500</v>
+      </c>
+      <c r="T64">
+        <v>115891900</v>
+      </c>
+      <c r="U64">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V64">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W64">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X64">
+        <v>4243795</v>
+      </c>
+      <c r="Y64">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z64">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA64">
+        <v>32965.5</v>
+      </c>
+      <c r="AB64">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC64">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-34654968800</v>
       </c>
+      <c r="Q65">
+        <v>1747826342400</v>
+      </c>
+      <c r="R65">
+        <v>1782481311200</v>
+      </c>
+      <c r="S65">
+        <v>115152000</v>
+      </c>
+      <c r="T65">
+        <v>117646400</v>
+      </c>
+      <c r="U65">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V65">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W65">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X65">
+        <v>4243795</v>
+      </c>
+      <c r="Y65">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z65">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA65">
+        <v>32965.5</v>
+      </c>
+      <c r="AB65">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC65">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-39002297000</v>
       </c>
+      <c r="Q66">
+        <v>1763757519600</v>
+      </c>
+      <c r="R66">
+        <v>1802759816600</v>
+      </c>
+      <c r="S66">
+        <v>116058300</v>
+      </c>
+      <c r="T66">
+        <v>119045800</v>
+      </c>
+      <c r="U66">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V66">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W66">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X66">
+        <v>4243795</v>
+      </c>
+      <c r="Y66">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z66">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA66">
+        <v>32965.5</v>
+      </c>
+      <c r="AB66">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC66">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-44490932400</v>
       </c>
+      <c r="Q67">
+        <v>1772936871900</v>
+      </c>
+      <c r="R67">
+        <v>1817427804300</v>
+      </c>
+      <c r="S67">
+        <v>116737200</v>
+      </c>
+      <c r="T67">
+        <v>120017600</v>
+      </c>
+      <c r="U67">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V67">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W67">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X67">
+        <v>4243795</v>
+      </c>
+      <c r="Y67">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z67">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA67">
+        <v>32965.5</v>
+      </c>
+      <c r="AB67">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC67">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-61750789300</v>
       </c>
+      <c r="Q68">
+        <v>1779468149500</v>
+      </c>
+      <c r="R68">
+        <v>1841218938800</v>
+      </c>
+      <c r="S68">
+        <v>117125300</v>
+      </c>
+      <c r="T68">
+        <v>121732100</v>
+      </c>
+      <c r="U68">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V68">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W68">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X68">
+        <v>4243795</v>
+      </c>
+      <c r="Y68">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z68">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA68">
+        <v>32965.5</v>
+      </c>
+      <c r="AB68">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC68">
+        <v>13.9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-75378954900</v>
       </c>
+      <c r="Q69">
+        <v>1792162096000</v>
+      </c>
+      <c r="R69">
+        <v>1867541050900</v>
+      </c>
+      <c r="S69">
+        <v>118044200</v>
+      </c>
+      <c r="T69">
+        <v>123865700</v>
+      </c>
+      <c r="U69">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V69">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W69">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X69">
+        <v>4243795</v>
+      </c>
+      <c r="Y69">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z69">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA69">
+        <v>32965.5</v>
+      </c>
+      <c r="AB69">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC69">
+        <v>11</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-75256354900</v>
       </c>
+      <c r="Q70">
+        <v>1792310336000</v>
+      </c>
+      <c r="R70">
+        <v>1867566690900</v>
+      </c>
+      <c r="S70">
+        <v>118055300</v>
+      </c>
+      <c r="T70">
+        <v>123873400</v>
+      </c>
+      <c r="U70">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V70">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W70">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X70">
+        <v>4243795</v>
+      </c>
+      <c r="Y70">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z70">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA70">
+        <v>32965.5</v>
+      </c>
+      <c r="AB70">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC70">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-145077429600</v>
       </c>
+      <c r="Q71">
+        <v>1843183309200</v>
+      </c>
+      <c r="R71">
+        <v>1988260738800</v>
+      </c>
+      <c r="S71">
+        <v>121789600</v>
+      </c>
+      <c r="T71">
+        <v>132743300</v>
+      </c>
+      <c r="U71">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V71">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W71">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X71">
+        <v>4243795</v>
+      </c>
+      <c r="Y71">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z71">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA71">
+        <v>32965.5</v>
+      </c>
+      <c r="AB71">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC71">
+        <v>56.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-197431502700</v>
       </c>
+      <c r="Q72">
+        <v>1869106146300</v>
+      </c>
+      <c r="R72">
+        <v>2066537649000</v>
+      </c>
+      <c r="S72">
+        <v>123563800</v>
+      </c>
+      <c r="T72">
+        <v>138503400</v>
+      </c>
+      <c r="U72">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V72">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W72">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X72">
+        <v>4243795</v>
+      </c>
+      <c r="Y72">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z72">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA72">
+        <v>32965.5</v>
+      </c>
+      <c r="AB72">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC72">
+        <v>42.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-217931693500</v>
       </c>
+      <c r="Q73">
+        <v>1900994627100</v>
+      </c>
+      <c r="R73">
+        <v>2118926320600</v>
+      </c>
+      <c r="S73">
+        <v>125601700</v>
+      </c>
+      <c r="T73">
+        <v>142697100</v>
+      </c>
+      <c r="U73">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V73">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W73">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X73">
+        <v>4243795</v>
+      </c>
+      <c r="Y73">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z73">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA73">
+        <v>32965.5</v>
+      </c>
+      <c r="AB73">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC73">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-198134934500</v>
       </c>
+      <c r="Q74">
+        <v>1941709590700</v>
+      </c>
+      <c r="R74">
+        <v>2139844525200</v>
+      </c>
+      <c r="S74">
+        <v>128279500</v>
+      </c>
+      <c r="T74">
+        <v>144360300</v>
+      </c>
+      <c r="U74">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V74">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W74">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X74">
+        <v>4243795</v>
+      </c>
+      <c r="Y74">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z74">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA74">
+        <v>32965.5</v>
+      </c>
+      <c r="AB74">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC74">
+        <v>16</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-176929571800</v>
       </c>
+      <c r="Q75">
+        <v>1983928225300</v>
+      </c>
+      <c r="R75">
+        <v>2160857797100</v>
+      </c>
+      <c r="S75">
+        <v>131085600</v>
+      </c>
+      <c r="T75">
+        <v>145935000</v>
+      </c>
+      <c r="U75">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V75">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W75">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X75">
+        <v>4243795</v>
+      </c>
+      <c r="Y75">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z75">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA75">
+        <v>32965.5</v>
+      </c>
+      <c r="AB75">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC75">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-164286796100</v>
       </c>
+      <c r="Q76">
+        <v>2019266591800</v>
+      </c>
+      <c r="R76">
+        <v>2183553387900</v>
+      </c>
+      <c r="S76">
+        <v>133618000</v>
+      </c>
+      <c r="T76">
+        <v>147517600</v>
+      </c>
+      <c r="U76">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V76">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W76">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X76">
+        <v>4243795</v>
+      </c>
+      <c r="Y76">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z76">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA76">
+        <v>32965.5</v>
+      </c>
+      <c r="AB76">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC76">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-152844007700</v>
       </c>
+      <c r="Q77">
+        <v>2055642470100</v>
+      </c>
+      <c r="R77">
+        <v>2208486477800</v>
+      </c>
+      <c r="S77">
+        <v>136228000</v>
+      </c>
+      <c r="T77">
+        <v>149175800</v>
+      </c>
+      <c r="U77">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V77">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W77">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X77">
+        <v>4243795</v>
+      </c>
+      <c r="Y77">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z77">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA77">
+        <v>32965.5</v>
+      </c>
+      <c r="AB77">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC77">
+        <v>9.2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-155548252000</v>
       </c>
+      <c r="Q78">
+        <v>2078461477000</v>
+      </c>
+      <c r="R78">
+        <v>2234009729000</v>
+      </c>
+      <c r="S78">
+        <v>138039700</v>
+      </c>
+      <c r="T78">
+        <v>150809000</v>
+      </c>
+      <c r="U78">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V78">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W78">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X78">
+        <v>4243795</v>
+      </c>
+      <c r="Y78">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z78">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA78">
+        <v>32965.5</v>
+      </c>
+      <c r="AB78">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC78">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-166966272700</v>
       </c>
+      <c r="Q79">
+        <v>2099342810300</v>
+      </c>
+      <c r="R79">
+        <v>2266309083000</v>
+      </c>
+      <c r="S79">
+        <v>139429300</v>
+      </c>
+      <c r="T79">
+        <v>152942200</v>
+      </c>
+      <c r="U79">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V79">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W79">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X79">
+        <v>4243795</v>
+      </c>
+      <c r="Y79">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z79">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA79">
+        <v>32965.5</v>
+      </c>
+      <c r="AB79">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC79">
+        <v>9.2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-191661706300</v>
       </c>
+      <c r="Q80">
+        <v>2115034396300</v>
+      </c>
+      <c r="R80">
+        <v>2306696102600</v>
+      </c>
+      <c r="S80">
+        <v>140544600</v>
+      </c>
+      <c r="T80">
+        <v>155995100</v>
+      </c>
+      <c r="U80">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V80">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W80">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X80">
+        <v>4243795</v>
+      </c>
+      <c r="Y80">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z80">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA80">
+        <v>32965.5</v>
+      </c>
+      <c r="AB80">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC80">
+        <v>19.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-198757626500</v>
       </c>
+      <c r="Q81">
+        <v>2134521564500</v>
+      </c>
+      <c r="R81">
+        <v>2333279191000</v>
+      </c>
+      <c r="S81">
+        <v>141832600</v>
+      </c>
+      <c r="T81">
+        <v>158068500</v>
+      </c>
+      <c r="U81">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V81">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W81">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X81">
+        <v>4243795</v>
+      </c>
+      <c r="Y81">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z81">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA81">
+        <v>32965.5</v>
+      </c>
+      <c r="AB81">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC81">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-181611427100</v>
       </c>
+      <c r="Q82">
+        <v>2177532383600</v>
+      </c>
+      <c r="R82">
+        <v>2359143810700</v>
+      </c>
+      <c r="S82">
+        <v>144844400</v>
+      </c>
+      <c r="T82">
+        <v>159821900</v>
+      </c>
+      <c r="U82">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V82">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W82">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X82">
+        <v>4243795</v>
+      </c>
+      <c r="Y82">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z82">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA82">
+        <v>32965.5</v>
+      </c>
+      <c r="AB82">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC82">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-138360454500</v>
       </c>
+      <c r="Q83">
+        <v>2234000723900</v>
+      </c>
+      <c r="R83">
+        <v>2372361178400</v>
+      </c>
+      <c r="S83">
+        <v>148776600</v>
+      </c>
+      <c r="T83">
+        <v>160699500</v>
+      </c>
+      <c r="U83">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V83">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W83">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X83">
+        <v>4243795</v>
+      </c>
+      <c r="Y83">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z83">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA83">
+        <v>32965.5</v>
+      </c>
+      <c r="AB83">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC83">
+        <v>34.9</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-117986930000</v>
       </c>
+      <c r="Q84">
+        <v>2287334271200</v>
+      </c>
+      <c r="R84">
+        <v>2405321201200</v>
+      </c>
+      <c r="S84">
+        <v>152530200</v>
+      </c>
+      <c r="T84">
+        <v>162552000</v>
+      </c>
+      <c r="U84">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V84">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W84">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X84">
+        <v>4243795</v>
+      </c>
+      <c r="Y84">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z84">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA84">
+        <v>32965.5</v>
+      </c>
+      <c r="AB84">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC84">
+        <v>16.4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-116351296300</v>
       </c>
+      <c r="Q85">
+        <v>2313482012800</v>
+      </c>
+      <c r="R85">
+        <v>2429833309100</v>
+      </c>
+      <c r="S85">
+        <v>154116600</v>
+      </c>
+      <c r="T85">
+        <v>164229700</v>
+      </c>
+      <c r="U85">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V85">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W85">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X85">
+        <v>4243795</v>
+      </c>
+      <c r="Y85">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z85">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA85">
+        <v>32965.5</v>
+      </c>
+      <c r="AB85">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC85">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-124431050500</v>
       </c>
+      <c r="Q86">
+        <v>2336350371700</v>
+      </c>
+      <c r="R86">
+        <v>2460781422200</v>
+      </c>
+      <c r="S86">
+        <v>155638100</v>
+      </c>
+      <c r="T86">
+        <v>166395100</v>
+      </c>
+      <c r="U86">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V86">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W86">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X86">
+        <v>4243795</v>
+      </c>
+      <c r="Y86">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z86">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA86">
+        <v>32965.5</v>
+      </c>
+      <c r="AB86">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC86">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-137424457100</v>
       </c>
+      <c r="Q87">
+        <v>2353967011100</v>
+      </c>
+      <c r="R87">
+        <v>2491391468200</v>
+      </c>
+      <c r="S87">
+        <v>156639400</v>
+      </c>
+      <c r="T87">
+        <v>168950600</v>
+      </c>
+      <c r="U87">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V87">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W87">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X87">
+        <v>4243795</v>
+      </c>
+      <c r="Y87">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z87">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA87">
+        <v>32965.5</v>
+      </c>
+      <c r="AB87">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC87">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-135506022100</v>
       </c>
+      <c r="Q88">
+        <v>2375098733900</v>
+      </c>
+      <c r="R88">
+        <v>2510604756000</v>
+      </c>
+      <c r="S88">
+        <v>158030900</v>
+      </c>
+      <c r="T88">
+        <v>170596200</v>
+      </c>
+      <c r="U88">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V88">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W88">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X88">
+        <v>4243795</v>
+      </c>
+      <c r="Y88">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z88">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA88">
+        <v>32965.5</v>
+      </c>
+      <c r="AB88">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC88">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-158442623100</v>
       </c>
+      <c r="Q89">
+        <v>2401828049500</v>
+      </c>
+      <c r="R89">
+        <v>2560270672600</v>
+      </c>
+      <c r="S89">
+        <v>159792400</v>
+      </c>
+      <c r="T89">
+        <v>173609700</v>
+      </c>
+      <c r="U89">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V89">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W89">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X89">
+        <v>4243795</v>
+      </c>
+      <c r="Y89">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z89">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA89">
+        <v>32965.5</v>
+      </c>
+      <c r="AB89">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC89">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-230610561600</v>
       </c>
+      <c r="Q90">
+        <v>2419188977200</v>
+      </c>
+      <c r="R90">
+        <v>2649799538800</v>
+      </c>
+      <c r="S90">
+        <v>160790300</v>
+      </c>
+      <c r="T90">
+        <v>179281000</v>
+      </c>
+      <c r="U90">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V90">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W90">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X90">
+        <v>4243795</v>
+      </c>
+      <c r="Y90">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z90">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA90">
+        <v>32965.5</v>
+      </c>
+      <c r="AB90">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC90">
+        <v>58.2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-269690181100</v>
       </c>
+      <c r="Q91">
+        <v>2438710793100</v>
+      </c>
+      <c r="R91">
+        <v>2708400974200</v>
+      </c>
+      <c r="S91">
+        <v>161878600</v>
+      </c>
+      <c r="T91">
+        <v>183456700</v>
+      </c>
+      <c r="U91">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V91">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W91">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X91">
+        <v>4243795</v>
+      </c>
+      <c r="Y91">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z91">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA91">
+        <v>32965.5</v>
+      </c>
+      <c r="AB91">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC91">
+        <v>31.5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-276030660600</v>
       </c>
+      <c r="Q92">
+        <v>2465069296200</v>
+      </c>
+      <c r="R92">
+        <v>2741099956800</v>
+      </c>
+      <c r="S92">
+        <v>163329000</v>
+      </c>
+      <c r="T92">
+        <v>185732700</v>
+      </c>
+      <c r="U92">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V92">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W92">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X92">
+        <v>4243795</v>
+      </c>
+      <c r="Y92">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z92">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA92">
+        <v>32965.5</v>
+      </c>
+      <c r="AB92">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC92">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-256298226500</v>
       </c>
+      <c r="Q93">
+        <v>2501894638000</v>
+      </c>
+      <c r="R93">
+        <v>2758192864500</v>
+      </c>
+      <c r="S93">
+        <v>165776300</v>
+      </c>
+      <c r="T93">
+        <v>187053400</v>
+      </c>
+      <c r="U93">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V93">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W93">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X93">
+        <v>4243795</v>
+      </c>
+      <c r="Y93">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z93">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA93">
+        <v>32965.5</v>
+      </c>
+      <c r="AB93">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC93">
+        <v>15.9</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-263872310600</v>
       </c>
+      <c r="Q94">
+        <v>2524350962200</v>
+      </c>
+      <c r="R94">
+        <v>2788223272800</v>
+      </c>
+      <c r="S94">
+        <v>167276000</v>
+      </c>
+      <c r="T94">
+        <v>188749400</v>
+      </c>
+      <c r="U94">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V94">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W94">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X94">
+        <v>4243795</v>
+      </c>
+      <c r="Y94">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z94">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA94">
+        <v>32965.5</v>
+      </c>
+      <c r="AB94">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC94">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-257268683700</v>
       </c>
+      <c r="Q95">
+        <v>2548668259800</v>
+      </c>
+      <c r="R95">
+        <v>2805936943500</v>
+      </c>
+      <c r="S95">
+        <v>169007100</v>
+      </c>
+      <c r="T95">
+        <v>189942800</v>
+      </c>
+      <c r="U95">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V95">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W95">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X95">
+        <v>4243795</v>
+      </c>
+      <c r="Y95">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z95">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA95">
+        <v>32965.5</v>
+      </c>
+      <c r="AB95">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC95">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-256498609200</v>
       </c>
+      <c r="Q96">
+        <v>2570652840500</v>
+      </c>
+      <c r="R96">
+        <v>2827151449700</v>
+      </c>
+      <c r="S96">
+        <v>171007300</v>
+      </c>
+      <c r="T96">
+        <v>191403800</v>
+      </c>
+      <c r="U96">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V96">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W96">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X96">
+        <v>4243795</v>
+      </c>
+      <c r="Y96">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z96">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA96">
+        <v>32965.5</v>
+      </c>
+      <c r="AB96">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC96">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-287717331900</v>
       </c>
+      <c r="Q97">
+        <v>2591025952000</v>
+      </c>
+      <c r="R97">
+        <v>2878743283900</v>
+      </c>
+      <c r="S97">
+        <v>172466100</v>
+      </c>
+      <c r="T97">
+        <v>194571900</v>
+      </c>
+      <c r="U97">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V97">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W97">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X97">
+        <v>4243795</v>
+      </c>
+      <c r="Y97">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z97">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA97">
+        <v>32965.5</v>
+      </c>
+      <c r="AB97">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC97">
+        <v>25.2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-319631056200</v>
       </c>
+      <c r="Q98">
+        <v>2607693070300</v>
+      </c>
+      <c r="R98">
+        <v>2927324126500</v>
+      </c>
+      <c r="S98">
+        <v>173694500</v>
+      </c>
+      <c r="T98">
+        <v>198100900</v>
+      </c>
+      <c r="U98">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V98">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W98">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X98">
+        <v>4243795</v>
+      </c>
+      <c r="Y98">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z98">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA98">
+        <v>32965.5</v>
+      </c>
+      <c r="AB98">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC98">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-337792218100</v>
       </c>
+      <c r="Q99">
+        <v>2622488040000</v>
+      </c>
+      <c r="R99">
+        <v>2960280258100</v>
+      </c>
+      <c r="S99">
+        <v>174758800</v>
+      </c>
+      <c r="T99">
+        <v>200222300</v>
+      </c>
+      <c r="U99">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V99">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W99">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X99">
+        <v>4243795</v>
+      </c>
+      <c r="Y99">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z99">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA99">
+        <v>32965.5</v>
+      </c>
+      <c r="AB99">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC99">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-324355593300</v>
       </c>
+      <c r="Q100">
+        <v>2648907247400</v>
+      </c>
+      <c r="R100">
+        <v>2973262840700</v>
+      </c>
+      <c r="S100">
+        <v>176692700</v>
+      </c>
+      <c r="T100">
+        <v>201194000</v>
+      </c>
+      <c r="U100">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V100">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W100">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X100">
+        <v>4243795</v>
+      </c>
+      <c r="Y100">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z100">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA100">
+        <v>32965.5</v>
+      </c>
+      <c r="AB100">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC100">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-244586506500</v>
       </c>
+      <c r="Q101">
+        <v>2742435601000</v>
+      </c>
+      <c r="R101">
+        <v>2987022107500</v>
+      </c>
+      <c r="S101">
+        <v>183004100</v>
+      </c>
+      <c r="T101">
+        <v>202219400</v>
+      </c>
+      <c r="U101">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V101">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W101">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X101">
+        <v>4243795</v>
+      </c>
+      <c r="Y101">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z101">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA101">
+        <v>32965.5</v>
+      </c>
+      <c r="AB101">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC101">
+        <v>64.4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-184396077600</v>
       </c>
+      <c r="Q102">
+        <v>2817316621200</v>
+      </c>
+      <c r="R102">
+        <v>3001712698800</v>
+      </c>
+      <c r="S102">
+        <v>188104900</v>
+      </c>
+      <c r="T102">
+        <v>203304100</v>
+      </c>
+      <c r="U102">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V102">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W102">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X102">
+        <v>4243795</v>
+      </c>
+      <c r="Y102">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z102">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA102">
+        <v>32965.5</v>
+      </c>
+      <c r="AB102">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC102">
+        <v>48.6</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-172773242800</v>
       </c>
+      <c r="Q103">
+        <v>2869549403900</v>
+      </c>
+      <c r="R103">
+        <v>3042322646700</v>
+      </c>
+      <c r="S103">
+        <v>191938100</v>
+      </c>
+      <c r="T103">
+        <v>205944200</v>
+      </c>
+      <c r="U103">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V103">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W103">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X103">
+        <v>4243795</v>
+      </c>
+      <c r="Y103">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z103">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA103">
+        <v>32965.5</v>
+      </c>
+      <c r="AB103">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC103">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-153229389100</v>
       </c>
+      <c r="Q104">
+        <v>2917784511300</v>
+      </c>
+      <c r="R104">
+        <v>3071013900400</v>
+      </c>
+      <c r="S104">
+        <v>195231900</v>
+      </c>
+      <c r="T104">
+        <v>208103100</v>
+      </c>
+      <c r="U104">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V104">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W104">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X104">
+        <v>4243795</v>
+      </c>
+      <c r="Y104">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z104">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA104">
+        <v>32965.5</v>
+      </c>
+      <c r="AB104">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC104">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-89903468900</v>
       </c>
+      <c r="Q105">
+        <v>3001905467300</v>
+      </c>
+      <c r="R105">
+        <v>3091808936200</v>
+      </c>
+      <c r="S105">
+        <v>201718500</v>
+      </c>
+      <c r="T105">
+        <v>209504500</v>
+      </c>
+      <c r="U105">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V105">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W105">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X105">
+        <v>4243795</v>
+      </c>
+      <c r="Y105">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z105">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA105">
+        <v>32965.5</v>
+      </c>
+      <c r="AB105">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC105">
+        <v>51.1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>10879238100</v>
       </c>
+      <c r="Q106">
+        <v>3119357597400</v>
+      </c>
+      <c r="R106">
+        <v>3108478359300</v>
+      </c>
+      <c r="S106">
+        <v>211026900</v>
+      </c>
+      <c r="T106">
+        <v>210804400</v>
+      </c>
+      <c r="U106">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V106">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W106">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X106">
+        <v>4243795</v>
+      </c>
+      <c r="Y106">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z106">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA106">
+        <v>32965.5</v>
+      </c>
+      <c r="AB106">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC106">
+        <v>81.3</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>28896433900</v>
       </c>
+      <c r="Q107">
+        <v>3191475004900</v>
+      </c>
+      <c r="R107">
+        <v>3162578571000</v>
+      </c>
+      <c r="S107">
+        <v>216091600</v>
+      </c>
+      <c r="T107">
+        <v>215032900</v>
+      </c>
+      <c r="U107">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V107">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W107">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X107">
+        <v>4243795</v>
+      </c>
+      <c r="Y107">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z107">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA107">
+        <v>32965.5</v>
+      </c>
+      <c r="AB107">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC107">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>18819305700</v>
       </c>
+      <c r="Q108">
+        <v>3224016079700</v>
+      </c>
+      <c r="R108">
+        <v>3205196774000</v>
+      </c>
+      <c r="S108">
+        <v>217948700</v>
+      </c>
+      <c r="T108">
+        <v>218171400</v>
+      </c>
+      <c r="U108">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V108">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W108">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X108">
+        <v>4243795</v>
+      </c>
+      <c r="Y108">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z108">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA108">
+        <v>32965.5</v>
+      </c>
+      <c r="AB108">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC108">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>1124315600</v>
       </c>
+      <c r="Q109">
+        <v>3246686224700</v>
+      </c>
+      <c r="R109">
+        <v>3245561909100</v>
+      </c>
+      <c r="S109">
+        <v>219523200</v>
+      </c>
+      <c r="T109">
+        <v>221022900</v>
+      </c>
+      <c r="U109">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V109">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W109">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X109">
+        <v>4243795</v>
+      </c>
+      <c r="Y109">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z109">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA109">
+        <v>32965.5</v>
+      </c>
+      <c r="AB109">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC109">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-28971146900</v>
       </c>
+      <c r="Q110">
+        <v>3261087568800</v>
+      </c>
+      <c r="R110">
+        <v>3290058715700</v>
+      </c>
+      <c r="S110">
+        <v>220695400</v>
+      </c>
+      <c r="T110">
+        <v>224167200</v>
+      </c>
+      <c r="U110">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V110">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W110">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X110">
+        <v>4243795</v>
+      </c>
+      <c r="Y110">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z110">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA110">
+        <v>32965.5</v>
+      </c>
+      <c r="AB110">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC110">
+        <v>24.3</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-26960103900</v>
       </c>
+      <c r="Q111">
+        <v>3289241492400</v>
+      </c>
+      <c r="R111">
+        <v>3316201596300</v>
+      </c>
+      <c r="S111">
+        <v>222510000</v>
+      </c>
+      <c r="T111">
+        <v>226014400</v>
+      </c>
+      <c r="U111">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V111">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W111">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X111">
+        <v>4243795</v>
+      </c>
+      <c r="Y111">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z111">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA111">
+        <v>32965.5</v>
+      </c>
+      <c r="AB111">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC111">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>104706000</v>
       </c>
+      <c r="Q112">
+        <v>3334352793900</v>
+      </c>
+      <c r="R112">
+        <v>3334248087900</v>
+      </c>
+      <c r="S112">
+        <v>225907100</v>
+      </c>
+      <c r="T112">
+        <v>227623500</v>
+      </c>
+      <c r="U112">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V112">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W112">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X112">
+        <v>4243795</v>
+      </c>
+      <c r="Y112">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z112">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA112">
+        <v>32965.5</v>
+      </c>
+      <c r="AB112">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC112">
+        <v>21.8</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>44164573700</v>
       </c>
+      <c r="Q113">
+        <v>3394595187900</v>
+      </c>
+      <c r="R113">
+        <v>3350430614200</v>
+      </c>
+      <c r="S113">
+        <v>229729900</v>
+      </c>
+      <c r="T113">
+        <v>228884000</v>
+      </c>
+      <c r="U113">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V113">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W113">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X113">
+        <v>4243795</v>
+      </c>
+      <c r="Y113">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z113">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA113">
+        <v>32965.5</v>
+      </c>
+      <c r="AB113">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC113">
+        <v>35.6</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>73253578900</v>
       </c>
+      <c r="Q114">
+        <v>3454867354000</v>
+      </c>
+      <c r="R114">
+        <v>3381613775100</v>
+      </c>
+      <c r="S114">
+        <v>233168700</v>
+      </c>
+      <c r="T114">
+        <v>230991700</v>
+      </c>
+      <c r="U114">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V114">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W114">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X114">
+        <v>4243795</v>
+      </c>
+      <c r="Y114">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z114">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA114">
+        <v>32965.5</v>
+      </c>
+      <c r="AB114">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC114">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>98915048200</v>
       </c>
+      <c r="Q115">
+        <v>3522640337300</v>
+      </c>
+      <c r="R115">
+        <v>3423725289100</v>
+      </c>
+      <c r="S115">
+        <v>237531300</v>
+      </c>
+      <c r="T115">
+        <v>234133400</v>
+      </c>
+      <c r="U115">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V115">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W115">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X115">
+        <v>4243795</v>
+      </c>
+      <c r="Y115">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z115">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA115">
+        <v>32965.5</v>
+      </c>
+      <c r="AB115">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC115">
+        <v>20.7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>98597486200</v>
       </c>
+      <c r="Q116">
+        <v>3522778310300</v>
+      </c>
+      <c r="R116">
+        <v>3424180824100</v>
+      </c>
+      <c r="S116">
+        <v>237550700</v>
+      </c>
+      <c r="T116">
+        <v>234201000</v>
+      </c>
+      <c r="U116">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V116">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W116">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X116">
+        <v>4243795</v>
+      </c>
+      <c r="Y116">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z116">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA116">
+        <v>32965.5</v>
+      </c>
+      <c r="AB116">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC116">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>98617686200</v>
       </c>
+      <c r="Q117">
+        <v>3522798510300</v>
+      </c>
+      <c r="R117">
+        <v>3424180824100</v>
+      </c>
+      <c r="S117">
+        <v>237552700</v>
+      </c>
+      <c r="T117">
+        <v>234201000</v>
+      </c>
+      <c r="U117">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V117">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W117">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X117">
+        <v>4243795</v>
+      </c>
+      <c r="Y117">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z117">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA117">
+        <v>32965.5</v>
+      </c>
+      <c r="AB117">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>147464096600</v>
       </c>
+      <c r="Q118">
+        <v>3586293734600</v>
+      </c>
+      <c r="R118">
+        <v>3438829638000</v>
+      </c>
+      <c r="S118">
+        <v>239627700</v>
+      </c>
+      <c r="T118">
+        <v>235706600</v>
+      </c>
+      <c r="U118">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V118">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W118">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X118">
+        <v>4243795</v>
+      </c>
+      <c r="Y118">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z118">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA118">
+        <v>32965.5</v>
+      </c>
+      <c r="AB118">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC118">
+        <v>39.4</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>147466110600</v>
       </c>
+      <c r="Q119">
+        <v>3586295754600</v>
+      </c>
+      <c r="R119">
+        <v>3438829644000</v>
+      </c>
+      <c r="S119">
+        <v>239627900</v>
+      </c>
+      <c r="T119">
+        <v>235707200</v>
+      </c>
+      <c r="U119">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V119">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W119">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X119">
+        <v>4243795</v>
+      </c>
+      <c r="Y119">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z119">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA119">
+        <v>32965.5</v>
+      </c>
+      <c r="AB119">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,10 +11042,49 @@
       <c r="P120">
         <v>147466132600</v>
       </c>
+      <c r="Q120">
+        <v>3586295780600</v>
+      </c>
+      <c r="R120">
+        <v>3438829648000</v>
+      </c>
+      <c r="S120">
+        <v>239630500</v>
+      </c>
+      <c r="T120">
+        <v>235707600</v>
+      </c>
+      <c r="U120">
+        <v>30136939332.8</v>
+      </c>
+      <c r="V120">
+        <v>28897728134.5</v>
+      </c>
+      <c r="W120">
+        <v>62900544650.4</v>
+      </c>
+      <c r="X120">
+        <v>4243795</v>
+      </c>
+      <c r="Y120">
+        <v>2013701.7</v>
+      </c>
+      <c r="Z120">
+        <v>1980736.1</v>
+      </c>
+      <c r="AA120">
+        <v>32965.5</v>
+      </c>
+      <c r="AB120">
+        <v>1239211198.3</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P120"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC120"/>
   </ignoredErrors>
 </worksheet>
 </file>